--- a/data_gen/openc2_genj.xlsx
+++ b/data_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="502">
-  <si>
-    <t>Generated from data\openc2.jaen, Thu Mar  2 09:32:35 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="500">
+  <si>
+    <t>Generated from data\openc2.jaen, Thu Mar  2 10:34:55 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -195,7 +195,7 @@
     <t>scan</t>
   </si>
   <si>
-    <t>locate       (2),</t>
+    <t>locate</t>
   </si>
   <si>
     <t>query</t>
@@ -327,6 +327,9 @@
     <t>device</t>
   </si>
   <si>
+    <t>device (Map)</t>
+  </si>
+  <si>
     <t>CybOX 2.1</t>
   </si>
   <si>
@@ -1110,202 +1113,193 @@
     <t>Specifies a dictionary of hashes for the contents of the payload</t>
   </si>
   <si>
+    <t>Target used to query Actuator for its supported capabilities</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>results = JSON array of supported action verbs</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>results = JAEN syntax of supported commands</t>
+  </si>
+  <si>
+    <t>Description (optional)</t>
+  </si>
+  <si>
+    <t>Device_Type (optional)</t>
+  </si>
+  <si>
+    <t>Manufacturer (optional)</t>
+  </si>
+  <si>
+    <t>Model (optional)</t>
+  </si>
+  <si>
+    <t>Serial_Number (optional)</t>
+  </si>
+  <si>
+    <t>Firmware_Version (optional)</t>
+  </si>
+  <si>
+    <t>System_Details (optional)</t>
+  </si>
+  <si>
+    <t>MUST be "directory"</t>
+  </si>
+  <si>
+    <t>path (required)</t>
+  </si>
+  <si>
+    <t>Path, as originally observed, to the directory on the filesystem</t>
+  </si>
+  <si>
+    <t>path_enc (optional)</t>
+  </si>
+  <si>
+    <t>Observed encoding for the path, from the IANA Character Set Registry</t>
+  </si>
+  <si>
+    <t>created (optional)</t>
+  </si>
+  <si>
+    <t>Timestamp (String)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was created</t>
+  </si>
+  <si>
+    <t>modified (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was last written-to/modified</t>
+  </si>
+  <si>
+    <t>accessed (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was last accessed</t>
+  </si>
+  <si>
+    <t>contains (optional)</t>
+  </si>
+  <si>
+    <t>dir-contents (Array)</t>
+  </si>
+  <si>
+    <t>List of files/directories contained within the directory</t>
+  </si>
+  <si>
+    <t>dir-contents</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>dirfile (Choice)</t>
+  </si>
+  <si>
+    <t>dirfile</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>value (required)</t>
+  </si>
+  <si>
+    <t>Value of the domain name</t>
+  </si>
+  <si>
+    <t>resolves_to (optional)</t>
+  </si>
+  <si>
+    <t>dnvalues (Array)</t>
+  </si>
+  <si>
+    <t>List of IP addresses or domain names</t>
+  </si>
+  <si>
+    <t>dnvalues</t>
+  </si>
+  <si>
+    <t>dnvalue (Choice)</t>
+  </si>
+  <si>
+    <t>dnvalue</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Email address (addr-spec in RFC 5322 Section 3.4)</t>
+  </si>
+  <si>
+    <t>display_name (optional)</t>
+  </si>
+  <si>
+    <t>Name that is displayed to the user of a mail application</t>
+  </si>
+  <si>
+    <t>belongs_to (optional)</t>
+  </si>
+  <si>
+    <t>User account that the email address belongs to</t>
+  </si>
+  <si>
+    <t>TODO: finish</t>
+  </si>
+  <si>
+    <t>MUST be "email-message"</t>
+  </si>
+  <si>
+    <t>MUST be "file"</t>
+  </si>
+  <si>
+    <t>Specifies one or more IPv4 addresses using CIDR notation</t>
+  </si>
+  <si>
+    <t>resolves_to_refs (optional)</t>
+  </si>
+  <si>
+    <t>mac-addrs (Array)</t>
+  </si>
+  <si>
+    <t>Specifies a list of references to one or more Layer 2 Media Access Control (MAC) addresses that the IPv4 address resolves to.</t>
+  </si>
+  <si>
+    <t>belongs_to_refs (optional)</t>
+  </si>
+  <si>
+    <t>asystems (Array)</t>
+  </si>
+  <si>
+    <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
+  </si>
+  <si>
+    <t>ipv4-str</t>
+  </si>
+  <si>
+    <t>mac-addrs</t>
+  </si>
+  <si>
+    <t>asystems</t>
+  </si>
+  <si>
     <t>autonomous-system</t>
-  </si>
-  <si>
-    <t>MUST be "autonomous-system"</t>
-  </si>
-  <si>
-    <t>number (required)</t>
-  </si>
-  <si>
-    <t>Number assigned to the AS</t>
-  </si>
-  <si>
-    <t>name (optional)</t>
-  </si>
-  <si>
-    <t>Name of the AS</t>
-  </si>
-  <si>
-    <t>rir (optional)</t>
-  </si>
-  <si>
-    <t>Name of the Regional Internet Registry (RIR) that assigned the number to the AS.</t>
-  </si>
-  <si>
-    <t>Target used to query Actuator for its supported capabilities</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-  <si>
-    <t>results = JSON array of supported action verbs</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>results = JAEN syntax of supported commands</t>
-  </si>
-  <si>
-    <t>dirfile</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>dir-contents</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>dirfile (Choice)</t>
-  </si>
-  <si>
-    <t>MUST be "directory"</t>
-  </si>
-  <si>
-    <t>path (required)</t>
-  </si>
-  <si>
-    <t>Path, as originally observed, to the directory on the filesystem</t>
-  </si>
-  <si>
-    <t>path_enc (optional)</t>
-  </si>
-  <si>
-    <t>Observed encoding for the path, from the IANA Character Set Registry</t>
-  </si>
-  <si>
-    <t>created (optional)</t>
-  </si>
-  <si>
-    <t>Timestamp (String)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was created</t>
-  </si>
-  <si>
-    <t>modified (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was last written-to/modified</t>
-  </si>
-  <si>
-    <t>accessed (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was last accessed</t>
-  </si>
-  <si>
-    <t>contains (optional)</t>
-  </si>
-  <si>
-    <t>dir-contents (Array)</t>
-  </si>
-  <si>
-    <t>List of files/directories contained within the directory</t>
-  </si>
-  <si>
-    <t>dnvalue</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>dnvalues</t>
-  </si>
-  <si>
-    <t>List if IP addresses or domain names</t>
-  </si>
-  <si>
-    <t>dnvalue (Choice)</t>
-  </si>
-  <si>
-    <t>value (required)</t>
-  </si>
-  <si>
-    <t>Value of the domain name</t>
-  </si>
-  <si>
-    <t>resolves_to (optional)</t>
-  </si>
-  <si>
-    <t>dnvalues (Array)</t>
-  </si>
-  <si>
-    <t>List of IP addresses or domain names</t>
-  </si>
-  <si>
-    <t>MUST be "email-addr"</t>
-  </si>
-  <si>
-    <t>Email address (addr-spec in RFC 5322 Section 3.4)</t>
-  </si>
-  <si>
-    <t>display_name (optional)</t>
-  </si>
-  <si>
-    <t>Name that is displayed to the user of a mail application</t>
-  </si>
-  <si>
-    <t>belongs_to (optional)</t>
-  </si>
-  <si>
-    <t>User account that the email address belongs to</t>
-  </si>
-  <si>
-    <t>TODO: finish</t>
-  </si>
-  <si>
-    <t>MUST be "email-message"</t>
-  </si>
-  <si>
-    <t>MUST be "file"</t>
-  </si>
-  <si>
-    <t>mac-addrs</t>
-  </si>
-  <si>
-    <t>asystems</t>
-  </si>
-  <si>
-    <t>autonomous-system (Record)</t>
-  </si>
-  <si>
-    <t>Specifies one or more IPv4 addresses using CIDR notation</t>
-  </si>
-  <si>
-    <t>resolves_to_refs (optional)</t>
-  </si>
-  <si>
-    <t>mac-addrs (Array)</t>
-  </si>
-  <si>
-    <t>Specifies a list of references to one or more Layer 2 Media Access Control (MAC) addresses that the IPv4 address resolves to.</t>
-  </si>
-  <si>
-    <t>belongs_to_refs (optional)</t>
-  </si>
-  <si>
-    <t>asystems (Array)</t>
-  </si>
-  <si>
-    <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
-  </si>
-  <si>
-    <t>ipv4-str</t>
   </si>
   <si>
     <t>Specifies a single MAC address.  MUST be represented as a single colon-delimited, lowercase MAC-48 address, which MUST include leading zeros for each octet.  Example: 00:00:ab:cd:ef:01</t>
@@ -2005,7 +1999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E439"/>
+  <dimension ref="A2:E441"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2411,10 +2405,10 @@
         <v>102</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2422,10 +2416,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>98</v>
@@ -2436,13 +2430,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -2450,13 +2444,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -2464,10 +2458,10 @@
         <v>7</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>98</v>
@@ -2478,10 +2472,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>98</v>
@@ -2492,10 +2486,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>98</v>
@@ -2506,10 +2500,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>98</v>
@@ -2520,10 +2514,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>98</v>
@@ -2534,10 +2528,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>98</v>
@@ -2548,10 +2542,10 @@
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>98</v>
@@ -2562,13 +2556,13 @@
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -2576,13 +2570,13 @@
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2590,10 +2584,10 @@
         <v>16</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>98</v>
@@ -2604,10 +2598,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>98</v>
@@ -2618,10 +2612,10 @@
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>98</v>
@@ -2632,10 +2626,10 @@
         <v>19</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>98</v>
@@ -2646,13 +2640,13 @@
         <v>20</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -2660,13 +2654,13 @@
         <v>21</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2674,10 +2668,10 @@
         <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>98</v>
@@ -2688,10 +2682,10 @@
         <v>23</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>98</v>
@@ -2702,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2738,10 +2732,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E73" s="8"/>
     </row>
@@ -2750,10 +2744,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E74" s="8"/>
     </row>
@@ -2762,7 +2756,7 @@
         <v>15</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2798,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>49</v>
@@ -2810,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>49</v>
@@ -2822,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -2833,7 +2827,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2858,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E89" s="8"/>
     </row>
@@ -2870,10 +2864,10 @@
         <v>2</v>
       </c>
       <c r="C90" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2882,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E91" s="8"/>
     </row>
@@ -2894,10 +2888,10 @@
         <v>4</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E92" s="8"/>
     </row>
@@ -2906,10 +2900,10 @@
         <v>5</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E93" s="8"/>
     </row>
@@ -2918,10 +2912,10 @@
         <v>6</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E94" s="8"/>
     </row>
@@ -2930,10 +2924,10 @@
         <v>7</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E95" s="8"/>
     </row>
@@ -2942,10 +2936,10 @@
         <v>8</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E96" s="8"/>
     </row>
@@ -2954,10 +2948,10 @@
         <v>9</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2966,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E98" s="8"/>
     </row>
@@ -2978,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E99" s="8"/>
     </row>
@@ -2990,10 +2984,10 @@
         <v>12</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E100" s="8"/>
     </row>
@@ -3002,10 +2996,10 @@
         <v>13</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E101" s="8"/>
     </row>
@@ -3014,10 +3008,10 @@
         <v>14</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E102" s="8"/>
     </row>
@@ -3026,10 +3020,10 @@
         <v>15</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E103" s="8"/>
     </row>
@@ -3038,10 +3032,10 @@
         <v>16</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -3050,10 +3044,10 @@
         <v>17</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E105" s="8"/>
     </row>
@@ -3062,10 +3056,10 @@
         <v>18</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E106" s="8"/>
     </row>
@@ -3074,10 +3068,10 @@
         <v>19</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E107" s="8"/>
     </row>
@@ -3086,10 +3080,10 @@
         <v>20</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E108" s="8"/>
     </row>
@@ -3098,10 +3092,10 @@
         <v>21</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E109" s="8"/>
     </row>
@@ -3110,10 +3104,10 @@
         <v>22</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E110" s="8"/>
     </row>
@@ -3122,10 +3116,10 @@
         <v>23</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -3134,10 +3128,10 @@
         <v>24</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E112" s="8"/>
     </row>
@@ -3146,10 +3140,10 @@
         <v>25</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E113" s="8"/>
     </row>
@@ -3158,10 +3152,10 @@
         <v>26</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E114" s="8"/>
     </row>
@@ -3170,10 +3164,10 @@
         <v>27</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E115" s="8"/>
     </row>
@@ -3182,10 +3176,10 @@
         <v>28</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E116" s="8"/>
     </row>
@@ -3194,10 +3188,10 @@
         <v>29</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E117" s="8"/>
     </row>
@@ -3206,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E118" s="8"/>
     </row>
@@ -3218,10 +3212,10 @@
         <v>31</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E119" s="8"/>
     </row>
@@ -3230,10 +3224,10 @@
         <v>32</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E120" s="8"/>
     </row>
@@ -3242,10 +3236,10 @@
         <v>33</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E121" s="8"/>
     </row>
@@ -3254,10 +3248,10 @@
         <v>34</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E122" s="8"/>
     </row>
@@ -3266,10 +3260,10 @@
         <v>35</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E123" s="8"/>
     </row>
@@ -3278,10 +3272,10 @@
         <v>36</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E124" s="8"/>
     </row>
@@ -3290,10 +3284,10 @@
         <v>37</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E125" s="8"/>
     </row>
@@ -3302,10 +3296,10 @@
         <v>38</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E126" s="8"/>
     </row>
@@ -3314,10 +3308,10 @@
         <v>39</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E127" s="8"/>
     </row>
@@ -3326,10 +3320,10 @@
         <v>40</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E128" s="8"/>
     </row>
@@ -3338,10 +3332,10 @@
         <v>41</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E129" s="8"/>
     </row>
@@ -3350,10 +3344,10 @@
         <v>42</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E130" s="8"/>
     </row>
@@ -3362,10 +3356,10 @@
         <v>43</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E131" s="8"/>
     </row>
@@ -3374,10 +3368,10 @@
         <v>44</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E132" s="8"/>
     </row>
@@ -3386,10 +3380,10 @@
         <v>45</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E133" s="8"/>
     </row>
@@ -3398,7 +3392,7 @@
         <v>15</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3409,7 +3403,7 @@
         <v>16</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -3434,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E140" s="8"/>
     </row>
@@ -3446,10 +3440,10 @@
         <v>2</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="E141" s="8"/>
     </row>
@@ -3458,10 +3452,10 @@
         <v>3</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E142" s="8"/>
     </row>
@@ -3470,10 +3464,10 @@
         <v>4</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E143" s="8"/>
     </row>
@@ -3482,10 +3476,10 @@
         <v>5</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E144" s="8"/>
     </row>
@@ -3494,10 +3488,10 @@
         <v>6</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E145" s="8"/>
     </row>
@@ -3506,10 +3500,10 @@
         <v>7</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E146" s="8"/>
     </row>
@@ -3518,10 +3512,10 @@
         <v>8</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E147" s="8"/>
     </row>
@@ -3530,7 +3524,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>43</v>
@@ -3542,7 +3536,7 @@
         <v>15</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -3561,10 +3555,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3575,7 +3569,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -3594,10 +3588,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -3608,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -3630,7 +3624,7 @@
         <v>94</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3658,10 +3652,10 @@
         <v>64</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3672,10 +3666,10 @@
         <v>70</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3686,10 +3680,10 @@
         <v>58</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3700,10 +3694,10 @@
         <v>67</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3714,10 +3708,10 @@
         <v>68</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3725,7 +3719,7 @@
         <v>15</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -3758,7 +3752,7 @@
         <v>15</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -3780,7 +3774,7 @@
         <v>94</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -3791,7 +3785,7 @@
         <v>15</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -3813,7 +3807,7 @@
         <v>94</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -3824,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -3846,7 +3840,7 @@
         <v>94</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -3857,7 +3851,7 @@
         <v>15</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -3879,7 +3873,7 @@
         <v>94</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -3890,7 +3884,7 @@
         <v>15</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -3901,7 +3895,7 @@
         <v>16</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -3926,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3940,13 +3934,13 @@
         <v>2</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3954,13 +3948,13 @@
         <v>3</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3968,13 +3962,13 @@
         <v>4</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3982,13 +3976,13 @@
         <v>5</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3996,13 +3990,13 @@
         <v>6</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4010,13 +4004,13 @@
         <v>7</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4024,13 +4018,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4038,13 +4032,13 @@
         <v>9</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4052,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4066,13 +4060,13 @@
         <v>11</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4080,13 +4074,13 @@
         <v>12</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4094,13 +4088,13 @@
         <v>13</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4108,13 +4102,13 @@
         <v>14</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4122,7 +4116,7 @@
         <v>15</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -4158,13 +4152,13 @@
         <v>1</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4172,13 +4166,13 @@
         <v>2</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4222,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4236,13 +4230,13 @@
         <v>2</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4250,13 +4244,13 @@
         <v>3</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4264,13 +4258,13 @@
         <v>4</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4278,7 +4272,7 @@
         <v>15</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -4289,7 +4283,7 @@
         <v>16</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -4314,1616 +4308,1630 @@
         <v>1</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>141</v>
+        <v>370</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E240" s="8" t="s">
-        <v>365</v>
-      </c>
+      <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5">
       <c r="B241" s="8">
         <v>2</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E241" s="8" t="s">
-        <v>367</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E241" s="8"/>
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="8">
         <v>3</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E242" s="8" t="s">
-        <v>369</v>
-      </c>
+      <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5">
       <c r="B243" s="8">
         <v>4</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E243" s="8" t="s">
-        <v>371</v>
-      </c>
+      <c r="E243" s="8"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="B244" s="8">
+        <v>5</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" s="8"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="B245" s="8">
+        <v>6</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E245" s="8"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="4" t="s">
+      <c r="B246" s="8">
+        <v>7</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E246" s="8"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B249" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="B252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="B253" s="8">
+        <v>1</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E253" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="B249" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E249" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="B250" s="8">
-        <v>1</v>
-      </c>
-      <c r="C250" s="8" t="s">
+    </row>
+    <row r="254" spans="1:5">
+      <c r="B254" s="8">
+        <v>2</v>
+      </c>
+      <c r="C254" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D250" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E250" s="8"/>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="B251" s="8">
-        <v>2</v>
-      </c>
-      <c r="C251" s="8" t="s">
+      <c r="D254" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E254" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D251" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E251" s="8"/>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="5" t="s">
+    </row>
+    <row r="255" spans="1:5">
+      <c r="B255" s="8">
+        <v>3</v>
+      </c>
+      <c r="C255" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B255" s="6" t="s">
+      <c r="D255" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E255" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
     </row>
     <row r="256" spans="1:5">
       <c r="B256" s="8">
-        <v>0</v>
-      </c>
-      <c r="C256" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="D256" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E256" s="8"/>
+        <v>383</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="B257" s="8">
+        <v>5</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="B258" s="8">
+        <v>6</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="4" t="s">
+      <c r="B259" s="8">
+        <v>7</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B259" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="4" t="s">
+      <c r="B262" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="B262" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D262" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E262" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="B263" s="8">
-        <v>1</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E263" s="8" t="s">
-        <v>383</v>
-      </c>
+      <c r="B263" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
     </row>
     <row r="264" spans="1:5">
       <c r="B264" s="8">
+        <v>0</v>
+      </c>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E264" s="8"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="B270" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="B271" s="8">
+        <v>1</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E271" s="8"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="B272" s="8">
         <v>2</v>
       </c>
-      <c r="C264" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D264" s="8" t="s">
+      <c r="C272" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E272" s="8"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="B278" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="B279" s="8">
+        <v>1</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D279" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E264" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="B265" s="8">
-        <v>3</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E265" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="B266" s="8">
-        <v>4</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="D266" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E266" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="B267" s="8">
-        <v>5</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E267" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="B268" s="8">
-        <v>6</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E268" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="B269" s="8">
-        <v>7</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D269" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E269" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C272" s="5"/>
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="B275" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D275" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E275" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="B276" s="8">
-        <v>1</v>
-      </c>
-      <c r="C276" s="8" t="s">
+      <c r="E279" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D276" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E276" s="8"/>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="B277" s="8">
+    </row>
+    <row r="280" spans="1:5">
+      <c r="B280" s="8">
         <v>2</v>
       </c>
-      <c r="C277" s="8" t="s">
+      <c r="C280" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D277" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E277" s="8"/>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="B278" s="8">
-        <v>3</v>
-      </c>
-      <c r="C278" s="8" t="s">
+      <c r="D280" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D278" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E278" s="8"/>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="5" t="s">
+      <c r="E280" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C281" s="5"/>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="B284" s="8">
+      <c r="B285" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="B286" s="8">
         <v>0</v>
       </c>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8" t="s">
+      <c r="C286" s="8"/>
+      <c r="D286" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="E284" s="8"/>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="4" t="s">
+      <c r="E286" s="8"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B287" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C287" s="5"/>
-      <c r="D287" s="5"/>
-      <c r="E287" s="5"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="4" t="s">
+      <c r="B289" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B290" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="B292" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="B293" s="8">
+        <v>1</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E293" s="8"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="B294" s="8">
+        <v>2</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E294" s="8"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="B295" s="8">
+        <v>3</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E295" s="8"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="B290" s="7" t="s">
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="B301" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C301" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D290" s="7" t="s">
+      <c r="D301" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E290" s="7" t="s">
+      <c r="E301" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="B291" s="8">
-        <v>1</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D291" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E291" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="B292" s="8">
-        <v>2</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E292" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C295" s="5"/>
-      <c r="D295" s="5"/>
-      <c r="E295" s="5"/>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="B298" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E298" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="B299" s="8">
-        <v>1</v>
-      </c>
-      <c r="C299" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D299" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E299" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="B300" s="8">
-        <v>2</v>
-      </c>
-      <c r="C300" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D300" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E300" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="B301" s="8">
-        <v>3</v>
-      </c>
-      <c r="C301" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="D301" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E301" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="B302" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C305" s="5"/>
-      <c r="D305" s="5"/>
-      <c r="E305" s="5"/>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C306" s="6"/>
-      <c r="D306" s="6"/>
-      <c r="E306" s="6"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="B303" s="8">
+        <v>2</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="B304" s="8">
+        <v>3</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C308" s="6"/>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B307" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C309" s="6"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="B311" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C311" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D309" s="7" t="s">
+      <c r="D311" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E309" s="7" t="s">
+      <c r="E311" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
-      <c r="B310" s="8">
+    <row r="312" spans="1:5">
+      <c r="B312" s="8">
         <v>1</v>
       </c>
-      <c r="C310" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D310" s="8" t="s">
+      <c r="C312" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D312" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E310" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C313" s="5"/>
-      <c r="D313" s="5"/>
-      <c r="E313" s="5"/>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
+      <c r="E312" s="8" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B317" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="B319" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="B320" s="8">
+        <v>1</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E320" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="B317" s="7" t="s">
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C324" s="6"/>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="B326" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C326" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D317" s="7" t="s">
+      <c r="D326" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E317" s="7" t="s">
+      <c r="E326" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
-      <c r="B318" s="8">
+    <row r="327" spans="1:5">
+      <c r="B327" s="8">
         <v>1</v>
       </c>
-      <c r="C318" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D318" s="8" t="s">
+      <c r="C327" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D327" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E318" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C321" s="5"/>
-      <c r="D321" s="5"/>
-      <c r="E321" s="5"/>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C322" s="6"/>
-      <c r="D322" s="6"/>
-      <c r="E322" s="6"/>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="B323" s="8">
-        <v>0</v>
-      </c>
-      <c r="C323" s="8"/>
-      <c r="D323" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E323" s="8"/>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C326" s="5"/>
-      <c r="D326" s="5"/>
-      <c r="E326" s="5"/>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C327" s="6"/>
-      <c r="D327" s="6"/>
-      <c r="E327" s="6"/>
+      <c r="E327" s="8" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="328" spans="1:5">
       <c r="B328" s="8">
-        <v>0</v>
-      </c>
-      <c r="C328" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="D328" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="B329" s="8">
+        <v>3</v>
+      </c>
+      <c r="C329" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E328" s="8"/>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C331" s="5"/>
-      <c r="D331" s="5"/>
-      <c r="E331" s="5"/>
+      <c r="D329" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B332" s="6" t="s">
+      <c r="B333" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C332" s="6"/>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="B334" s="7" t="s">
+      <c r="C333" s="6"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="B335" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="C335" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D334" s="7" t="s">
+      <c r="D335" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E334" s="7" t="s">
+      <c r="E335" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="B335" s="8">
-        <v>1</v>
-      </c>
-      <c r="C335" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D335" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E335" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="B336" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="D336" s="8" t="s">
         <v>424</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="B337" s="8">
+        <v>2</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="B338" s="8">
         <v>3</v>
       </c>
-      <c r="C337" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="E337" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C340" s="5"/>
-      <c r="D340" s="5"/>
-      <c r="E340" s="5"/>
+      <c r="C338" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B341" s="6" t="s">
+      <c r="B342" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C342" s="6"/>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="B343" s="8">
+        <v>0</v>
+      </c>
+      <c r="C343" s="8"/>
+      <c r="D343" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E343" s="8"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="B348" s="8">
+        <v>0</v>
+      </c>
+      <c r="C348" s="8"/>
+      <c r="D348" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E348" s="8"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B352" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C341" s="6"/>
-      <c r="D341" s="6"/>
-      <c r="E341" s="6"/>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="B343" s="7" t="s">
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="B354" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="C354" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D343" s="7" t="s">
+      <c r="D354" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E343" s="7" t="s">
+      <c r="E354" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
-      <c r="B344" s="8">
+    <row r="355" spans="1:5">
+      <c r="B355" s="8">
         <v>1</v>
       </c>
-      <c r="C344" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D344" s="8" t="s">
+      <c r="C355" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E344" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="B345" s="8">
-        <v>2</v>
-      </c>
-      <c r="C345" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D345" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E345" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="B346" s="8">
-        <v>3</v>
-      </c>
-      <c r="C346" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="D346" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="E346" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C349" s="5"/>
-      <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="4" t="s">
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B350" s="6" t="s">
+      <c r="B359" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
-      <c r="E350" s="6"/>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="B352" s="7" t="s">
+      <c r="C359" s="6"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="B361" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C361" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="D361" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E352" s="7" t="s">
+      <c r="E361" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
-      <c r="B353" s="8">
+    <row r="362" spans="1:5">
+      <c r="B362" s="8">
         <v>1</v>
       </c>
-      <c r="C353" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D353" s="8" t="s">
+      <c r="C362" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D362" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E353" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B356" s="5" t="s">
+      <c r="E362" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C356" s="5"/>
-      <c r="D356" s="5"/>
-      <c r="E356" s="5"/>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C357" s="6"/>
-      <c r="D357" s="6"/>
-      <c r="E357" s="6"/>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="B359" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D359" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E359" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="B360" s="8">
-        <v>1</v>
-      </c>
-      <c r="C360" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="D360" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E360" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C363" s="5"/>
-      <c r="D363" s="5"/>
-      <c r="E363" s="5"/>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
-      <c r="E364" s="6"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C366" s="6"/>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B365" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C365" s="6"/>
-      <c r="D365" s="6"/>
-      <c r="E365" s="6"/>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C367" s="6"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="B369" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C367" s="7" t="s">
+      <c r="C369" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D367" s="7" t="s">
+      <c r="D369" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E367" s="7" t="s">
+      <c r="E369" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="B368" s="8">
-        <v>1</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D368" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="E368" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="B369" s="8">
-        <v>2</v>
-      </c>
-      <c r="C369" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="D369" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E369" s="8" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="B370" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E370" s="8" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="B371" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E371" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="B372" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E372" s="8" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="B373" s="8">
+        <v>4</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="B374" s="8">
+        <v>5</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="B375" s="8">
         <v>6</v>
       </c>
-      <c r="C373" s="8" t="s">
+      <c r="C375" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E375" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D373" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E373" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="4" t="s">
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B376" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
-      <c r="E376" s="5"/>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="4" t="s">
+      <c r="B378" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B377" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C377" s="6"/>
-      <c r="D377" s="6"/>
-      <c r="E377" s="6"/>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="B378" s="8">
+      <c r="B379" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C379" s="6"/>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="B380" s="8">
         <v>0</v>
       </c>
-      <c r="C378" s="8"/>
-      <c r="D378" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="E378" s="8"/>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="4" t="s">
+      <c r="C380" s="8"/>
+      <c r="D380" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E380" s="8"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B381" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
-      <c r="E381" s="5"/>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="4" t="s">
+      <c r="B383" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B382" s="6" t="s">
+      <c r="B384" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="B384" s="7" t="s">
+      <c r="C384" s="6"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="B386" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C386" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D384" s="7" t="s">
+      <c r="D386" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E384" s="7" t="s">
+      <c r="E386" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="B385" s="8">
-        <v>1</v>
-      </c>
-      <c r="C385" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E385" s="8"/>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="B386" s="8">
-        <v>2</v>
-      </c>
-      <c r="C386" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="D386" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E386" s="8"/>
     </row>
     <row r="387" spans="1:5">
       <c r="B387" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="D387" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E387" s="8"/>
     </row>
     <row r="388" spans="1:5">
       <c r="B388" s="8">
+        <v>2</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E388" s="8"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="B389" s="8">
+        <v>3</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E389" s="8"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="B390" s="8">
         <v>4</v>
       </c>
-      <c r="C388" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D388" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E388" s="8"/>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="A391" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C391" s="5"/>
-      <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B392" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C392" s="6"/>
-      <c r="D392" s="6"/>
-      <c r="E392" s="6"/>
+      <c r="C390" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E390" s="8"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C394" s="6"/>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B393" s="6" t="s">
+      <c r="B395" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C395" s="6"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="B397" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D397" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E397" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="B398" s="8">
+        <v>1</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E398" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C393" s="6"/>
-      <c r="D393" s="6"/>
-      <c r="E393" s="6"/>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="B395" s="7" t="s">
+    </row>
+    <row r="399" spans="1:5">
+      <c r="B399" s="8">
+        <v>2</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C403" s="6"/>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="B405" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C405" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D395" s="7" t="s">
+      <c r="D405" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E395" s="7" t="s">
+      <c r="E405" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
-      <c r="B396" s="8">
+    <row r="406" spans="1:5">
+      <c r="B406" s="8">
         <v>1</v>
       </c>
-      <c r="C396" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D396" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E396" s="8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="B397" s="8">
-        <v>2</v>
-      </c>
-      <c r="C397" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D397" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="E397" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="A400" s="4" t="s">
+      <c r="C406" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E406" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B400" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C400" s="5"/>
-      <c r="D400" s="5"/>
-      <c r="E400" s="5"/>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401" s="4" t="s">
+      <c r="B409" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B401" s="6" t="s">
+      <c r="B410" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C401" s="6"/>
-      <c r="D401" s="6"/>
-      <c r="E401" s="6"/>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="B403" s="7" t="s">
+      <c r="C410" s="6"/>
+      <c r="D410" s="6"/>
+      <c r="E410" s="6"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="B412" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C412" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D403" s="7" t="s">
+      <c r="D412" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E403" s="7" t="s">
+      <c r="E412" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
-      <c r="B404" s="8">
+    <row r="413" spans="1:5">
+      <c r="B413" s="8">
         <v>1</v>
       </c>
-      <c r="C404" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D404" s="8" t="s">
+      <c r="C413" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D413" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E404" s="8" t="s">
+      <c r="E413" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C417" s="6"/>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="B419" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D419" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E419" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="B420" s="8">
+        <v>1</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D420" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E420" s="8" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="4" t="s">
+    <row r="423" spans="1:5">
+      <c r="A423" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B407" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C407" s="5"/>
-      <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="4" t="s">
+      <c r="B423" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B408" s="6" t="s">
+      <c r="B424" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C408" s="6"/>
-      <c r="D408" s="6"/>
-      <c r="E408" s="6"/>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="B410" s="7" t="s">
+      <c r="C424" s="6"/>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="B426" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C426" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D410" s="7" t="s">
+      <c r="D426" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E410" s="7" t="s">
+      <c r="E426" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
-      <c r="B411" s="8">
+    <row r="427" spans="1:5">
+      <c r="B427" s="8">
         <v>1</v>
       </c>
-      <c r="C411" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D411" s="8" t="s">
+      <c r="C427" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D427" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E411" s="8" t="s">
+      <c r="E427" s="8" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="4" t="s">
+    <row r="430" spans="1:5">
+      <c r="A430" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B414" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" s="4" t="s">
+      <c r="B430" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B415" s="6" t="s">
+      <c r="B431" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C415" s="6"/>
-      <c r="D415" s="6"/>
-      <c r="E415" s="6"/>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="B417" s="7" t="s">
+      <c r="C431" s="6"/>
+      <c r="D431" s="6"/>
+      <c r="E431" s="6"/>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="B433" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C417" s="7" t="s">
+      <c r="C433" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D417" s="7" t="s">
+      <c r="D433" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E417" s="7" t="s">
+      <c r="E433" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
-      <c r="B418" s="8">
+    <row r="434" spans="1:5">
+      <c r="B434" s="8">
         <v>1</v>
       </c>
-      <c r="C418" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D418" s="8" t="s">
+      <c r="C434" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D434" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E418" s="8" t="s">
+      <c r="E434" s="8" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
-      <c r="A421" s="4" t="s">
+    <row r="437" spans="1:5">
+      <c r="A437" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B421" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C421" s="5"/>
-      <c r="D421" s="5"/>
-      <c r="E421" s="5"/>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="4" t="s">
+      <c r="B437" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C437" s="5"/>
+      <c r="D437" s="5"/>
+      <c r="E437" s="5"/>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B422" s="6" t="s">
+      <c r="B438" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C422" s="6"/>
-      <c r="D422" s="6"/>
-      <c r="E422" s="6"/>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="B424" s="7" t="s">
+      <c r="C438" s="6"/>
+      <c r="D438" s="6"/>
+      <c r="E438" s="6"/>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="B440" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C424" s="7" t="s">
+      <c r="C440" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D424" s="7" t="s">
+      <c r="D440" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E424" s="7" t="s">
+      <c r="E440" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
-      <c r="B425" s="8">
+    <row r="441" spans="1:5">
+      <c r="B441" s="8">
         <v>1</v>
       </c>
-      <c r="C425" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D425" s="8" t="s">
+      <c r="C441" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D441" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E425" s="8" t="s">
+      <c r="E441" s="8" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="A428" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C428" s="5"/>
-      <c r="D428" s="5"/>
-      <c r="E428" s="5"/>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="A429" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B429" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C429" s="6"/>
-      <c r="D429" s="6"/>
-      <c r="E429" s="6"/>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="B431" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C431" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D431" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E431" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="B432" s="8">
-        <v>1</v>
-      </c>
-      <c r="C432" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D432" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E432" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B435" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C435" s="5"/>
-      <c r="D435" s="5"/>
-      <c r="E435" s="5"/>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B436" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C436" s="6"/>
-      <c r="D436" s="6"/>
-      <c r="E436" s="6"/>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="B438" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C438" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D438" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E438" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="B439" s="8">
-        <v>1</v>
-      </c>
-      <c r="C439" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D439" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E439" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5979,61 +5987,61 @@
     <mergeCell ref="B227:E227"/>
     <mergeCell ref="B236:E236"/>
     <mergeCell ref="B237:E237"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B247:E247"/>
-    <mergeCell ref="B254:E254"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="B259:E259"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B272:E272"/>
-    <mergeCell ref="B273:E273"/>
-    <mergeCell ref="B281:E281"/>
-    <mergeCell ref="B282:E282"/>
+    <mergeCell ref="B249:E249"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B263:E263"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="B268:E268"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:E276"/>
     <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B295:E295"/>
-    <mergeCell ref="B296:E296"/>
-    <mergeCell ref="B305:E305"/>
-    <mergeCell ref="B306:E306"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B298:E298"/>
+    <mergeCell ref="B299:E299"/>
     <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B313:E313"/>
-    <mergeCell ref="B314:E314"/>
+    <mergeCell ref="B308:E308"/>
+    <mergeCell ref="B309:E309"/>
     <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B327:E327"/>
-    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B317:E317"/>
+    <mergeCell ref="B323:E323"/>
+    <mergeCell ref="B324:E324"/>
     <mergeCell ref="B332:E332"/>
-    <mergeCell ref="B340:E340"/>
+    <mergeCell ref="B333:E333"/>
     <mergeCell ref="B341:E341"/>
-    <mergeCell ref="B349:E349"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B356:E356"/>
-    <mergeCell ref="B357:E357"/>
-    <mergeCell ref="B363:E363"/>
-    <mergeCell ref="B364:E364"/>
+    <mergeCell ref="B342:E342"/>
+    <mergeCell ref="B346:E346"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B351:E351"/>
+    <mergeCell ref="B352:E352"/>
+    <mergeCell ref="B358:E358"/>
+    <mergeCell ref="B359:E359"/>
     <mergeCell ref="B365:E365"/>
-    <mergeCell ref="B376:E376"/>
-    <mergeCell ref="B377:E377"/>
-    <mergeCell ref="B381:E381"/>
-    <mergeCell ref="B382:E382"/>
-    <mergeCell ref="B391:E391"/>
-    <mergeCell ref="B392:E392"/>
+    <mergeCell ref="B366:E366"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="B378:E378"/>
+    <mergeCell ref="B379:E379"/>
+    <mergeCell ref="B383:E383"/>
+    <mergeCell ref="B384:E384"/>
     <mergeCell ref="B393:E393"/>
-    <mergeCell ref="B400:E400"/>
-    <mergeCell ref="B401:E401"/>
-    <mergeCell ref="B407:E407"/>
-    <mergeCell ref="B408:E408"/>
-    <mergeCell ref="B414:E414"/>
-    <mergeCell ref="B415:E415"/>
-    <mergeCell ref="B421:E421"/>
-    <mergeCell ref="B422:E422"/>
-    <mergeCell ref="B428:E428"/>
-    <mergeCell ref="B429:E429"/>
-    <mergeCell ref="B435:E435"/>
-    <mergeCell ref="B436:E436"/>
+    <mergeCell ref="B394:E394"/>
+    <mergeCell ref="B395:E395"/>
+    <mergeCell ref="B402:E402"/>
+    <mergeCell ref="B403:E403"/>
+    <mergeCell ref="B409:E409"/>
+    <mergeCell ref="B410:E410"/>
+    <mergeCell ref="B416:E416"/>
+    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="B423:E423"/>
+    <mergeCell ref="B424:E424"/>
+    <mergeCell ref="B430:E430"/>
+    <mergeCell ref="B431:E431"/>
+    <mergeCell ref="B437:E437"/>
+    <mergeCell ref="B438:E438"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6041,7 +6049,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D180"/>
+  <dimension ref="A2:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6081,340 +6089,338 @@
       <c r="C5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="B34" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
       <c r="B38" s="8">
+        <v>34</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="8">
         <v>35</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="7" t="s">
+      <c r="B41" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="8">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>147</v>
@@ -6423,7 +6429,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>148</v>
@@ -6432,7 +6438,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="B46" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>149</v>
@@ -6441,7 +6447,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>150</v>
@@ -6450,7 +6456,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>151</v>
@@ -6459,7 +6465,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>152</v>
@@ -6468,7 +6474,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>153</v>
@@ -6477,7 +6483,7 @@
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>154</v>
@@ -6486,7 +6492,7 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>155</v>
@@ -6495,7 +6501,7 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>156</v>
@@ -6504,7 +6510,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>157</v>
@@ -6513,7 +6519,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>158</v>
@@ -6522,7 +6528,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>159</v>
@@ -6531,7 +6537,7 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>160</v>
@@ -6540,7 +6546,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>161</v>
@@ -6549,7 +6555,7 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>162</v>
@@ -6558,7 +6564,7 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>163</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>164</v>
@@ -6576,7 +6582,7 @@
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>165</v>
@@ -6585,7 +6591,7 @@
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>166</v>
@@ -6594,7 +6600,7 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>167</v>
@@ -6603,7 +6609,7 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>168</v>
@@ -6612,7 +6618,7 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>169</v>
@@ -6621,7 +6627,7 @@
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>170</v>
@@ -6630,7 +6636,7 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>171</v>
@@ -6639,7 +6645,7 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>172</v>
@@ -6648,7 +6654,7 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>173</v>
@@ -6657,7 +6663,7 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>174</v>
@@ -6666,7 +6672,7 @@
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>175</v>
@@ -6675,25 +6681,25 @@
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>177</v>
@@ -6702,7 +6708,7 @@
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>178</v>
@@ -6711,7 +6717,7 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>179</v>
@@ -6720,7 +6726,7 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>180</v>
@@ -6729,7 +6735,7 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>181</v>
@@ -6738,7 +6744,7 @@
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>182</v>
@@ -6747,7 +6753,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="B81" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>183</v>
@@ -6756,7 +6762,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="B82" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>184</v>
@@ -6765,7 +6771,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="B83" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>185</v>
@@ -6774,7 +6780,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="B84" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>186</v>
@@ -6783,7 +6789,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="B85" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>187</v>
@@ -6792,7 +6798,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="B86" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>188</v>
@@ -6801,85 +6807,85 @@
     </row>
     <row r="87" spans="1:4">
       <c r="B87" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>189</v>
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
+    <row r="88" spans="1:4">
+      <c r="B88" s="8">
+        <v>45</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="B91" s="7" t="s">
+      <c r="B90" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="B92" s="8">
-        <v>1</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:4">
       <c r="B93" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>264</v>
       </c>
       <c r="D93" s="8"/>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
+    <row r="94" spans="1:4">
+      <c r="B94" s="8">
+        <v>2</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="B97" s="7" t="s">
+      <c r="B96" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D98" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="B98" s="8">
-        <v>1</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4">
       <c r="B99" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>279</v>
@@ -6888,7 +6894,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="B100" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>280</v>
@@ -6897,7 +6903,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="B101" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>281</v>
@@ -6906,46 +6912,46 @@
     </row>
     <row r="102" spans="1:4">
       <c r="B102" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>282</v>
       </c>
       <c r="D102" s="8"/>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
+    <row r="103" spans="1:4">
+      <c r="B103" s="8">
+        <v>5</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="B106" s="7" t="s">
+      <c r="B105" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D107" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="B107" s="8">
-        <v>1</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D107" s="8"/>
     </row>
     <row r="108" spans="1:4">
       <c r="B108" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>285</v>
@@ -6954,585 +6960,594 @@
     </row>
     <row r="109" spans="1:4">
       <c r="B109" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>286</v>
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
+    <row r="110" spans="1:4">
+      <c r="B110" s="8">
+        <v>3</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="8"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="B113" s="7" t="s">
+      <c r="B112" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="B114" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C114" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D114" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="B114" s="8">
-        <v>1</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D114" s="8"/>
     </row>
     <row r="115" spans="1:4">
       <c r="B115" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>289</v>
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="4" t="s">
+    <row r="116" spans="1:4">
+      <c r="B116" s="8">
+        <v>2</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="8"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="B119" s="7" t="s">
+      <c r="B118" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="B120" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="B120" s="8">
+    <row r="121" spans="1:4">
+      <c r="B121" s="8">
         <v>1</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D120" s="8"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="4" t="s">
+      <c r="C121" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D121" s="8"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="B124" s="7" t="s">
+      <c r="B123" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="B125" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D125" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="B125" s="8">
-        <v>1</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" s="8"/>
     </row>
     <row r="126" spans="1:4">
       <c r="B126" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>294</v>
       </c>
       <c r="D126" s="8"/>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="4" t="s">
+    <row r="127" spans="1:4">
+      <c r="B127" s="8">
+        <v>2</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D127" s="8"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="B130" s="7" t="s">
+      <c r="B129" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="B131" s="8">
-        <v>1</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D131" s="8"/>
     </row>
     <row r="132" spans="1:4">
       <c r="B132" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>297</v>
       </c>
       <c r="D132" s="8"/>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+    <row r="133" spans="1:4">
+      <c r="B133" s="8">
+        <v>2</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D133" s="8"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B136" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="B137" s="7" t="s">
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D138" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="B138" s="8">
-        <v>102</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="B139" s="8">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="C139" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="B140" s="8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C140" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="B141" s="8">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="B142" s="8">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:4">
       <c r="B143" s="8">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D143" s="8" t="s">
-        <v>312</v>
-      </c>
+      <c r="D143" s="8"/>
     </row>
     <row r="144" spans="1:4">
       <c r="B144" s="8">
+        <v>500</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="B145" s="8">
         <v>501</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D144" s="8"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="C145" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D145" s="8"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="B149" s="7" t="s">
+      <c r="B148" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="B150" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D150" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="B150" s="8">
-        <v>1</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="B151" s="8">
+        <v>1</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="B152" s="8">
         <v>2</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="C152" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="B156" s="7" t="s">
+      <c r="B155" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="B157" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D157" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="B157" s="8">
-        <v>2048</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="B158" s="8">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="B159" s="8">
-        <v>34525</v>
+        <v>2054</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="B160" s="8">
+        <v>34525</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="B161" s="8">
         <v>34887</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="C161" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="B165" s="7" t="s">
+      <c r="B164" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="B166" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C166" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D166" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="B166" s="8">
-        <v>1</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="B167" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="B168" s="8">
+        <v>6</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="B169" s="8">
         <v>17</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="C169" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="B173" s="7" t="s">
+      <c r="B172" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="B174" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="B174" s="8">
-        <v>20</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="B175" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="B176" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="B178" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" s="8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" s="8">
+        <v>80</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="8">
         <v>443</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>495</v>
+      <c r="C181" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B129:D129"/>
     <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B136:D136"/>
     <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B148:D148"/>
     <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B155:D155"/>
     <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B164:D164"/>
     <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B172:D172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_gen/openc2_genj.xlsx
+++ b/data_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="450">
   <si>
-    <t>Generated from data\openc2.jaen, Fri Mar  3 14:21:40 2017</t>
+    <t>Generated from data\openc2.jaen, Sat Mar  4 09:53:18 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/data_gen/openc2_genj.xlsx
+++ b/data_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="450">
-  <si>
-    <t>Generated from data\openc2.jaen, Sat Mar  4 09:53:18 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="447">
+  <si>
+    <t>Generated from data\openc2.jaen, Mon Mar  6 14:27:06 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -204,9 +204,6 @@
     <t>report</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>notify</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>save</t>
   </si>
   <si>
-    <t>modify</t>
-  </si>
-  <si>
     <t>throttle</t>
   </si>
   <si>
@@ -594,6 +588,15 @@
     <t>Map</t>
   </si>
   <si>
+    <t>context (optional)</t>
+  </si>
+  <si>
+    <t>datetime (optional)</t>
+  </si>
+  <si>
+    <t>DateTime (String)</t>
+  </si>
+  <si>
     <t>delay (optional)</t>
   </si>
   <si>
@@ -606,10 +609,7 @@
     <t>frequency (optional)</t>
   </si>
   <si>
-    <t>datetime (optional)</t>
-  </si>
-  <si>
-    <t>DateTime (String)</t>
+    <t>command-ref (optional)</t>
   </si>
   <si>
     <t>response (optional)</t>
@@ -624,648 +624,657 @@
     <t>MethodValue (Choice)</t>
   </si>
   <si>
+    <t>options (optional)</t>
+  </si>
+  <si>
+    <t>search (optional)</t>
+  </si>
+  <si>
+    <t>SearchValue (vocab)</t>
+  </si>
+  <si>
     <t>where (optional)</t>
   </si>
   <si>
     <t>WhereValue (vocab)</t>
   </si>
   <si>
-    <t>context_ref (optional)</t>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Options:</t>
+  </si>
+  <si>
+    <t>pattern: "^PT(\d+H(\d+M(\d+S)?)?|\d+M(\d+S)?|\d+S)$"</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>pattern: "^\d{4}-\d\d-\d\dT\d\d:\d\d:\d\d(\.\d{1,6})?(Z|[-+]\d\d:\d\d)$"</t>
+  </si>
+  <si>
+    <t>ResponseValue</t>
+  </si>
+  <si>
+    <t>ack</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>MethodValue</t>
+  </si>
+  <si>
+    <t>Method must agree with Action (test descriptions)</t>
+  </si>
+  <si>
+    <t>DenyMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be "deny"</t>
+  </si>
+  <si>
+    <t>PauseMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be 'pause'</t>
+  </si>
+  <si>
+    <t>ScanMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be 'scan"</t>
+  </si>
+  <si>
+    <t>StartMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be start</t>
+  </si>
+  <si>
+    <t>StopMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be "stop"</t>
+  </si>
+  <si>
+    <t>DenyMethod</t>
+  </si>
+  <si>
+    <t>acl</t>
+  </si>
+  <si>
+    <t>blackhole</t>
+  </si>
+  <si>
+    <t>sinkhole</t>
+  </si>
+  <si>
+    <t>blacklist</t>
+  </si>
+  <si>
+    <t>whitelist</t>
+  </si>
+  <si>
+    <t>PauseMethod</t>
+  </si>
+  <si>
+    <t>hibernate</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>suspend</t>
+  </si>
+  <si>
+    <t>ScanMethod</t>
+  </si>
+  <si>
+    <t>authenticated</t>
+  </si>
+  <si>
+    <t>non-authenticated</t>
+  </si>
+  <si>
+    <t>StartMethod</t>
+  </si>
+  <si>
+    <t>spawn</t>
+  </si>
+  <si>
+    <t>StopMethod</t>
+  </si>
+  <si>
+    <t>graceful</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>WhereValue</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>SearchValue</t>
+  </si>
+  <si>
+    <t>cve</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>vendor-bulletin</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>CommandID</t>
+  </si>
+  <si>
+    <t>Command unique identifier</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>1xx: Informational</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2xx: Success</t>
+  </si>
+  <si>
+    <t>Bad_Request</t>
+  </si>
+  <si>
+    <t>3xx: Redirection</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>4xx: Client Error</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>Internal_Server_Error</t>
+  </si>
+  <si>
+    <t>5xx: Server Error</t>
+  </si>
+  <si>
+    <t>Not_Implemented</t>
+  </si>
+  <si>
+    <t>Base64</t>
+  </si>
+  <si>
+    <t>A sequence of octets encoded as a Base64 string</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>A sequence of octets encoded as a hexadecimal string</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>RFC 3339 format date and time</t>
+  </si>
+  <si>
+    <t>hashes-type</t>
+  </si>
+  <si>
+    <t>MD5 (required)</t>
+  </si>
+  <si>
+    <t>Hex (String)</t>
+  </si>
+  <si>
+    <t>MD5 message digest as defined in RFC3121</t>
+  </si>
+  <si>
+    <t>MD6 (required)</t>
+  </si>
+  <si>
+    <t>MD6 message digest as defined in MD6 proposal</t>
+  </si>
+  <si>
+    <t>RIPEMD-160 (required)</t>
+  </si>
+  <si>
+    <t>RACE Integrity Primitives Evaluation Message as defined in RIPEMD-160 specification</t>
+  </si>
+  <si>
+    <t>SHA-1 (required)</t>
+  </si>
+  <si>
+    <t>Secure Hash Algorithm (SHA)-1 as defined in RFC3174</t>
+  </si>
+  <si>
+    <t>SHA-224 (required)</t>
+  </si>
+  <si>
+    <t>SHA-224 as defined in RFC6234 (US Secure Hash Algorithms)</t>
+  </si>
+  <si>
+    <t>SHA-256 (required)</t>
+  </si>
+  <si>
+    <t>SHA-256 as defined in RFC6234</t>
+  </si>
+  <si>
+    <t>SHA-384 (required)</t>
+  </si>
+  <si>
+    <t>SHA-384 as defined in RFC6234</t>
+  </si>
+  <si>
+    <t>SHA-512 (required)</t>
+  </si>
+  <si>
+    <t>SHA-512 as defined in RFC6234</t>
+  </si>
+  <si>
+    <t>SHA3-224 (required)</t>
+  </si>
+  <si>
+    <t>SHA3-224 as defined in FIPS PUP 202</t>
+  </si>
+  <si>
+    <t>SHA3-256 (required)</t>
+  </si>
+  <si>
+    <t>SHA3-256 as defined in FIPS PUP 202</t>
+  </si>
+  <si>
+    <t>SHA3-384 (required)</t>
+  </si>
+  <si>
+    <t>SHA3-384 as defined in FIPS PUP 202</t>
+  </si>
+  <si>
+    <t>SHA3-512 (required)</t>
+  </si>
+  <si>
+    <t>SHA3-512 as defined in FIPS PUP 202</t>
+  </si>
+  <si>
+    <t>ssdeep (required)</t>
+  </si>
+  <si>
+    <t>ssdeep fuzzy hashing algorithm as defined in the SSDEEP specification</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL (required)</t>
+  </si>
+  <si>
+    <t>whirlpool cryptographic hash function as defined in ISO/IEC 10118-3:2004</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>payload_bin</t>
+  </si>
+  <si>
+    <t>Base64 (String)</t>
+  </si>
+  <si>
+    <t>Specifies the binary data contained in the artifact as a base64-encoded string.</t>
+  </si>
+  <si>
+    <t>MUST be a valid URL that resolves to the un-encoded content</t>
+  </si>
+  <si>
+    <t>type (required)</t>
+  </si>
+  <si>
+    <t>MUST be "artifact"</t>
+  </si>
+  <si>
+    <t>mime_type (optional)</t>
+  </si>
+  <si>
+    <t>MUST be a valid MIME type as specified in the IANA Media Types registry</t>
+  </si>
+  <si>
+    <t>* (optional)</t>
+  </si>
+  <si>
+    <t>payload (Choice)</t>
+  </si>
+  <si>
+    <t>choice of literal content or URL to obtain content</t>
+  </si>
+  <si>
+    <t>hashes (optional)</t>
+  </si>
+  <si>
+    <t>hashes-type (Map)</t>
+  </si>
+  <si>
+    <t>Specifies a dictionary of hashes for the contents of the payload</t>
+  </si>
+  <si>
+    <t>Target used to query Actuator for its supported capabilities</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>results = JSON array of supported action verbs</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>results = JAEN syntax of supported commands</t>
+  </si>
+  <si>
+    <t>Description (optional)</t>
+  </si>
+  <si>
+    <t>Device_Type (optional)</t>
+  </si>
+  <si>
+    <t>Manufacturer (optional)</t>
+  </si>
+  <si>
+    <t>Model (optional)</t>
+  </si>
+  <si>
+    <t>Serial_Number (optional)</t>
+  </si>
+  <si>
+    <t>Firmware_Version (optional)</t>
+  </si>
+  <si>
+    <t>System_Details (optional)</t>
+  </si>
+  <si>
+    <t>path (required)</t>
+  </si>
+  <si>
+    <t>Path, as originally observed, to the directory on the filesystem</t>
+  </si>
+  <si>
+    <t>path_enc (optional)</t>
+  </si>
+  <si>
+    <t>Observed encoding for the path, from the IANA Character Set Registry</t>
+  </si>
+  <si>
+    <t>created (optional)</t>
+  </si>
+  <si>
+    <t>Timestamp (String)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was created</t>
+  </si>
+  <si>
+    <t>modified (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was last written-to/modified</t>
+  </si>
+  <si>
+    <t>accessed (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was last accessed</t>
+  </si>
+  <si>
+    <t>contains (optional)</t>
+  </si>
+  <si>
+    <t>dir-contents (Array)</t>
+  </si>
+  <si>
+    <t>List of files/directories contained within the directory</t>
+  </si>
+  <si>
+    <t>dir-contents</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>dirfile (Choice)</t>
+  </si>
+  <si>
+    <t>dirfile</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>value (required)</t>
+  </si>
+  <si>
+    <t>Value of the domain name</t>
+  </si>
+  <si>
+    <t>resolves_to (optional)</t>
+  </si>
+  <si>
+    <t>dnvalues (Array)</t>
+  </si>
+  <si>
+    <t>List of IP addresses or domain names</t>
+  </si>
+  <si>
+    <t>dnvalues</t>
+  </si>
+  <si>
+    <t>dnvalue (Choice)</t>
+  </si>
+  <si>
+    <t>dnvalue</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Email address (addr-spec in RFC 5322 Section 3.4)</t>
+  </si>
+  <si>
+    <t>display_name (optional)</t>
+  </si>
+  <si>
+    <t>Name that is displayed to the user of a mail application</t>
+  </si>
+  <si>
+    <t>belongs_to (optional)</t>
+  </si>
+  <si>
+    <t>User account that the email address belongs to</t>
+  </si>
+  <si>
+    <t>TODO: finish</t>
+  </si>
+  <si>
+    <t>Specifies one or more IPv4 addresses using CIDR notation</t>
+  </si>
+  <si>
+    <t>resolves_to_refs (optional)</t>
+  </si>
+  <si>
+    <t>mac-addrs (Array)</t>
+  </si>
+  <si>
+    <t>Specifies a list of references to one or more Layer 2 Media Access Control (MAC) addresses that the IPv4 address resolves to.</t>
+  </si>
+  <si>
+    <t>belongs_to_refs (optional)</t>
+  </si>
+  <si>
+    <t>asystems (Array)</t>
+  </si>
+  <si>
+    <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
+  </si>
+  <si>
+    <t>ipv4-str</t>
+  </si>
+  <si>
+    <t>mac-addrs</t>
+  </si>
+  <si>
+    <t>asystems</t>
+  </si>
+  <si>
+    <t>autonomous-system</t>
+  </si>
+  <si>
+    <t>Specifies a single MAC address.  MUST be represented as a single colon-delimited, lowercase MAC-48 address, which MUST include leading zeros for each octet.  Example: 00:00:ab:cd:ef:01</t>
+  </si>
+  <si>
+    <t>mutex</t>
+  </si>
+  <si>
+    <t>name (required)</t>
+  </si>
+  <si>
+    <t>Specifies the name of the mutex object.</t>
+  </si>
+  <si>
+    <t>5-tuple that specifies a tcp/ip connection</t>
+  </si>
+  <si>
+    <t>src-addr (optional)</t>
+  </si>
+  <si>
+    <t>socket-addr (Choice)</t>
+  </si>
+  <si>
+    <t>source address</t>
+  </si>
+  <si>
+    <t>src-port (optional)</t>
+  </si>
+  <si>
+    <t>port (Choice)</t>
+  </si>
+  <si>
+    <t>source TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>dst-addr (optional)</t>
+  </si>
+  <si>
+    <t>destination address</t>
+  </si>
+  <si>
+    <t>dst-port (optional)</t>
+  </si>
+  <si>
+    <t>destination TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>layer3-protocol (optional)</t>
+  </si>
+  <si>
+    <t>layer3-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>IEEE 802 Ether Type</t>
+  </si>
+  <si>
+    <t>layer4-protocol (optional)</t>
+  </si>
+  <si>
+    <t>layer4-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>Protocol (IPv4) / Next Header (IPv6)</t>
+  </si>
+  <si>
+    <t>layer3-protocol</t>
+  </si>
+  <si>
+    <t>IEEE 802 Ether Types - any IANA value, RFC 7042</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>0x0800 Internet Protocol Version 4</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>0x0806 Address Resolution Protocol</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>0x86DD Internet Protocol Version 6</t>
+  </si>
+  <si>
+    <t>MPLS</t>
+  </si>
+  <si>
+    <t>0x8847 Multi-Protocol Label Switching</t>
+  </si>
+  <si>
+    <t>socket-addrs</t>
+  </si>
+  <si>
+    <t>socket-addr</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>TCP/UDP port number or protocol</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>id (optional)</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Options:</t>
-  </si>
-  <si>
-    <t>pattern: "^PT(\d+H(\d+M(\d+S)?)?|\d+M(\d+S)?|\d+S)$"</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>pattern: "^\d{4}-\d\d-\d\dT\d\d:\d\d:\d\d(\.\d{1,6})?(Z|[-+]\d\d:\d\d)$"</t>
-  </si>
-  <si>
-    <t>ResponseValue</t>
-  </si>
-  <si>
-    <t>ack</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>MethodValue</t>
-  </si>
-  <si>
-    <t>Method must agree with Action (test descriptions)</t>
-  </si>
-  <si>
-    <t>DenyMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be "deny"</t>
-  </si>
-  <si>
-    <t>PauseMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be 'pause'</t>
-  </si>
-  <si>
-    <t>ScanMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be 'scan"</t>
-  </si>
-  <si>
-    <t>StartMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be start</t>
-  </si>
-  <si>
-    <t>StopMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be "stop"</t>
-  </si>
-  <si>
-    <t>DenyMethod</t>
-  </si>
-  <si>
-    <t>acl</t>
-  </si>
-  <si>
-    <t>blackhole</t>
-  </si>
-  <si>
-    <t>sinkhole</t>
-  </si>
-  <si>
-    <t>blacklist</t>
-  </si>
-  <si>
-    <t>whitelist</t>
-  </si>
-  <si>
-    <t>PauseMethod</t>
-  </si>
-  <si>
-    <t>hibernate</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>suspend</t>
-  </si>
-  <si>
-    <t>ScanMethod</t>
-  </si>
-  <si>
-    <t>authenticated</t>
-  </si>
-  <si>
-    <t>non-authenticated</t>
-  </si>
-  <si>
-    <t>StartMethod</t>
-  </si>
-  <si>
-    <t>spawn</t>
-  </si>
-  <si>
-    <t>StopMethod</t>
-  </si>
-  <si>
-    <t>graceful</t>
-  </si>
-  <si>
-    <t>immediate</t>
-  </si>
-  <si>
-    <t>WhereValue</t>
-  </si>
-  <si>
-    <t>internal</t>
-  </si>
-  <si>
-    <t>perimeter</t>
-  </si>
-  <si>
-    <t>DeviceID</t>
-  </si>
-  <si>
-    <t>CommandID</t>
-  </si>
-  <si>
-    <t>Command unique identifier</t>
-  </si>
-  <si>
-    <t>StatusCode</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>1xx: Informational</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>2xx: Success</t>
-  </si>
-  <si>
-    <t>Bad_Request</t>
-  </si>
-  <si>
-    <t>3xx: Redirection</t>
-  </si>
-  <si>
-    <t>Unauthorized</t>
-  </si>
-  <si>
-    <t>4xx: Client Error</t>
-  </si>
-  <si>
-    <t>Forbidden</t>
-  </si>
-  <si>
-    <t>Internal_Server_Error</t>
-  </si>
-  <si>
-    <t>5xx: Server Error</t>
-  </si>
-  <si>
-    <t>Not_Implemented</t>
-  </si>
-  <si>
-    <t>Base64</t>
-  </si>
-  <si>
-    <t>A sequence of octets encoded as a Base64 string</t>
-  </si>
-  <si>
-    <t>Hex</t>
-  </si>
-  <si>
-    <t>A sequence of octets encoded as a hexadecimal string</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>RFC 3339 format date and time</t>
-  </si>
-  <si>
-    <t>hashes-type</t>
-  </si>
-  <si>
-    <t>MD5 (required)</t>
-  </si>
-  <si>
-    <t>Hex (String)</t>
-  </si>
-  <si>
-    <t>MD5 message digest as defined in RFC3121</t>
-  </si>
-  <si>
-    <t>MD6 (required)</t>
-  </si>
-  <si>
-    <t>MD6 message digest as defined in MD6 proposal</t>
-  </si>
-  <si>
-    <t>RIPEMD-160 (required)</t>
-  </si>
-  <si>
-    <t>RACE Integrity Primitives Evaluation Message as defined in RIPEMD-160 specification</t>
-  </si>
-  <si>
-    <t>SHA-1 (required)</t>
-  </si>
-  <si>
-    <t>Secure Hash Algorithm (SHA)-1 as defined in RFC3174</t>
-  </si>
-  <si>
-    <t>SHA-224 (required)</t>
-  </si>
-  <si>
-    <t>SHA-224 as defined in RFC6234 (US Secure Hash Algorithms)</t>
-  </si>
-  <si>
-    <t>SHA-256 (required)</t>
-  </si>
-  <si>
-    <t>SHA-256 as defined in RFC6234</t>
-  </si>
-  <si>
-    <t>SHA-384 (required)</t>
-  </si>
-  <si>
-    <t>SHA-384 as defined in RFC6234</t>
-  </si>
-  <si>
-    <t>SHA-512 (required)</t>
-  </si>
-  <si>
-    <t>SHA-512 as defined in RFC6234</t>
-  </si>
-  <si>
-    <t>SHA3-224 (required)</t>
-  </si>
-  <si>
-    <t>SHA3-224 as defined in FIPS PUP 202</t>
-  </si>
-  <si>
-    <t>SHA3-256 (required)</t>
-  </si>
-  <si>
-    <t>SHA3-256 as defined in FIPS PUP 202</t>
-  </si>
-  <si>
-    <t>SHA3-384 (required)</t>
-  </si>
-  <si>
-    <t>SHA3-384 as defined in FIPS PUP 202</t>
-  </si>
-  <si>
-    <t>SHA3-512 (required)</t>
-  </si>
-  <si>
-    <t>SHA3-512 as defined in FIPS PUP 202</t>
-  </si>
-  <si>
-    <t>ssdeep (required)</t>
-  </si>
-  <si>
-    <t>ssdeep fuzzy hashing algorithm as defined in the SSDEEP specification</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL (required)</t>
-  </si>
-  <si>
-    <t>whirlpool cryptographic hash function as defined in ISO/IEC 10118-3:2004</t>
-  </si>
-  <si>
-    <t>payload</t>
-  </si>
-  <si>
-    <t>payload_bin</t>
-  </si>
-  <si>
-    <t>Base64 (String)</t>
-  </si>
-  <si>
-    <t>Specifies the binary data contained in the artifact as a base64-encoded string.</t>
-  </si>
-  <si>
-    <t>MUST be a valid URL that resolves to the un-encoded content</t>
-  </si>
-  <si>
-    <t>type (required)</t>
-  </si>
-  <si>
-    <t>MUST be "artifact"</t>
-  </si>
-  <si>
-    <t>mime_type (optional)</t>
-  </si>
-  <si>
-    <t>MUST be a valid MIME type as specified in the IANA Media Types registry</t>
-  </si>
-  <si>
-    <t>* (optional)</t>
-  </si>
-  <si>
-    <t>payload (Choice)</t>
-  </si>
-  <si>
-    <t>choice of literal content or URL to obtain content</t>
-  </si>
-  <si>
-    <t>hashes (optional)</t>
-  </si>
-  <si>
-    <t>hashes-type (Map)</t>
-  </si>
-  <si>
-    <t>Specifies a dictionary of hashes for the contents of the payload</t>
-  </si>
-  <si>
-    <t>Target used to query Actuator for its supported capabilities</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-  <si>
-    <t>results = JSON array of supported action verbs</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>results = JAEN syntax of supported commands</t>
-  </si>
-  <si>
-    <t>Description (optional)</t>
-  </si>
-  <si>
-    <t>Device_Type (optional)</t>
-  </si>
-  <si>
-    <t>Manufacturer (optional)</t>
-  </si>
-  <si>
-    <t>Model (optional)</t>
-  </si>
-  <si>
-    <t>Serial_Number (optional)</t>
-  </si>
-  <si>
-    <t>Firmware_Version (optional)</t>
-  </si>
-  <si>
-    <t>System_Details (optional)</t>
-  </si>
-  <si>
-    <t>MUST be "directory"</t>
-  </si>
-  <si>
-    <t>path (required)</t>
-  </si>
-  <si>
-    <t>Path, as originally observed, to the directory on the filesystem</t>
-  </si>
-  <si>
-    <t>path_enc (optional)</t>
-  </si>
-  <si>
-    <t>Observed encoding for the path, from the IANA Character Set Registry</t>
-  </si>
-  <si>
-    <t>created (optional)</t>
-  </si>
-  <si>
-    <t>Timestamp (String)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was created</t>
-  </si>
-  <si>
-    <t>modified (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was last written-to/modified</t>
-  </si>
-  <si>
-    <t>accessed (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was last accessed</t>
-  </si>
-  <si>
-    <t>contains (optional)</t>
-  </si>
-  <si>
-    <t>dir-contents (Array)</t>
-  </si>
-  <si>
-    <t>List of files/directories contained within the directory</t>
-  </si>
-  <si>
-    <t>dir-contents</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>dirfile (Choice)</t>
-  </si>
-  <si>
-    <t>dirfile</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>value (required)</t>
-  </si>
-  <si>
-    <t>Value of the domain name</t>
-  </si>
-  <si>
-    <t>resolves_to (optional)</t>
-  </si>
-  <si>
-    <t>dnvalues (Array)</t>
-  </si>
-  <si>
-    <t>List of IP addresses or domain names</t>
-  </si>
-  <si>
-    <t>dnvalues</t>
-  </si>
-  <si>
-    <t>dnvalue (Choice)</t>
-  </si>
-  <si>
-    <t>dnvalue</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Email address (addr-spec in RFC 5322 Section 3.4)</t>
-  </si>
-  <si>
-    <t>display_name (optional)</t>
-  </si>
-  <si>
-    <t>Name that is displayed to the user of a mail application</t>
-  </si>
-  <si>
-    <t>belongs_to (optional)</t>
-  </si>
-  <si>
-    <t>User account that the email address belongs to</t>
-  </si>
-  <si>
-    <t>TODO: finish</t>
-  </si>
-  <si>
-    <t>MUST be "email-message"</t>
-  </si>
-  <si>
-    <t>MUST be "file"</t>
-  </si>
-  <si>
-    <t>Specifies one or more IPv4 addresses using CIDR notation</t>
-  </si>
-  <si>
-    <t>resolves_to_refs (optional)</t>
-  </si>
-  <si>
-    <t>mac-addrs (Array)</t>
-  </si>
-  <si>
-    <t>Specifies a list of references to one or more Layer 2 Media Access Control (MAC) addresses that the IPv4 address resolves to.</t>
-  </si>
-  <si>
-    <t>belongs_to_refs (optional)</t>
-  </si>
-  <si>
-    <t>asystems (Array)</t>
-  </si>
-  <si>
-    <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
-  </si>
-  <si>
-    <t>ipv4-str</t>
-  </si>
-  <si>
-    <t>mac-addrs</t>
-  </si>
-  <si>
-    <t>asystems</t>
-  </si>
-  <si>
-    <t>autonomous-system</t>
-  </si>
-  <si>
-    <t>Specifies a single MAC address.  MUST be represented as a single colon-delimited, lowercase MAC-48 address, which MUST include leading zeros for each octet.  Example: 00:00:ab:cd:ef:01</t>
-  </si>
-  <si>
-    <t>mutex</t>
-  </si>
-  <si>
-    <t>name (required)</t>
-  </si>
-  <si>
-    <t>Specifies the name of the mutex object.</t>
-  </si>
-  <si>
-    <t>5-tuple that specifies a tcp/ip connection</t>
-  </si>
-  <si>
-    <t>src-addr (optional)</t>
-  </si>
-  <si>
-    <t>socket-addr (Choice)</t>
-  </si>
-  <si>
-    <t>source address</t>
-  </si>
-  <si>
-    <t>src-port (optional)</t>
-  </si>
-  <si>
-    <t>port (Choice)</t>
-  </si>
-  <si>
-    <t>source TCP/UDP port number</t>
-  </si>
-  <si>
-    <t>dst-addr (optional)</t>
-  </si>
-  <si>
-    <t>destination address</t>
-  </si>
-  <si>
-    <t>dst-port (optional)</t>
-  </si>
-  <si>
-    <t>destination TCP/UDP port number</t>
-  </si>
-  <si>
-    <t>layer3-protocol (optional)</t>
-  </si>
-  <si>
-    <t>layer3-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>IEEE 802 Ether Type</t>
-  </si>
-  <si>
-    <t>layer4-protocol (optional)</t>
-  </si>
-  <si>
-    <t>layer4-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>Protocol (IPv4) / Next Header (IPv6)</t>
-  </si>
-  <si>
-    <t>layer3-protocol</t>
-  </si>
-  <si>
-    <t>IEEE 802 Ether Types - any IANA value, RFC 7042</t>
-  </si>
-  <si>
-    <t>IPv4</t>
-  </si>
-  <si>
-    <t>0x0800 Internet Protocol Version 4</t>
-  </si>
-  <si>
-    <t>ARP</t>
-  </si>
-  <si>
-    <t>0x0806 Address Resolution Protocol</t>
-  </si>
-  <si>
-    <t>IPv6</t>
-  </si>
-  <si>
-    <t>0x86DD Internet Protocol Version 6</t>
-  </si>
-  <si>
-    <t>MPLS</t>
-  </si>
-  <si>
-    <t>0x8847 Multi-Protocol Label Switching</t>
-  </si>
-  <si>
-    <t>socket-addrs</t>
-  </si>
-  <si>
-    <t>socket-addr</t>
-  </si>
-  <si>
-    <t>mac</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>TCP/UDP port number or protocol</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>Port number (e.g., dynamically assigned)</t>
   </si>
   <si>
@@ -1348,24 +1357,6 @@
   </si>
   <si>
     <t>HTTP over TLS</t>
-  </si>
-  <si>
-    <t>MUST be "process"</t>
-  </si>
-  <si>
-    <t>MUST be "software"</t>
-  </si>
-  <si>
-    <t>MUST be "url"</t>
-  </si>
-  <si>
-    <t>MUST be "user-account"</t>
-  </si>
-  <si>
-    <t>MUST be "windows-registry-key"</t>
-  </si>
-  <si>
-    <t>MUST be "x509-certificate"</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E433"/>
+  <dimension ref="A2:E426"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2177,7 +2168,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2196,10 +2187,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2224,13 +2215,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2238,13 +2229,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2252,13 +2243,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2266,13 +2257,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2280,13 +2271,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -2294,13 +2285,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -2308,13 +2299,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -2322,13 +2313,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -2336,13 +2327,13 @@
         <v>9</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -2350,13 +2341,13 @@
         <v>10</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -2364,13 +2355,13 @@
         <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -2378,13 +2369,13 @@
         <v>12</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -2392,13 +2383,13 @@
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -2406,13 +2397,13 @@
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -2420,13 +2411,13 @@
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2434,13 +2425,13 @@
         <v>16</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -2448,13 +2439,13 @@
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -2462,13 +2453,13 @@
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -2476,13 +2467,13 @@
         <v>19</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -2490,13 +2481,13 @@
         <v>20</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -2504,13 +2495,13 @@
         <v>21</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2518,13 +2509,13 @@
         <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2532,13 +2523,13 @@
         <v>23</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2546,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2582,10 +2573,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E73" s="8"/>
     </row>
@@ -2594,10 +2585,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E74" s="8"/>
     </row>
@@ -2606,10 +2597,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E75" s="8"/>
     </row>
@@ -2618,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E76" s="8"/>
     </row>
@@ -2630,10 +2621,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E77" s="8"/>
     </row>
@@ -2642,10 +2633,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E78" s="8"/>
     </row>
@@ -2654,10 +2645,10 @@
         <v>7</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E79" s="8"/>
     </row>
@@ -2666,10 +2657,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E80" s="8"/>
     </row>
@@ -2678,10 +2669,10 @@
         <v>9</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E81" s="8"/>
     </row>
@@ -2690,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E82" s="8"/>
     </row>
@@ -2702,10 +2693,10 @@
         <v>11</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2714,10 +2705,10 @@
         <v>12</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E84" s="8"/>
     </row>
@@ -2726,10 +2717,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -2738,10 +2729,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E86" s="8"/>
     </row>
@@ -2750,10 +2741,10 @@
         <v>15</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E87" s="8"/>
     </row>
@@ -2762,10 +2753,10 @@
         <v>16</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E88" s="8"/>
     </row>
@@ -2774,10 +2765,10 @@
         <v>17</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E89" s="8"/>
     </row>
@@ -2786,10 +2777,10 @@
         <v>18</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2798,10 +2789,10 @@
         <v>19</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E91" s="8"/>
     </row>
@@ -2810,10 +2801,10 @@
         <v>20</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E92" s="8"/>
     </row>
@@ -2822,10 +2813,10 @@
         <v>21</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E93" s="8"/>
     </row>
@@ -2834,10 +2825,10 @@
         <v>22</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E94" s="8"/>
     </row>
@@ -2846,10 +2837,10 @@
         <v>23</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E95" s="8"/>
     </row>
@@ -2858,10 +2849,10 @@
         <v>24</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E96" s="8"/>
     </row>
@@ -2870,10 +2861,10 @@
         <v>25</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2882,10 +2873,10 @@
         <v>26</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E98" s="8"/>
     </row>
@@ -2894,10 +2885,10 @@
         <v>27</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E99" s="8"/>
     </row>
@@ -2906,10 +2897,10 @@
         <v>28</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E100" s="8"/>
     </row>
@@ -2918,10 +2909,10 @@
         <v>29</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E101" s="8"/>
     </row>
@@ -2930,10 +2921,10 @@
         <v>30</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E102" s="8"/>
     </row>
@@ -2942,10 +2933,10 @@
         <v>31</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E103" s="8"/>
     </row>
@@ -2954,10 +2945,10 @@
         <v>32</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2966,10 +2957,10 @@
         <v>33</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E105" s="8"/>
     </row>
@@ -2978,10 +2969,10 @@
         <v>34</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E106" s="8"/>
     </row>
@@ -2990,10 +2981,10 @@
         <v>35</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E107" s="8"/>
     </row>
@@ -3002,10 +2993,10 @@
         <v>36</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E108" s="8"/>
     </row>
@@ -3014,10 +3005,10 @@
         <v>37</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E109" s="8"/>
     </row>
@@ -3026,10 +3017,10 @@
         <v>38</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E110" s="8"/>
     </row>
@@ -3038,10 +3029,10 @@
         <v>39</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -3050,10 +3041,10 @@
         <v>40</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E112" s="8"/>
     </row>
@@ -3062,10 +3053,10 @@
         <v>41</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E113" s="8"/>
     </row>
@@ -3074,10 +3065,10 @@
         <v>42</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E114" s="8"/>
     </row>
@@ -3086,10 +3077,10 @@
         <v>43</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E115" s="8"/>
     </row>
@@ -3098,10 +3089,10 @@
         <v>44</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E116" s="8"/>
     </row>
@@ -3110,10 +3101,10 @@
         <v>45</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E117" s="8"/>
     </row>
@@ -3122,7 +3113,7 @@
         <v>15</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3158,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>49</v>
@@ -3170,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>49</v>
@@ -3182,7 +3173,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3193,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3218,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="E132" s="8"/>
     </row>
@@ -3230,10 +3221,10 @@
         <v>2</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E133" s="8"/>
     </row>
@@ -3242,10 +3233,10 @@
         <v>3</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E134" s="8"/>
     </row>
@@ -3254,10 +3245,10 @@
         <v>4</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E135" s="8"/>
     </row>
@@ -3266,10 +3257,10 @@
         <v>5</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E136" s="8"/>
     </row>
@@ -3278,10 +3269,10 @@
         <v>6</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="E137" s="8"/>
     </row>
@@ -3290,10 +3281,10 @@
         <v>7</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E138" s="8"/>
     </row>
@@ -3302,10 +3293,10 @@
         <v>8</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E139" s="8"/>
     </row>
@@ -3314,730 +3305,726 @@
         <v>9</v>
       </c>
       <c r="C140" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" s="8"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="B141" s="8">
+        <v>10</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" s="8"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="B142" s="8">
+        <v>11</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E140" s="8"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
+      <c r="E142" s="8"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B147" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B152" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B155" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="B157" s="7" t="s">
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="B159" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C159" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D159" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E159" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="B158" s="8">
-        <v>1</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="B159" s="8">
-        <v>2</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="B160" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="B161" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="B162" s="8">
+        <v>3</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" s="8">
+        <v>4</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" s="8">
         <v>5</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D162" s="8" t="s">
+      <c r="C164" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D164" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E164" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B167" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="4" t="s">
+      <c r="B172" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="4" t="s">
+      <c r="B177" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B178" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="4" t="s">
+      <c r="B182" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B183" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="4" t="s">
+      <c r="B187" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-    </row>
-    <row r="193" spans="2:5">
-      <c r="B193" s="7" t="s">
+      <c r="B188" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="B195" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C195" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D195" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="E195" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="2:5">
-      <c r="B194" s="8">
+    <row r="196" spans="1:5">
+      <c r="B196" s="8">
         <v>1</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5">
-      <c r="B195" s="8">
-        <v>2</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5">
-      <c r="B196" s="8">
-        <v>3</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>276</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E196" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="B197" s="8">
+        <v>2</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D197" s="8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="197" spans="2:5">
-      <c r="B197" s="8">
+      <c r="E197" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="B198" s="8">
+        <v>3</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="B199" s="8">
         <v>4</v>
       </c>
-      <c r="C197" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5">
-      <c r="B198" s="8">
+      <c r="C199" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="B200" s="8">
         <v>5</v>
       </c>
-      <c r="C198" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5">
-      <c r="B199" s="8">
+      <c r="C200" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="B201" s="8">
         <v>6</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5">
-      <c r="B200" s="8">
+      <c r="C201" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="B202" s="8">
         <v>7</v>
       </c>
-      <c r="C200" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5">
-      <c r="B201" s="8">
+      <c r="C202" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="B203" s="8">
         <v>8</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5">
-      <c r="B202" s="8">
+      <c r="C203" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="B204" s="8">
         <v>9</v>
       </c>
-      <c r="C202" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5">
-      <c r="B203" s="8">
+      <c r="C204" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="B205" s="8">
         <v>10</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5">
-      <c r="B204" s="8">
+      <c r="C205" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="B206" s="8">
         <v>11</v>
       </c>
-      <c r="C204" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5">
-      <c r="B205" s="8">
+      <c r="C206" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="B207" s="8">
         <v>12</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5">
-      <c r="B206" s="8">
+      <c r="C207" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="B208" s="8">
         <v>13</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5">
-      <c r="B207" s="8">
+      <c r="C208" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="B209" s="8">
         <v>14</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="4" t="s">
+      <c r="C209" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B210" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="4" t="s">
+      <c r="B212" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B213" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="B213" s="7" t="s">
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="B215" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C215" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D215" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="E215" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="B214" s="8">
+    <row r="216" spans="1:5">
+      <c r="B216" s="8">
         <v>1</v>
       </c>
-      <c r="C214" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="B215" s="8">
+      <c r="C216" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="B217" s="8">
         <v>2</v>
       </c>
-      <c r="C215" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D215" s="8" t="s">
+      <c r="C217" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D217" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E215" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="4" t="s">
+      <c r="E217" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B218" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="4" t="s">
+      <c r="B220" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B221" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="B221" s="7" t="s">
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="B223" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D223" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E221" s="7" t="s">
+      <c r="E223" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="B222" s="8">
-        <v>1</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E222" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="B223" s="8">
-        <v>2</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="B224" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>311</v>
@@ -4045,84 +4032,88 @@
     </row>
     <row r="225" spans="1:5">
       <c r="B225" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>312</v>
       </c>
       <c r="D225" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E225" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E225" s="8" t="s">
+    </row>
+    <row r="226" spans="1:5">
+      <c r="B226" s="8">
+        <v>3</v>
+      </c>
+      <c r="C226" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="4" t="s">
+      <c r="D226" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="B227" s="8">
+        <v>4</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="4" t="s">
+      <c r="B230" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="B233" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C233" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D233" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E231" s="7" t="s">
+      <c r="E233" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="B232" s="8">
-        <v>1</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E232" s="8"/>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="B233" s="8">
-        <v>2</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5">
       <c r="B234" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D234" s="8" t="s">
         <v>49</v>
@@ -4131,10 +4122,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="B235" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>49</v>
@@ -4143,10 +4134,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="B236" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>49</v>
@@ -4155,10 +4146,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="B237" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>49</v>
@@ -4167,558 +4158,554 @@
     </row>
     <row r="238" spans="1:5">
       <c r="B238" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E238" s="8"/>
     </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="4" t="s">
+    <row r="239" spans="1:5">
+      <c r="B239" s="8">
+        <v>6</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E239" s="8"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="B240" s="8">
+        <v>7</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E240" s="8"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B241" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="4" t="s">
+      <c r="B243" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="B246" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C246" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D244" s="7" t="s">
+      <c r="D246" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E244" s="7" t="s">
+      <c r="E246" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="B245" s="8">
-        <v>1</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E245" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="B246" s="8">
-        <v>2</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E246" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="B247" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="B248" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="B249" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="B250" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C250" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D250" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="D250" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="E250" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="B251" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="B252" s="8">
+        <v>6</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="B256" s="8">
+      <c r="B256" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="B257" s="8">
         <v>0</v>
       </c>
-      <c r="C256" s="8"/>
-      <c r="D256" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E256" s="8"/>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E257" s="8"/>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B261" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="B262" s="7" t="s">
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="B263" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C263" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D262" s="7" t="s">
+      <c r="D263" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E262" s="7" t="s">
+      <c r="E263" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="B263" s="8">
-        <v>1</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E263" s="8"/>
     </row>
     <row r="264" spans="1:5">
       <c r="B264" s="8">
+        <v>1</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E264" s="8"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="B265" s="8">
         <v>2</v>
       </c>
-      <c r="C264" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E264" s="8"/>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
+      <c r="C265" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E265" s="8"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B269" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="B270" s="7" t="s">
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="B271" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C271" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="D271" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E270" s="7" t="s">
+      <c r="E271" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="B271" s="8">
-        <v>1</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E271" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="B272" s="8">
+        <v>1</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="B273" s="8">
         <v>2</v>
       </c>
-      <c r="C272" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D272" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E272" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C275" s="5"/>
-      <c r="D275" s="5"/>
-      <c r="E275" s="5"/>
+      <c r="C273" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="4" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="B278" s="8">
+      <c r="A278" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="B279" s="8">
         <v>0</v>
       </c>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E278" s="8"/>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C281" s="5"/>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E279" s="8"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B283" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="B284" s="7" t="s">
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="B285" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C285" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D284" s="7" t="s">
+      <c r="D285" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E284" s="7" t="s">
+      <c r="E285" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="B285" s="8">
-        <v>1</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D285" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E285" s="8"/>
     </row>
     <row r="286" spans="1:5">
       <c r="B286" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E286" s="8"/>
     </row>
     <row r="287" spans="1:5">
       <c r="B287" s="8">
+        <v>2</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E287" s="8"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="B288" s="8">
         <v>3</v>
       </c>
-      <c r="C287" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D287" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E287" s="8"/>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C290" s="5"/>
-      <c r="D290" s="5"/>
-      <c r="E290" s="5"/>
+      <c r="C288" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E288" s="8"/>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B292" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C291" s="6"/>
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="B293" s="7" t="s">
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="B294" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C294" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D293" s="7" t="s">
+      <c r="D294" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E293" s="7" t="s">
+      <c r="E294" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="B294" s="8">
-        <v>1</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D294" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E294" s="8" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="B295" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D295" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="B296" s="8">
+        <v>2</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E296" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="B297" s="8">
         <v>3</v>
       </c>
-      <c r="C296" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D296" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E296" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C299" s="5"/>
-      <c r="D299" s="5"/>
-      <c r="E299" s="5"/>
+      <c r="C297" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="4" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
     </row>
-    <row r="303" spans="1:5">
-      <c r="B303" s="7" t="s">
+    <row r="302" spans="1:5">
+      <c r="A302" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C302" s="6"/>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="B304" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C304" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D303" s="7" t="s">
+      <c r="D304" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E303" s="7" t="s">
+      <c r="E304" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="B304" s="8">
-        <v>1</v>
-      </c>
-      <c r="C304" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D304" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E304" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -4726,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
@@ -4745,10 +4732,10 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -4768,545 +4755,543 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
-      <c r="B312" s="8">
-        <v>1</v>
-      </c>
-      <c r="C312" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E312" s="8" t="s">
-        <v>366</v>
-      </c>
+    <row r="314" spans="1:5">
+      <c r="A314" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C315" s="5"/>
-      <c r="D315" s="5"/>
-      <c r="E315" s="5"/>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B315" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="B317" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E317" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="B318" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D318" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E318" s="7" t="s">
-        <v>21</v>
+      <c r="B318" s="8">
+        <v>1</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E318" s="8" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="B319" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>49</v>
+        <v>371</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="B320" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="B321" s="8">
-        <v>3</v>
-      </c>
-      <c r="C321" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D321" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E321" s="8" t="s">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C324" s="5"/>
-      <c r="D324" s="5"/>
-      <c r="E324" s="5"/>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B325" s="6" t="s">
+      <c r="B324" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
-      <c r="E325" s="6"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="B326" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D326" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E326" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="327" spans="1:5">
-      <c r="B327" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D327" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E327" s="7" t="s">
-        <v>21</v>
+      <c r="B327" s="8">
+        <v>1</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="B328" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="B329" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="B330" s="8">
-        <v>3</v>
-      </c>
-      <c r="C330" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D330" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E330" s="8" t="s">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C333" s="6"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="B334" s="8">
+        <v>0</v>
+      </c>
+      <c r="C334" s="8"/>
+      <c r="D334" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E334" s="8"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B333" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C333" s="5"/>
-      <c r="D333" s="5"/>
-      <c r="E333" s="5"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="B335" s="8">
-        <v>0</v>
-      </c>
-      <c r="C335" s="8"/>
-      <c r="D335" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E335" s="8"/>
+      <c r="B337" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C338" s="6"/>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="B339" s="8">
+        <v>0</v>
+      </c>
+      <c r="C339" s="8"/>
+      <c r="D339" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E339" s="8"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B338" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C338" s="5"/>
-      <c r="D338" s="5"/>
-      <c r="E338" s="5"/>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="B340" s="8">
-        <v>0</v>
-      </c>
-      <c r="C340" s="8"/>
-      <c r="D340" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E340" s="8"/>
+      <c r="B342" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="B345" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D345" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E345" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="B346" s="8">
+        <v>1</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B343" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C343" s="5"/>
-      <c r="D343" s="5"/>
-      <c r="E343" s="5"/>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="B346" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D346" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E346" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="B347" s="8">
-        <v>1</v>
-      </c>
-      <c r="C347" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D347" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E347" s="8" t="s">
-        <v>378</v>
-      </c>
+      <c r="B349" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="B352" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E352" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="B353" s="8">
+        <v>1</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C350" s="5"/>
-      <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
-      <c r="E351" s="6"/>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="B353" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D353" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E353" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="B354" s="8">
-        <v>1</v>
-      </c>
-      <c r="C354" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D354" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E354" s="8" t="s">
-        <v>381</v>
-      </c>
+      <c r="B356" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C357" s="5"/>
-      <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C357" s="6"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="4" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
     </row>
-    <row r="359" spans="1:5">
-      <c r="A359" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C359" s="6"/>
-      <c r="D359" s="6"/>
-      <c r="E359" s="6"/>
+    <row r="360" spans="1:5">
+      <c r="B360" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D360" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E360" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="B361" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D361" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E361" s="7" t="s">
-        <v>21</v>
+      <c r="B361" s="8">
+        <v>1</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="B362" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="B363" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C363" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D363" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D363" s="8" t="s">
-        <v>387</v>
-      </c>
       <c r="E363" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="B364" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C364" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D364" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D364" s="8" t="s">
-        <v>384</v>
-      </c>
       <c r="E364" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="B365" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E365" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="B366" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="B367" s="8">
-        <v>6</v>
-      </c>
-      <c r="C367" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D367" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E367" s="8" t="s">
-        <v>398</v>
-      </c>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C370" s="6"/>
+      <c r="D370" s="6"/>
+      <c r="E370" s="6"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="B371" s="8">
+        <v>0</v>
+      </c>
+      <c r="C371" s="8"/>
+      <c r="D371" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E371" s="8"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B370" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="A371" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C371" s="6"/>
-      <c r="D371" s="6"/>
-      <c r="E371" s="6"/>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="B372" s="8">
-        <v>0</v>
-      </c>
-      <c r="C372" s="8"/>
-      <c r="D372" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E372" s="8"/>
+      <c r="B374" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B375" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B376" s="6" t="s">
+      <c r="B375" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C376" s="6"/>
-      <c r="D376" s="6"/>
-      <c r="E376" s="6"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="B377" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D377" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E377" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="378" spans="1:5">
-      <c r="B378" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D378" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E378" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B378" s="8">
+        <v>1</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E378" s="8"/>
     </row>
     <row r="379" spans="1:5">
       <c r="B379" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>118</v>
@@ -5315,10 +5300,10 @@
     </row>
     <row r="380" spans="1:5">
       <c r="B380" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="D380" s="8" t="s">
         <v>120</v>
@@ -5327,401 +5312,305 @@
     </row>
     <row r="381" spans="1:5">
       <c r="B381" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E381" s="8"/>
     </row>
-    <row r="382" spans="1:5">
-      <c r="B382" s="8">
-        <v>4</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="D382" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E382" s="8"/>
+    <row r="384" spans="1:5">
+      <c r="A384" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B385" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C385" s="5"/>
-      <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C385" s="6"/>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="4" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
     </row>
-    <row r="387" spans="1:5">
-      <c r="A387" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C387" s="6"/>
-      <c r="D387" s="6"/>
-      <c r="E387" s="6"/>
+    <row r="388" spans="1:5">
+      <c r="B388" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D388" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E388" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="B389" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D389" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E389" s="7" t="s">
-        <v>21</v>
+      <c r="B389" s="8">
+        <v>1</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="B390" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>205</v>
+        <v>421</v>
       </c>
       <c r="E390" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="B391" s="8">
-        <v>2</v>
-      </c>
-      <c r="C391" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D391" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E391" s="8" t="s">
-        <v>419</v>
-      </c>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C394" s="6"/>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="B396" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D396" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E396" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="B399" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C394" s="5"/>
-      <c r="D394" s="5"/>
-      <c r="E394" s="5"/>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="A395" s="4" t="s">
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B395" s="6" t="s">
+      <c r="B400" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C395" s="6"/>
-      <c r="D395" s="6"/>
-      <c r="E395" s="6"/>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="B397" s="7" t="s">
+      <c r="C400" s="6"/>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="B402" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C402" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D397" s="7" t="s">
+      <c r="D402" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E397" s="7" t="s">
+      <c r="E402" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
-      <c r="B398" s="8">
-        <v>1</v>
-      </c>
-      <c r="C398" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D398" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E398" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401" s="4" t="s">
+    <row r="405" spans="1:5">
+      <c r="A405" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B401" s="5" t="s">
+      <c r="B405" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C401" s="5"/>
-      <c r="D401" s="5"/>
-      <c r="E401" s="5"/>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="A402" s="4" t="s">
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B402" s="6" t="s">
+      <c r="B406" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C402" s="6"/>
-      <c r="D402" s="6"/>
-      <c r="E402" s="6"/>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="B404" s="7" t="s">
+      <c r="C406" s="6"/>
+      <c r="D406" s="6"/>
+      <c r="E406" s="6"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="B408" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="C408" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D404" s="7" t="s">
+      <c r="D408" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E404" s="7" t="s">
+      <c r="E408" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
-      <c r="B405" s="8">
-        <v>1</v>
-      </c>
-      <c r="C405" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D405" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E405" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="4" t="s">
+    <row r="411" spans="1:5">
+      <c r="A411" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B408" s="5" t="s">
+      <c r="B411" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
-      <c r="E408" s="5"/>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409" s="4" t="s">
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B409" s="6" t="s">
+      <c r="B412" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C409" s="6"/>
-      <c r="D409" s="6"/>
-      <c r="E409" s="6"/>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="B411" s="7" t="s">
+      <c r="C412" s="6"/>
+      <c r="D412" s="6"/>
+      <c r="E412" s="6"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="B414" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C411" s="7" t="s">
+      <c r="C414" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D411" s="7" t="s">
+      <c r="D414" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E411" s="7" t="s">
+      <c r="E414" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
-      <c r="B412" s="8">
-        <v>1</v>
-      </c>
-      <c r="C412" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D412" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E412" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" s="4" t="s">
+    <row r="417" spans="1:5">
+      <c r="A417" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B415" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416" s="4" t="s">
+      <c r="B417" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B416" s="6" t="s">
+      <c r="B418" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C416" s="6"/>
-      <c r="D416" s="6"/>
-      <c r="E416" s="6"/>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="B418" s="7" t="s">
+      <c r="C418" s="6"/>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="B420" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C418" s="7" t="s">
+      <c r="C420" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D418" s="7" t="s">
+      <c r="D420" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E418" s="7" t="s">
+      <c r="E420" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="B419" s="8">
-        <v>1</v>
-      </c>
-      <c r="C419" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D419" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E419" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C422" s="5"/>
-      <c r="D422" s="5"/>
-      <c r="E422" s="5"/>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B423" s="6" t="s">
+      <c r="B424" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C423" s="6"/>
-      <c r="D423" s="6"/>
-      <c r="E423" s="6"/>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="B425" s="7" t="s">
+      <c r="C424" s="6"/>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="B426" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C425" s="7" t="s">
+      <c r="C426" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D425" s="7" t="s">
+      <c r="D426" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E425" s="7" t="s">
+      <c r="E426" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="B426" s="8">
-        <v>1</v>
-      </c>
-      <c r="C426" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D426" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E426" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="A429" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B429" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C429" s="5"/>
-      <c r="D429" s="5"/>
-      <c r="E429" s="5"/>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B430" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C430" s="6"/>
-      <c r="D430" s="6"/>
-      <c r="E430" s="6"/>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="B432" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C432" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D432" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E432" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="433" spans="2:5">
-      <c r="B433" s="8">
-        <v>1</v>
-      </c>
-      <c r="C433" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D433" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E433" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5743,93 +5632,93 @@
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B144:E144"/>
     <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B147:E147"/>
     <mergeCell ref="B150:E150"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B152:E152"/>
     <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B157:E157"/>
     <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:E169"/>
     <mergeCell ref="B172:E172"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B174:E174"/>
     <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B179:E179"/>
     <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B185:E185"/>
-    <mergeCell ref="B186:E186"/>
+    <mergeCell ref="B183:E183"/>
+    <mergeCell ref="B184:E184"/>
     <mergeCell ref="B187:E187"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B241:E241"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B254:E254"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
     <mergeCell ref="B255:E255"/>
-    <mergeCell ref="B259:E259"/>
+    <mergeCell ref="B256:E256"/>
     <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="B261:E261"/>
     <mergeCell ref="B268:E268"/>
-    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B269:E269"/>
     <mergeCell ref="B276:E276"/>
     <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B281:E281"/>
+    <mergeCell ref="B278:E278"/>
     <mergeCell ref="B282:E282"/>
-    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B283:E283"/>
     <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B299:E299"/>
+    <mergeCell ref="B292:E292"/>
     <mergeCell ref="B300:E300"/>
     <mergeCell ref="B301:E301"/>
+    <mergeCell ref="B302:E302"/>
     <mergeCell ref="B307:E307"/>
     <mergeCell ref="B308:E308"/>
     <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B314:E314"/>
     <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B323:E323"/>
     <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B325:E325"/>
+    <mergeCell ref="B332:E332"/>
     <mergeCell ref="B333:E333"/>
-    <mergeCell ref="B334:E334"/>
+    <mergeCell ref="B337:E337"/>
     <mergeCell ref="B338:E338"/>
-    <mergeCell ref="B339:E339"/>
+    <mergeCell ref="B342:E342"/>
     <mergeCell ref="B343:E343"/>
-    <mergeCell ref="B344:E344"/>
+    <mergeCell ref="B349:E349"/>
     <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B351:E351"/>
+    <mergeCell ref="B356:E356"/>
     <mergeCell ref="B357:E357"/>
     <mergeCell ref="B358:E358"/>
-    <mergeCell ref="B359:E359"/>
+    <mergeCell ref="B369:E369"/>
     <mergeCell ref="B370:E370"/>
-    <mergeCell ref="B371:E371"/>
+    <mergeCell ref="B374:E374"/>
     <mergeCell ref="B375:E375"/>
-    <mergeCell ref="B376:E376"/>
+    <mergeCell ref="B384:E384"/>
     <mergeCell ref="B385:E385"/>
     <mergeCell ref="B386:E386"/>
-    <mergeCell ref="B387:E387"/>
+    <mergeCell ref="B393:E393"/>
     <mergeCell ref="B394:E394"/>
-    <mergeCell ref="B395:E395"/>
-    <mergeCell ref="B401:E401"/>
-    <mergeCell ref="B402:E402"/>
-    <mergeCell ref="B408:E408"/>
-    <mergeCell ref="B409:E409"/>
-    <mergeCell ref="B415:E415"/>
-    <mergeCell ref="B416:E416"/>
-    <mergeCell ref="B422:E422"/>
+    <mergeCell ref="B399:E399"/>
+    <mergeCell ref="B400:E400"/>
+    <mergeCell ref="B405:E405"/>
+    <mergeCell ref="B406:E406"/>
+    <mergeCell ref="B411:E411"/>
+    <mergeCell ref="B412:E412"/>
+    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="B418:E418"/>
     <mergeCell ref="B423:E423"/>
-    <mergeCell ref="B429:E429"/>
-    <mergeCell ref="B430:E430"/>
+    <mergeCell ref="B424:E424"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5837,7 +5726,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D132"/>
+  <dimension ref="A2:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6167,748 +6056,788 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="8">
-        <v>34</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="8"/>
-    </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="8">
-        <v>35</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="8"/>
+      <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="B44" s="8">
+    <row r="48" spans="1:4">
+      <c r="B48" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45" s="8">
+      <c r="C48" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C49" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4">
       <c r="B52" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4">
-      <c r="B53" s="8">
-        <v>4</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="8">
-        <v>5</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D54" s="8"/>
+      <c r="A54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="B56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="8">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B58" s="8">
+        <v>2</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" s="8">
+        <v>3</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60" s="8">
+      <c r="C64" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" s="8">
         <v>2</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="8">
+      <c r="C65" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" s="8">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" s="8">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" s="8">
+        <v>2</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="B81" s="8">
+        <v>1</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" s="8">
+        <v>2</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" s="8">
+        <v>1</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="8">
+        <v>2</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="B65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="B66" s="8">
-        <v>1</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="B67" s="8">
-        <v>2</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="B71" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="B72" s="8">
-        <v>1</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="B77" s="8">
-        <v>1</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="B78" s="8">
-        <v>2</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="B82" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="B83" s="8">
-        <v>1</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="B84" s="8">
-        <v>2</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86" s="5" t="s">
+      <c r="C89" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="B89" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4">
       <c r="B90" s="8">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="B91" s="8">
-        <v>200</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>255</v>
-      </c>
+      <c r="D90" s="8"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="B92" s="8">
-        <v>400</v>
-      </c>
-      <c r="C92" s="8" t="s">
+      <c r="A92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>257</v>
-      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="B93" s="8">
-        <v>401</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="B94" s="8">
-        <v>403</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" s="8"/>
+      <c r="A93" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="B95" s="8">
-        <v>500</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>262</v>
+      <c r="B95" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="B96" s="8">
-        <v>501</v>
+        <v>102</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="B97" s="8">
+        <v>200</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98" s="8">
+        <v>400</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" s="8">
+        <v>401</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" s="8">
+        <v>403</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="B101" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>21</v>
+      <c r="B101" s="8">
+        <v>500</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="B102" s="8">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="B103" s="8">
-        <v>2</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>319</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="B108" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>21</v>
+      <c r="B108" s="8">
+        <v>1</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="B109" s="8">
+        <v>2</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="B114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="B115" s="8">
         <v>2048</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="B110" s="8">
+      <c r="C115" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="B116" s="8">
         <v>2054</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="B111" s="8">
+      <c r="C116" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="B117" s="8">
         <v>34525</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="B112" s="8">
-        <v>34887</v>
-      </c>
-      <c r="C112" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="B117" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="B118" s="8">
+        <v>34887</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="B123" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="B124" s="8">
         <v>1</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="B119" s="8">
+      <c r="C124" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="B125" s="8">
         <v>6</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="B120" s="8">
-        <v>17</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="D120" s="8" t="s">
+      <c r="C125" s="8" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B122" s="5" t="s">
+      <c r="D125" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="B125" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="B126" s="8">
+        <v>17</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" s="8">
         <v>20</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="B127" s="8">
+      <c r="C132" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133" s="8">
         <v>21</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="B128" s="8">
+      <c r="C133" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="B134" s="8">
         <v>22</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4">
-      <c r="B129" s="8">
+      <c r="C134" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" s="8">
         <v>23</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4">
-      <c r="B130" s="8">
+      <c r="C135" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136" s="8">
         <v>25</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4">
-      <c r="B131" s="8">
+      <c r="C136" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="B137" s="8">
         <v>80</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4">
-      <c r="B132" s="8">
+      <c r="C137" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D132" s="8" t="s">
+      <c r="D137" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" s="8">
         <v>443</v>
       </c>
+      <c r="C138" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_gen/openc2_genj.xlsx
+++ b/data_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="447">
-  <si>
-    <t>Generated from data\openc2.jaen, Mon Mar  6 14:27:06 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="461">
+  <si>
+    <t>Generated from data\openc2.jaen, Mon Mar  6 16:24:35 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -141,1222 +141,1264 @@
     <t>DeviceID (String)</t>
   </si>
   <si>
+    <t>ID of the command issuer, from "command-src" modifier</t>
+  </si>
+  <si>
+    <t>cmdref (required)</t>
+  </si>
+  <si>
+    <t>CommandID (String)</t>
+  </si>
+  <si>
+    <t>Command unique identifier, from "command-ref" modifier</t>
+  </si>
+  <si>
+    <t>status (required)</t>
+  </si>
+  <si>
+    <t>StatusCode (vocab)</t>
+  </si>
+  <si>
+    <t>Adapted from HTTP Status Codes, RFC 7231</t>
+  </si>
+  <si>
+    <t>statusText (required)</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Status description</t>
+  </si>
+  <si>
+    <t>results (required)</t>
+  </si>
+  <si>
+    <t>Results of executing the command</t>
+  </si>
+  <si>
+    <t>OpenC2Alert</t>
+  </si>
+  <si>
+    <t>message (required)</t>
+  </si>
+  <si>
+    <t>Vocabulary:</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>locate</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>restart</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>snapshot</t>
+  </si>
+  <si>
+    <t>detonate</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>throttle</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>distill</t>
+  </si>
+  <si>
+    <t>augment</t>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>mitigate</t>
+  </si>
+  <si>
+    <t>remediate</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>OpenC2 Target datatypes</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>artifact (Record)</t>
+  </si>
+  <si>
+    <t>SCO v2</t>
+  </si>
+  <si>
+    <t>commands</t>
+  </si>
+  <si>
+    <t>commands (vocab)</t>
+  </si>
+  <si>
+    <t>OpenC2 - query actuator for supported capabilities</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>device (Map)</t>
+  </si>
+  <si>
+    <t>CybOX 2.1</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>directory (Map)</t>
+  </si>
+  <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>disk_partition</t>
+  </si>
+  <si>
+    <t>disk-partition</t>
+  </si>
+  <si>
+    <t>domain_name</t>
+  </si>
+  <si>
+    <t>domain-name (Record)</t>
+  </si>
+  <si>
+    <t>email_addr</t>
+  </si>
+  <si>
+    <t>email-addr (Record)</t>
+  </si>
+  <si>
+    <t>email_message</t>
+  </si>
+  <si>
+    <t>email-message (Record)</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>file (Record)</t>
+  </si>
+  <si>
+    <t>ipv4_addr</t>
+  </si>
+  <si>
+    <t>ipv4-addr (Record)</t>
+  </si>
+  <si>
+    <t>ipv6_addr</t>
+  </si>
+  <si>
+    <t>ipv6-addr (Record)</t>
+  </si>
+  <si>
+    <t>mac_addr</t>
+  </si>
+  <si>
+    <t>mac-addr (Record)</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>ip_connection</t>
+  </si>
+  <si>
+    <t>ip-connection (Record)</t>
+  </si>
+  <si>
+    <t>OpenC2</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>process (Record)</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>software (Record)</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>url (Record)</t>
+  </si>
+  <si>
+    <t>user_account</t>
+  </si>
+  <si>
+    <t>user-account (Record)</t>
+  </si>
+  <si>
+    <t>user_session</t>
+  </si>
+  <si>
+    <t>user-session</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>windows_registry_key</t>
+  </si>
+  <si>
+    <t>windows-registry-key (Record)</t>
+  </si>
+  <si>
+    <t>x509_certificate</t>
+  </si>
+  <si>
+    <t>x509-certificate (Record)</t>
+  </si>
+  <si>
+    <t>Actuator</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>ActuatorSpecifiers (Record)</t>
+  </si>
+  <si>
+    <t>endpoint_digital_telephone_handset</t>
+  </si>
+  <si>
+    <t>endpoint_laptop</t>
+  </si>
+  <si>
+    <t>endpoint_pos_terminal</t>
+  </si>
+  <si>
+    <t>endpoint_printer</t>
+  </si>
+  <si>
+    <t>endpoint_sensor</t>
+  </si>
+  <si>
+    <t>endpoint_server</t>
+  </si>
+  <si>
+    <t>endpoint_smart_meter</t>
+  </si>
+  <si>
+    <t>endpoint_smart_phone</t>
+  </si>
+  <si>
+    <t>endpoint_tablet</t>
+  </si>
+  <si>
+    <t>endpoint_workstation</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>network_bridge</t>
+  </si>
+  <si>
+    <t>network_firewall</t>
+  </si>
+  <si>
+    <t>network_gateway</t>
+  </si>
+  <si>
+    <t>network_guard</t>
+  </si>
+  <si>
+    <t>network_hips</t>
+  </si>
+  <si>
+    <t>network_hub</t>
+  </si>
+  <si>
+    <t>network_ids</t>
+  </si>
+  <si>
+    <t>network_ips</t>
+  </si>
+  <si>
+    <t>network_modem</t>
+  </si>
+  <si>
+    <t>network_nic</t>
+  </si>
+  <si>
+    <t>network_proxy</t>
+  </si>
+  <si>
+    <t>network_router</t>
+  </si>
+  <si>
+    <t>network_security_manager</t>
+  </si>
+  <si>
+    <t>network_sense_making</t>
+  </si>
+  <si>
+    <t>network_sensor</t>
+  </si>
+  <si>
+    <t>network_switch</t>
+  </si>
+  <si>
+    <t>network_vpn</t>
+  </si>
+  <si>
+    <t>network_wap</t>
+  </si>
+  <si>
+    <t>process_aaa_server</t>
+  </si>
+  <si>
+    <t>process_anti_virus_scanner</t>
+  </si>
+  <si>
+    <t>process_connection_scanner</t>
+  </si>
+  <si>
+    <t>process_directory_server</t>
+  </si>
+  <si>
+    <t>process_dns_server</t>
+  </si>
+  <si>
+    <t>process_email_service</t>
+  </si>
+  <si>
+    <t>process_file_scanner</t>
+  </si>
+  <si>
+    <t>process_location_service</t>
+  </si>
+  <si>
+    <t>process_network_scanner</t>
+  </si>
+  <si>
+    <t>process_remediation_service</t>
+  </si>
+  <si>
+    <t>process_reputation_service</t>
+  </si>
+  <si>
+    <t>process_sandbox</t>
+  </si>
+  <si>
+    <t>process_virtualization_service</t>
+  </si>
+  <si>
+    <t>process_vulnerability_scanner</t>
+  </si>
+  <si>
+    <t>ActuatorSpecifiers</t>
+  </si>
+  <si>
+    <t>port (optional)</t>
+  </si>
+  <si>
+    <t>asset_id (optional)</t>
+  </si>
+  <si>
+    <t>Modifiers</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>context (optional)</t>
+  </si>
+  <si>
+    <t>datetime (optional)</t>
+  </si>
+  <si>
+    <t>DateTime (String)</t>
+  </si>
+  <si>
+    <t>delay (optional)</t>
+  </si>
+  <si>
+    <t>Duration (String)</t>
+  </si>
+  <si>
+    <t>duration (optional)</t>
+  </si>
+  <si>
+    <t>frequency (optional)</t>
+  </si>
+  <si>
+    <t>command_ref (optional)</t>
+  </si>
+  <si>
+    <t>response (optional)</t>
+  </si>
+  <si>
+    <t>ResponseValue (vocab)</t>
+  </si>
+  <si>
+    <t>method (optional)</t>
+  </si>
+  <si>
+    <t>MethodValue (Choice)</t>
+  </si>
+  <si>
+    <t>options (optional)</t>
+  </si>
+  <si>
+    <t>search (optional)</t>
+  </si>
+  <si>
+    <t>SearchValue (vocab)</t>
+  </si>
+  <si>
+    <t>where (optional)</t>
+  </si>
+  <si>
+    <t>WhereValue (vocab)</t>
+  </si>
+  <si>
+    <t>command_src (optional)</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Options:</t>
+  </si>
+  <si>
+    <t>pattern: "^PT(\d+H(\d+M(\d+S)?)?|\d+M(\d+S)?|\d+S)$"</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>pattern: "^\d{4}-\d\d-\d\dT\d\d:\d\d:\d\d(\.\d{1,6})?(Z|[-+]\d\d:\d\d)$"</t>
+  </si>
+  <si>
+    <t>ResponseValue</t>
+  </si>
+  <si>
+    <t>ack</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>MethodValue</t>
+  </si>
+  <si>
+    <t>Method must agree with Action (test descriptions)</t>
+  </si>
+  <si>
+    <t>DenyMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be "deny"</t>
+  </si>
+  <si>
+    <t>PauseMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be 'pause'</t>
+  </si>
+  <si>
+    <t>ScanMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be 'scan"</t>
+  </si>
+  <si>
+    <t>StartMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be start</t>
+  </si>
+  <si>
+    <t>StopMethod (vocab)</t>
+  </si>
+  <si>
+    <t>Action must be "stop"</t>
+  </si>
+  <si>
+    <t>DenyMethod</t>
+  </si>
+  <si>
+    <t>acl</t>
+  </si>
+  <si>
+    <t>blackhole</t>
+  </si>
+  <si>
+    <t>sinkhole</t>
+  </si>
+  <si>
+    <t>blacklist</t>
+  </si>
+  <si>
+    <t>whitelist</t>
+  </si>
+  <si>
+    <t>PauseMethod</t>
+  </si>
+  <si>
+    <t>hibernate</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>suspend</t>
+  </si>
+  <si>
+    <t>ScanMethod</t>
+  </si>
+  <si>
+    <t>authenticated</t>
+  </si>
+  <si>
+    <t>non-authenticated</t>
+  </si>
+  <si>
+    <t>StartMethod</t>
+  </si>
+  <si>
+    <t>spawn</t>
+  </si>
+  <si>
+    <t>StopMethod</t>
+  </si>
+  <si>
+    <t>graceful</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>WhereValue</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>SearchValue</t>
+  </si>
+  <si>
+    <t>cve</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>vendor-bulletin</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
     <t>Device Identifier of the command issuer</t>
   </si>
   <si>
-    <t>cmdref (required)</t>
-  </si>
-  <si>
-    <t>CommandID (String)</t>
-  </si>
-  <si>
-    <t>Command unique identifier, from "id" modifier</t>
-  </si>
-  <si>
-    <t>status (required)</t>
-  </si>
-  <si>
-    <t>StatusCode (vocab)</t>
-  </si>
-  <si>
-    <t>Adapted from HTTP Status Codes, RFC 7231</t>
-  </si>
-  <si>
-    <t>statusText (required)</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Status description</t>
-  </si>
-  <si>
-    <t>results (required)</t>
-  </si>
-  <si>
-    <t>Results of executing the command</t>
-  </si>
-  <si>
-    <t>OpenC2Alert</t>
-  </si>
-  <si>
-    <t>message (required)</t>
-  </si>
-  <si>
-    <t>Vocabulary:</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>scan</t>
-  </si>
-  <si>
-    <t>locate</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>notify</t>
-  </si>
-  <si>
-    <t>deny</t>
-  </si>
-  <si>
-    <t>contain</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>restart</t>
-  </si>
-  <si>
-    <t>pause</t>
-  </si>
-  <si>
-    <t>resume</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>redirect</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>snapshot</t>
-  </si>
-  <si>
-    <t>detonate</t>
-  </si>
-  <si>
-    <t>restore</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>throttle</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>substitute</t>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>sync</t>
-  </si>
-  <si>
-    <t>distill</t>
-  </si>
-  <si>
-    <t>augment</t>
-  </si>
-  <si>
-    <t>investigate</t>
-  </si>
-  <si>
-    <t>mitigate</t>
-  </si>
-  <si>
-    <t>remediate</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Description:</t>
-  </si>
-  <si>
-    <t>OpenC2 Target datatypes</t>
-  </si>
-  <si>
-    <t>artifact</t>
-  </si>
-  <si>
-    <t>artifact (Record)</t>
-  </si>
-  <si>
-    <t>SCO v2</t>
-  </si>
-  <si>
-    <t>commands</t>
-  </si>
-  <si>
-    <t>commands (vocab)</t>
-  </si>
-  <si>
-    <t>OpenC2 - query actuator for supported capabilities</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>device (Map)</t>
-  </si>
-  <si>
-    <t>CybOX 2.1</t>
-  </si>
-  <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>directory (Map)</t>
-  </si>
-  <si>
-    <t>disk</t>
-  </si>
-  <si>
-    <t>disk-partition</t>
+    <t>CommandID</t>
+  </si>
+  <si>
+    <t>Command unique identifier</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>1xx: Informational</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2xx: Success</t>
+  </si>
+  <si>
+    <t>Bad_Request</t>
+  </si>
+  <si>
+    <t>3xx: Redirection</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>4xx: Client Error</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>Internal_Server_Error</t>
+  </si>
+  <si>
+    <t>5xx: Server Error</t>
+  </si>
+  <si>
+    <t>Not_Implemented</t>
+  </si>
+  <si>
+    <t>Base64</t>
+  </si>
+  <si>
+    <t>A sequence of octets encoded as a Base64 string</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>A sequence of octets encoded as a hexadecimal string</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>RFC 3339 format date and time</t>
+  </si>
+  <si>
+    <t>hashes-type</t>
+  </si>
+  <si>
+    <t>MD5 (required)</t>
+  </si>
+  <si>
+    <t>Hex (String)</t>
+  </si>
+  <si>
+    <t>MD5 message digest as defined in RFC3121</t>
+  </si>
+  <si>
+    <t>MD6 (required)</t>
+  </si>
+  <si>
+    <t>MD6 message digest as defined in MD6 proposal</t>
+  </si>
+  <si>
+    <t>RIPEMD-160 (required)</t>
+  </si>
+  <si>
+    <t>RACE Integrity Primitives Evaluation Message as defined in RIPEMD-160 specification</t>
+  </si>
+  <si>
+    <t>SHA-1 (required)</t>
+  </si>
+  <si>
+    <t>Secure Hash Algorithm (SHA)-1 as defined in RFC3174</t>
+  </si>
+  <si>
+    <t>SHA-224 (required)</t>
+  </si>
+  <si>
+    <t>SHA-224 as defined in RFC6234 (US Secure Hash Algorithms)</t>
+  </si>
+  <si>
+    <t>SHA-256 (required)</t>
+  </si>
+  <si>
+    <t>SHA-256 as defined in RFC6234</t>
+  </si>
+  <si>
+    <t>SHA-384 (required)</t>
+  </si>
+  <si>
+    <t>SHA-384 as defined in RFC6234</t>
+  </si>
+  <si>
+    <t>SHA-512 (required)</t>
+  </si>
+  <si>
+    <t>SHA-512 as defined in RFC6234</t>
+  </si>
+  <si>
+    <t>SHA3-224 (required)</t>
+  </si>
+  <si>
+    <t>SHA3-224 as defined in FIPS PUP 202</t>
+  </si>
+  <si>
+    <t>SHA3-256 (required)</t>
+  </si>
+  <si>
+    <t>SHA3-256 as defined in FIPS PUP 202</t>
+  </si>
+  <si>
+    <t>SHA3-384 (required)</t>
+  </si>
+  <si>
+    <t>SHA3-384 as defined in FIPS PUP 202</t>
+  </si>
+  <si>
+    <t>SHA3-512 (required)</t>
+  </si>
+  <si>
+    <t>SHA3-512 as defined in FIPS PUP 202</t>
+  </si>
+  <si>
+    <t>ssdeep (required)</t>
+  </si>
+  <si>
+    <t>ssdeep fuzzy hashing algorithm as defined in the SSDEEP specification</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL (required)</t>
+  </si>
+  <si>
+    <t>whirlpool cryptographic hash function as defined in ISO/IEC 10118-3:2004</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>payload_bin</t>
+  </si>
+  <si>
+    <t>Base64 (String)</t>
+  </si>
+  <si>
+    <t>Specifies the binary data contained in the artifact as a base64-encoded string.</t>
+  </si>
+  <si>
+    <t>MUST be a valid URL that resolves to the un-encoded content</t>
+  </si>
+  <si>
+    <t>type (required)</t>
+  </si>
+  <si>
+    <t>MUST be "artifact"</t>
+  </si>
+  <si>
+    <t>mime_type (optional)</t>
+  </si>
+  <si>
+    <t>MUST be a valid MIME type as specified in the IANA Media Types registry</t>
+  </si>
+  <si>
+    <t>* (optional)</t>
+  </si>
+  <si>
+    <t>payload (Choice)</t>
+  </si>
+  <si>
+    <t>choice of literal content or URL to obtain content</t>
+  </si>
+  <si>
+    <t>hashes (optional)</t>
+  </si>
+  <si>
+    <t>hashes-type (Map)</t>
+  </si>
+  <si>
+    <t>Specifies a dictionary of hashes for the contents of the payload</t>
+  </si>
+  <si>
+    <t>Target used to query Actuator for its supported capabilities</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>results = JSON array of supported action verbs</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>results = JAEN syntax of supported commands</t>
+  </si>
+  <si>
+    <t>Description (optional)</t>
+  </si>
+  <si>
+    <t>Device_Type (optional)</t>
+  </si>
+  <si>
+    <t>Manufacturer (optional)</t>
+  </si>
+  <si>
+    <t>Model (optional)</t>
+  </si>
+  <si>
+    <t>Serial_Number (optional)</t>
+  </si>
+  <si>
+    <t>Firmware_Version (optional)</t>
+  </si>
+  <si>
+    <t>System_Details (optional)</t>
+  </si>
+  <si>
+    <t>path (required)</t>
+  </si>
+  <si>
+    <t>Path, as originally observed, to the directory on the filesystem</t>
+  </si>
+  <si>
+    <t>path_enc (optional)</t>
+  </si>
+  <si>
+    <t>Observed encoding for the path, from the IANA Character Set Registry</t>
+  </si>
+  <si>
+    <t>created (optional)</t>
+  </si>
+  <si>
+    <t>Timestamp (String)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was created</t>
+  </si>
+  <si>
+    <t>modified (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was last written-to/modified</t>
+  </si>
+  <si>
+    <t>accessed (optional)</t>
+  </si>
+  <si>
+    <t>Date/time the directory was last accessed</t>
+  </si>
+  <si>
+    <t>contains (optional)</t>
+  </si>
+  <si>
+    <t>dir-contents (Array)</t>
+  </si>
+  <si>
+    <t>List of files/directories contained within the directory</t>
+  </si>
+  <si>
+    <t>dir-contents</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>dirfile (Choice)</t>
+  </si>
+  <si>
+    <t>dirfile</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
   <si>
     <t>domain-name</t>
   </si>
   <si>
-    <t>domain-name (Record)</t>
+    <t>value (required)</t>
+  </si>
+  <si>
+    <t>Value of the domain name</t>
+  </si>
+  <si>
+    <t>resolves_to (optional)</t>
+  </si>
+  <si>
+    <t>dnvalues (Array)</t>
+  </si>
+  <si>
+    <t>List of IP addresses or domain names</t>
+  </si>
+  <si>
+    <t>dnvalues</t>
+  </si>
+  <si>
+    <t>dnvalue (Choice)</t>
+  </si>
+  <si>
+    <t>dnvalue</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>email-addr</t>
   </si>
   <si>
-    <t>email-addr (Record)</t>
+    <t>Email address (addr-spec in RFC 5322 Section 3.4)</t>
+  </si>
+  <si>
+    <t>display_name (optional)</t>
+  </si>
+  <si>
+    <t>Name that is displayed to the user of a mail application</t>
+  </si>
+  <si>
+    <t>belongs_to (optional)</t>
+  </si>
+  <si>
+    <t>User account that the email address belongs to</t>
   </si>
   <si>
     <t>email-message</t>
   </si>
   <si>
-    <t>email-message (Record)</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>file (Record)</t>
+    <t>TODO: finish</t>
   </si>
   <si>
     <t>ipv4-addr</t>
   </si>
   <si>
-    <t>ipv4-addr (Record)</t>
+    <t>Specifies one or more IPv4 addresses using CIDR notation</t>
+  </si>
+  <si>
+    <t>resolves_to_refs (optional)</t>
+  </si>
+  <si>
+    <t>mac-addrs (Array)</t>
+  </si>
+  <si>
+    <t>Specifies a list of references to one or more Layer 2 Media Access Control (MAC) addresses that the IPv4 address resolves to.</t>
+  </si>
+  <si>
+    <t>belongs_to_refs (optional)</t>
+  </si>
+  <si>
+    <t>asystems (Array)</t>
+  </si>
+  <si>
+    <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
   </si>
   <si>
     <t>ipv6-addr</t>
   </si>
   <si>
-    <t>ipv6-addr (Record)</t>
+    <t>ipv4-str</t>
+  </si>
+  <si>
+    <t>mac-addrs</t>
+  </si>
+  <si>
+    <t>asystems</t>
+  </si>
+  <si>
+    <t>autonomous-system</t>
   </si>
   <si>
     <t>mac-addr</t>
   </si>
   <si>
-    <t>mac-addr (Record)</t>
-  </si>
-  <si>
-    <t>memory</t>
+    <t>Specifies a single MAC address.  MUST be represented as a single colon-delimited, lowercase MAC-48 address, which MUST include leading zeros for each octet.  Example: 00:00:ab:cd:ef:01</t>
+  </si>
+  <si>
+    <t>mutex</t>
+  </si>
+  <si>
+    <t>name (required)</t>
+  </si>
+  <si>
+    <t>Specifies the name of the mutex object.</t>
   </si>
   <si>
     <t>ip-connection</t>
   </si>
   <si>
-    <t>ip-connection (Record)</t>
-  </si>
-  <si>
-    <t>OpenC2</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>process (Record)</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>software (Record)</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>url (Record)</t>
+    <t>5-tuple that specifies a tcp/ip connection</t>
+  </si>
+  <si>
+    <t>src_addr (optional)</t>
+  </si>
+  <si>
+    <t>socket-addr (Choice)</t>
+  </si>
+  <si>
+    <t>source address</t>
+  </si>
+  <si>
+    <t>src_port (optional)</t>
+  </si>
+  <si>
+    <t>port (Choice)</t>
+  </si>
+  <si>
+    <t>source TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>dst_addr (optional)</t>
+  </si>
+  <si>
+    <t>destination address</t>
+  </si>
+  <si>
+    <t>dst_port (optional)</t>
+  </si>
+  <si>
+    <t>destination TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>layer3_protocol (optional)</t>
+  </si>
+  <si>
+    <t>layer3-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>IEEE 802 Ether Type</t>
+  </si>
+  <si>
+    <t>layer4_protocol (optional)</t>
+  </si>
+  <si>
+    <t>layer4-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>Protocol (IPv4) / Next Header (IPv6)</t>
+  </si>
+  <si>
+    <t>layer3-protocol</t>
+  </si>
+  <si>
+    <t>IEEE 802 Ether Types - any IANA value, RFC 7042</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>0x0800 Internet Protocol Version 4</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>0x0806 Address Resolution Protocol</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>0x86DD Internet Protocol Version 6</t>
+  </si>
+  <si>
+    <t>MPLS</t>
+  </si>
+  <si>
+    <t>0x8847 Multi-Protocol Label Switching</t>
+  </si>
+  <si>
+    <t>socket-addrs</t>
+  </si>
+  <si>
+    <t>socket-addr</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>TCP/UDP port number or protocol</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Port number (e.g., dynamically assigned)</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>layer7-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>Registered port nummber (registered with IANA)</t>
+  </si>
+  <si>
+    <t>layer4-protocol</t>
+  </si>
+  <si>
+    <t>protocol (IPv4) or next header (IPv6) field - any IANA value, RFC 5237</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
+    <t>Internet Control Message Protocol - RFC 792</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Transmission Control Protocol - RFC 793</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol - RFC 768</t>
+  </si>
+  <si>
+    <t>layer7-protocol</t>
+  </si>
+  <si>
+    <t>Service Name and Transport Protocol Port - any IANA value, RFC 6335</t>
+  </si>
+  <si>
+    <t>ftp-data</t>
+  </si>
+  <si>
+    <t>File Transfer Protocol (data)</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>File Transfer Protocol (control)</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>Secure Shell Protocol</t>
+  </si>
+  <si>
+    <t>telnet</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>Simple Mail Transfer Protocol</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>Hypertext Transport Protocol</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>HTTP over TLS</t>
   </si>
   <si>
     <t>user-account</t>
   </si>
   <si>
-    <t>user-account (Record)</t>
-  </si>
-  <si>
-    <t>user-session</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
     <t>windows-registry-key</t>
   </si>
   <si>
-    <t>windows-registry-key (Record)</t>
-  </si>
-  <si>
     <t>x509-certificate</t>
-  </si>
-  <si>
-    <t>x509-certificate (Record)</t>
-  </si>
-  <si>
-    <t>Actuator</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>ActuatorSpecifiers (Record)</t>
-  </si>
-  <si>
-    <t>endpoint-digital-telephone-handset</t>
-  </si>
-  <si>
-    <t>endpoint-laptop</t>
-  </si>
-  <si>
-    <t>endpoint-pos-terminal</t>
-  </si>
-  <si>
-    <t>endpoint-printer</t>
-  </si>
-  <si>
-    <t>endpoint-sensor</t>
-  </si>
-  <si>
-    <t>endpoint-server</t>
-  </si>
-  <si>
-    <t>endpoint-smart-meter</t>
-  </si>
-  <si>
-    <t>endpoint-smart-phone</t>
-  </si>
-  <si>
-    <t>endpoint-tablet</t>
-  </si>
-  <si>
-    <t>endpoint-workstation</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>network-bridge</t>
-  </si>
-  <si>
-    <t>network-firewall</t>
-  </si>
-  <si>
-    <t>network-gateway</t>
-  </si>
-  <si>
-    <t>network-guard</t>
-  </si>
-  <si>
-    <t>network-hips</t>
-  </si>
-  <si>
-    <t>network-hub</t>
-  </si>
-  <si>
-    <t>network-ids</t>
-  </si>
-  <si>
-    <t>network-ips</t>
-  </si>
-  <si>
-    <t>network-modem</t>
-  </si>
-  <si>
-    <t>network-nic</t>
-  </si>
-  <si>
-    <t>network-proxy</t>
-  </si>
-  <si>
-    <t>network-router</t>
-  </si>
-  <si>
-    <t>network-security-manager</t>
-  </si>
-  <si>
-    <t>network-sense-making</t>
-  </si>
-  <si>
-    <t>network-sensor</t>
-  </si>
-  <si>
-    <t>network-switch</t>
-  </si>
-  <si>
-    <t>network-vpn</t>
-  </si>
-  <si>
-    <t>network-wap</t>
-  </si>
-  <si>
-    <t>process-aaa-server</t>
-  </si>
-  <si>
-    <t>process-anti-virus-scanner</t>
-  </si>
-  <si>
-    <t>process-connection-scanner</t>
-  </si>
-  <si>
-    <t>process-directory-server</t>
-  </si>
-  <si>
-    <t>process-dns-server</t>
-  </si>
-  <si>
-    <t>process-email-service</t>
-  </si>
-  <si>
-    <t>process-file-scanner</t>
-  </si>
-  <si>
-    <t>process-location-service</t>
-  </si>
-  <si>
-    <t>process-network-scanner</t>
-  </si>
-  <si>
-    <t>process-remediation-service</t>
-  </si>
-  <si>
-    <t>process-reputation-service</t>
-  </si>
-  <si>
-    <t>process-sandbox</t>
-  </si>
-  <si>
-    <t>process-virtualization-service</t>
-  </si>
-  <si>
-    <t>process-vulnerability-scanner</t>
-  </si>
-  <si>
-    <t>ActuatorSpecifiers</t>
-  </si>
-  <si>
-    <t>port (optional)</t>
-  </si>
-  <si>
-    <t>asset_id (optional)</t>
-  </si>
-  <si>
-    <t>Modifiers</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>context (optional)</t>
-  </si>
-  <si>
-    <t>datetime (optional)</t>
-  </si>
-  <si>
-    <t>DateTime (String)</t>
-  </si>
-  <si>
-    <t>delay (optional)</t>
-  </si>
-  <si>
-    <t>Duration (String)</t>
-  </si>
-  <si>
-    <t>duration (optional)</t>
-  </si>
-  <si>
-    <t>frequency (optional)</t>
-  </si>
-  <si>
-    <t>command-ref (optional)</t>
-  </si>
-  <si>
-    <t>response (optional)</t>
-  </si>
-  <si>
-    <t>ResponseValue (vocab)</t>
-  </si>
-  <si>
-    <t>method (optional)</t>
-  </si>
-  <si>
-    <t>MethodValue (Choice)</t>
-  </si>
-  <si>
-    <t>options (optional)</t>
-  </si>
-  <si>
-    <t>search (optional)</t>
-  </si>
-  <si>
-    <t>SearchValue (vocab)</t>
-  </si>
-  <si>
-    <t>where (optional)</t>
-  </si>
-  <si>
-    <t>WhereValue (vocab)</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Options:</t>
-  </si>
-  <si>
-    <t>pattern: "^PT(\d+H(\d+M(\d+S)?)?|\d+M(\d+S)?|\d+S)$"</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>pattern: "^\d{4}-\d\d-\d\dT\d\d:\d\d:\d\d(\.\d{1,6})?(Z|[-+]\d\d:\d\d)$"</t>
-  </si>
-  <si>
-    <t>ResponseValue</t>
-  </si>
-  <si>
-    <t>ack</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>MethodValue</t>
-  </si>
-  <si>
-    <t>Method must agree with Action (test descriptions)</t>
-  </si>
-  <si>
-    <t>DenyMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be "deny"</t>
-  </si>
-  <si>
-    <t>PauseMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be 'pause'</t>
-  </si>
-  <si>
-    <t>ScanMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be 'scan"</t>
-  </si>
-  <si>
-    <t>StartMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be start</t>
-  </si>
-  <si>
-    <t>StopMethod (vocab)</t>
-  </si>
-  <si>
-    <t>Action must be "stop"</t>
-  </si>
-  <si>
-    <t>DenyMethod</t>
-  </si>
-  <si>
-    <t>acl</t>
-  </si>
-  <si>
-    <t>blackhole</t>
-  </si>
-  <si>
-    <t>sinkhole</t>
-  </si>
-  <si>
-    <t>blacklist</t>
-  </si>
-  <si>
-    <t>whitelist</t>
-  </si>
-  <si>
-    <t>PauseMethod</t>
-  </si>
-  <si>
-    <t>hibernate</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>suspend</t>
-  </si>
-  <si>
-    <t>ScanMethod</t>
-  </si>
-  <si>
-    <t>authenticated</t>
-  </si>
-  <si>
-    <t>non-authenticated</t>
-  </si>
-  <si>
-    <t>StartMethod</t>
-  </si>
-  <si>
-    <t>spawn</t>
-  </si>
-  <si>
-    <t>StopMethod</t>
-  </si>
-  <si>
-    <t>graceful</t>
-  </si>
-  <si>
-    <t>immediate</t>
-  </si>
-  <si>
-    <t>WhereValue</t>
-  </si>
-  <si>
-    <t>internal</t>
-  </si>
-  <si>
-    <t>perimeter</t>
-  </si>
-  <si>
-    <t>SearchValue</t>
-  </si>
-  <si>
-    <t>cve</t>
-  </si>
-  <si>
-    <t>patch</t>
-  </si>
-  <si>
-    <t>vendor-bulletin</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>DeviceID</t>
-  </si>
-  <si>
-    <t>CommandID</t>
-  </si>
-  <si>
-    <t>Command unique identifier</t>
-  </si>
-  <si>
-    <t>StatusCode</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>1xx: Informational</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>2xx: Success</t>
-  </si>
-  <si>
-    <t>Bad_Request</t>
-  </si>
-  <si>
-    <t>3xx: Redirection</t>
-  </si>
-  <si>
-    <t>Unauthorized</t>
-  </si>
-  <si>
-    <t>4xx: Client Error</t>
-  </si>
-  <si>
-    <t>Forbidden</t>
-  </si>
-  <si>
-    <t>Internal_Server_Error</t>
-  </si>
-  <si>
-    <t>5xx: Server Error</t>
-  </si>
-  <si>
-    <t>Not_Implemented</t>
-  </si>
-  <si>
-    <t>Base64</t>
-  </si>
-  <si>
-    <t>A sequence of octets encoded as a Base64 string</t>
-  </si>
-  <si>
-    <t>Hex</t>
-  </si>
-  <si>
-    <t>A sequence of octets encoded as a hexadecimal string</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>RFC 3339 format date and time</t>
-  </si>
-  <si>
-    <t>hashes-type</t>
-  </si>
-  <si>
-    <t>MD5 (required)</t>
-  </si>
-  <si>
-    <t>Hex (String)</t>
-  </si>
-  <si>
-    <t>MD5 message digest as defined in RFC3121</t>
-  </si>
-  <si>
-    <t>MD6 (required)</t>
-  </si>
-  <si>
-    <t>MD6 message digest as defined in MD6 proposal</t>
-  </si>
-  <si>
-    <t>RIPEMD-160 (required)</t>
-  </si>
-  <si>
-    <t>RACE Integrity Primitives Evaluation Message as defined in RIPEMD-160 specification</t>
-  </si>
-  <si>
-    <t>SHA-1 (required)</t>
-  </si>
-  <si>
-    <t>Secure Hash Algorithm (SHA)-1 as defined in RFC3174</t>
-  </si>
-  <si>
-    <t>SHA-224 (required)</t>
-  </si>
-  <si>
-    <t>SHA-224 as defined in RFC6234 (US Secure Hash Algorithms)</t>
-  </si>
-  <si>
-    <t>SHA-256 (required)</t>
-  </si>
-  <si>
-    <t>SHA-256 as defined in RFC6234</t>
-  </si>
-  <si>
-    <t>SHA-384 (required)</t>
-  </si>
-  <si>
-    <t>SHA-384 as defined in RFC6234</t>
-  </si>
-  <si>
-    <t>SHA-512 (required)</t>
-  </si>
-  <si>
-    <t>SHA-512 as defined in RFC6234</t>
-  </si>
-  <si>
-    <t>SHA3-224 (required)</t>
-  </si>
-  <si>
-    <t>SHA3-224 as defined in FIPS PUP 202</t>
-  </si>
-  <si>
-    <t>SHA3-256 (required)</t>
-  </si>
-  <si>
-    <t>SHA3-256 as defined in FIPS PUP 202</t>
-  </si>
-  <si>
-    <t>SHA3-384 (required)</t>
-  </si>
-  <si>
-    <t>SHA3-384 as defined in FIPS PUP 202</t>
-  </si>
-  <si>
-    <t>SHA3-512 (required)</t>
-  </si>
-  <si>
-    <t>SHA3-512 as defined in FIPS PUP 202</t>
-  </si>
-  <si>
-    <t>ssdeep (required)</t>
-  </si>
-  <si>
-    <t>ssdeep fuzzy hashing algorithm as defined in the SSDEEP specification</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL (required)</t>
-  </si>
-  <si>
-    <t>whirlpool cryptographic hash function as defined in ISO/IEC 10118-3:2004</t>
-  </si>
-  <si>
-    <t>payload</t>
-  </si>
-  <si>
-    <t>payload_bin</t>
-  </si>
-  <si>
-    <t>Base64 (String)</t>
-  </si>
-  <si>
-    <t>Specifies the binary data contained in the artifact as a base64-encoded string.</t>
-  </si>
-  <si>
-    <t>MUST be a valid URL that resolves to the un-encoded content</t>
-  </si>
-  <si>
-    <t>type (required)</t>
-  </si>
-  <si>
-    <t>MUST be "artifact"</t>
-  </si>
-  <si>
-    <t>mime_type (optional)</t>
-  </si>
-  <si>
-    <t>MUST be a valid MIME type as specified in the IANA Media Types registry</t>
-  </si>
-  <si>
-    <t>* (optional)</t>
-  </si>
-  <si>
-    <t>payload (Choice)</t>
-  </si>
-  <si>
-    <t>choice of literal content or URL to obtain content</t>
-  </si>
-  <si>
-    <t>hashes (optional)</t>
-  </si>
-  <si>
-    <t>hashes-type (Map)</t>
-  </si>
-  <si>
-    <t>Specifies a dictionary of hashes for the contents of the payload</t>
-  </si>
-  <si>
-    <t>Target used to query Actuator for its supported capabilities</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-  <si>
-    <t>results = JSON array of supported action verbs</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>results = JAEN syntax of supported commands</t>
-  </si>
-  <si>
-    <t>Description (optional)</t>
-  </si>
-  <si>
-    <t>Device_Type (optional)</t>
-  </si>
-  <si>
-    <t>Manufacturer (optional)</t>
-  </si>
-  <si>
-    <t>Model (optional)</t>
-  </si>
-  <si>
-    <t>Serial_Number (optional)</t>
-  </si>
-  <si>
-    <t>Firmware_Version (optional)</t>
-  </si>
-  <si>
-    <t>System_Details (optional)</t>
-  </si>
-  <si>
-    <t>path (required)</t>
-  </si>
-  <si>
-    <t>Path, as originally observed, to the directory on the filesystem</t>
-  </si>
-  <si>
-    <t>path_enc (optional)</t>
-  </si>
-  <si>
-    <t>Observed encoding for the path, from the IANA Character Set Registry</t>
-  </si>
-  <si>
-    <t>created (optional)</t>
-  </si>
-  <si>
-    <t>Timestamp (String)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was created</t>
-  </si>
-  <si>
-    <t>modified (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was last written-to/modified</t>
-  </si>
-  <si>
-    <t>accessed (optional)</t>
-  </si>
-  <si>
-    <t>Date/time the directory was last accessed</t>
-  </si>
-  <si>
-    <t>contains (optional)</t>
-  </si>
-  <si>
-    <t>dir-contents (Array)</t>
-  </si>
-  <si>
-    <t>List of files/directories contained within the directory</t>
-  </si>
-  <si>
-    <t>dir-contents</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>dirfile (Choice)</t>
-  </si>
-  <si>
-    <t>dirfile</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>value (required)</t>
-  </si>
-  <si>
-    <t>Value of the domain name</t>
-  </si>
-  <si>
-    <t>resolves_to (optional)</t>
-  </si>
-  <si>
-    <t>dnvalues (Array)</t>
-  </si>
-  <si>
-    <t>List of IP addresses or domain names</t>
-  </si>
-  <si>
-    <t>dnvalues</t>
-  </si>
-  <si>
-    <t>dnvalue (Choice)</t>
-  </si>
-  <si>
-    <t>dnvalue</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Email address (addr-spec in RFC 5322 Section 3.4)</t>
-  </si>
-  <si>
-    <t>display_name (optional)</t>
-  </si>
-  <si>
-    <t>Name that is displayed to the user of a mail application</t>
-  </si>
-  <si>
-    <t>belongs_to (optional)</t>
-  </si>
-  <si>
-    <t>User account that the email address belongs to</t>
-  </si>
-  <si>
-    <t>TODO: finish</t>
-  </si>
-  <si>
-    <t>Specifies one or more IPv4 addresses using CIDR notation</t>
-  </si>
-  <si>
-    <t>resolves_to_refs (optional)</t>
-  </si>
-  <si>
-    <t>mac-addrs (Array)</t>
-  </si>
-  <si>
-    <t>Specifies a list of references to one or more Layer 2 Media Access Control (MAC) addresses that the IPv4 address resolves to.</t>
-  </si>
-  <si>
-    <t>belongs_to_refs (optional)</t>
-  </si>
-  <si>
-    <t>asystems (Array)</t>
-  </si>
-  <si>
-    <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
-  </si>
-  <si>
-    <t>ipv4-str</t>
-  </si>
-  <si>
-    <t>mac-addrs</t>
-  </si>
-  <si>
-    <t>asystems</t>
-  </si>
-  <si>
-    <t>autonomous-system</t>
-  </si>
-  <si>
-    <t>Specifies a single MAC address.  MUST be represented as a single colon-delimited, lowercase MAC-48 address, which MUST include leading zeros for each octet.  Example: 00:00:ab:cd:ef:01</t>
-  </si>
-  <si>
-    <t>mutex</t>
-  </si>
-  <si>
-    <t>name (required)</t>
-  </si>
-  <si>
-    <t>Specifies the name of the mutex object.</t>
-  </si>
-  <si>
-    <t>5-tuple that specifies a tcp/ip connection</t>
-  </si>
-  <si>
-    <t>src-addr (optional)</t>
-  </si>
-  <si>
-    <t>socket-addr (Choice)</t>
-  </si>
-  <si>
-    <t>source address</t>
-  </si>
-  <si>
-    <t>src-port (optional)</t>
-  </si>
-  <si>
-    <t>port (Choice)</t>
-  </si>
-  <si>
-    <t>source TCP/UDP port number</t>
-  </si>
-  <si>
-    <t>dst-addr (optional)</t>
-  </si>
-  <si>
-    <t>destination address</t>
-  </si>
-  <si>
-    <t>dst-port (optional)</t>
-  </si>
-  <si>
-    <t>destination TCP/UDP port number</t>
-  </si>
-  <si>
-    <t>layer3-protocol (optional)</t>
-  </si>
-  <si>
-    <t>layer3-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>IEEE 802 Ether Type</t>
-  </si>
-  <si>
-    <t>layer4-protocol (optional)</t>
-  </si>
-  <si>
-    <t>layer4-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>Protocol (IPv4) / Next Header (IPv6)</t>
-  </si>
-  <si>
-    <t>layer3-protocol</t>
-  </si>
-  <si>
-    <t>IEEE 802 Ether Types - any IANA value, RFC 7042</t>
-  </si>
-  <si>
-    <t>IPv4</t>
-  </si>
-  <si>
-    <t>0x0800 Internet Protocol Version 4</t>
-  </si>
-  <si>
-    <t>ARP</t>
-  </si>
-  <si>
-    <t>0x0806 Address Resolution Protocol</t>
-  </si>
-  <si>
-    <t>IPv6</t>
-  </si>
-  <si>
-    <t>0x86DD Internet Protocol Version 6</t>
-  </si>
-  <si>
-    <t>MPLS</t>
-  </si>
-  <si>
-    <t>0x8847 Multi-Protocol Label Switching</t>
-  </si>
-  <si>
-    <t>socket-addrs</t>
-  </si>
-  <si>
-    <t>socket-addr</t>
-  </si>
-  <si>
-    <t>mac</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>TCP/UDP port number or protocol</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Port number (e.g., dynamically assigned)</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>layer7-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>Registered port nummber (registered with IANA)</t>
-  </si>
-  <si>
-    <t>layer4-protocol</t>
-  </si>
-  <si>
-    <t>protocol (IPv4) or next header (IPv6) field - any IANA value, RFC 5237</t>
-  </si>
-  <si>
-    <t>ICMP</t>
-  </si>
-  <si>
-    <t>Internet Control Message Protocol - RFC 792</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>Transmission Control Protocol - RFC 793</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>User Datagram Protocol - RFC 768</t>
-  </si>
-  <si>
-    <t>layer7-protocol</t>
-  </si>
-  <si>
-    <t>Service Name and Transport Protocol Port - any IANA value, RFC 6335</t>
-  </si>
-  <si>
-    <t>ftp-data</t>
-  </si>
-  <si>
-    <t>File Transfer Protocol (data)</t>
-  </si>
-  <si>
-    <t>ftp</t>
-  </si>
-  <si>
-    <t>File Transfer Protocol (control)</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>Secure Shell Protocol</t>
-  </si>
-  <si>
-    <t>telnet</t>
-  </si>
-  <si>
-    <t>Telnet</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>Simple Mail Transfer Protocol</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>Hypertext Transport Protocol</t>
-  </si>
-  <si>
-    <t>https</t>
-  </si>
-  <si>
-    <t>HTTP over TLS</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1882,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E426"/>
+  <dimension ref="A2:E427"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2288,7 +2330,7 @@
         <v>106</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>102</v>
@@ -2299,10 +2341,10 @@
         <v>7</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>96</v>
@@ -2313,10 +2355,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>96</v>
@@ -2327,10 +2369,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>96</v>
@@ -2341,10 +2383,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>96</v>
@@ -2355,10 +2397,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>96</v>
@@ -2369,10 +2411,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>96</v>
@@ -2383,10 +2425,10 @@
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>96</v>
@@ -2397,10 +2439,10 @@
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>102</v>
@@ -2411,13 +2453,13 @@
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2425,10 +2467,10 @@
         <v>16</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>96</v>
@@ -2439,10 +2481,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>96</v>
@@ -2453,10 +2495,10 @@
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>96</v>
@@ -2467,10 +2509,10 @@
         <v>19</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>96</v>
@@ -2481,10 +2523,10 @@
         <v>20</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>102</v>
@@ -2495,10 +2537,10 @@
         <v>21</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>102</v>
@@ -2509,10 +2551,10 @@
         <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>96</v>
@@ -2523,10 +2565,10 @@
         <v>23</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>96</v>
@@ -2537,7 +2579,7 @@
         <v>15</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2573,10 +2615,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E73" s="8"/>
     </row>
@@ -2585,10 +2627,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E74" s="8"/>
     </row>
@@ -2597,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="E75" s="8"/>
     </row>
@@ -2609,10 +2651,10 @@
         <v>4</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E76" s="8"/>
     </row>
@@ -2621,10 +2663,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E77" s="8"/>
     </row>
@@ -2633,10 +2675,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E78" s="8"/>
     </row>
@@ -2645,10 +2687,10 @@
         <v>7</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E79" s="8"/>
     </row>
@@ -2657,10 +2699,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E80" s="8"/>
     </row>
@@ -2669,10 +2711,10 @@
         <v>9</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E81" s="8"/>
     </row>
@@ -2681,10 +2723,10 @@
         <v>10</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E82" s="8"/>
     </row>
@@ -2693,10 +2735,10 @@
         <v>11</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E83" s="8"/>
     </row>
@@ -2705,10 +2747,10 @@
         <v>12</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E84" s="8"/>
     </row>
@@ -2717,10 +2759,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -2729,10 +2771,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E86" s="8"/>
     </row>
@@ -2741,10 +2783,10 @@
         <v>15</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E87" s="8"/>
     </row>
@@ -2753,10 +2795,10 @@
         <v>16</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E88" s="8"/>
     </row>
@@ -2765,10 +2807,10 @@
         <v>17</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E89" s="8"/>
     </row>
@@ -2777,10 +2819,10 @@
         <v>18</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -2789,10 +2831,10 @@
         <v>19</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E91" s="8"/>
     </row>
@@ -2801,10 +2843,10 @@
         <v>20</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E92" s="8"/>
     </row>
@@ -2813,10 +2855,10 @@
         <v>21</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E93" s="8"/>
     </row>
@@ -2825,10 +2867,10 @@
         <v>22</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E94" s="8"/>
     </row>
@@ -2837,10 +2879,10 @@
         <v>23</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E95" s="8"/>
     </row>
@@ -2849,10 +2891,10 @@
         <v>24</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E96" s="8"/>
     </row>
@@ -2861,10 +2903,10 @@
         <v>25</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E97" s="8"/>
     </row>
@@ -2873,10 +2915,10 @@
         <v>26</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E98" s="8"/>
     </row>
@@ -2885,10 +2927,10 @@
         <v>27</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E99" s="8"/>
     </row>
@@ -2897,10 +2939,10 @@
         <v>28</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E100" s="8"/>
     </row>
@@ -2909,10 +2951,10 @@
         <v>29</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E101" s="8"/>
     </row>
@@ -2921,10 +2963,10 @@
         <v>30</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E102" s="8"/>
     </row>
@@ -2933,10 +2975,10 @@
         <v>31</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E103" s="8"/>
     </row>
@@ -2945,10 +2987,10 @@
         <v>32</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E104" s="8"/>
     </row>
@@ -2957,10 +2999,10 @@
         <v>33</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E105" s="8"/>
     </row>
@@ -2969,10 +3011,10 @@
         <v>34</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E106" s="8"/>
     </row>
@@ -2981,10 +3023,10 @@
         <v>35</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E107" s="8"/>
     </row>
@@ -2993,10 +3035,10 @@
         <v>36</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E108" s="8"/>
     </row>
@@ -3005,10 +3047,10 @@
         <v>37</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E109" s="8"/>
     </row>
@@ -3017,10 +3059,10 @@
         <v>38</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E110" s="8"/>
     </row>
@@ -3029,10 +3071,10 @@
         <v>39</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E111" s="8"/>
     </row>
@@ -3041,10 +3083,10 @@
         <v>40</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E112" s="8"/>
     </row>
@@ -3053,10 +3095,10 @@
         <v>41</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E113" s="8"/>
     </row>
@@ -3065,10 +3107,10 @@
         <v>42</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E114" s="8"/>
     </row>
@@ -3077,10 +3119,10 @@
         <v>43</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E115" s="8"/>
     </row>
@@ -3089,10 +3131,10 @@
         <v>44</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E116" s="8"/>
     </row>
@@ -3101,10 +3143,10 @@
         <v>45</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E117" s="8"/>
     </row>
@@ -3113,7 +3155,7 @@
         <v>15</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3149,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>49</v>
@@ -3161,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>49</v>
@@ -3173,7 +3215,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3184,7 +3226,7 @@
         <v>16</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3209,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>49</v>
@@ -3221,10 +3263,10 @@
         <v>2</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E133" s="8"/>
     </row>
@@ -3233,10 +3275,10 @@
         <v>3</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E134" s="8"/>
     </row>
@@ -3245,10 +3287,10 @@
         <v>4</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E135" s="8"/>
     </row>
@@ -3257,10 +3299,10 @@
         <v>5</v>
       </c>
       <c r="C136" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="E136" s="8"/>
     </row>
@@ -3269,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>43</v>
@@ -3281,10 +3323,10 @@
         <v>7</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E138" s="8"/>
     </row>
@@ -3293,10 +3335,10 @@
         <v>8</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E139" s="8"/>
     </row>
@@ -3305,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>49</v>
@@ -3317,10 +3359,10 @@
         <v>10</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E141" s="8"/>
     </row>
@@ -3329,803 +3371,803 @@
         <v>11</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E142" s="8"/>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
+    <row r="143" spans="1:5">
+      <c r="B143" s="8">
+        <v>12</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E143" s="8"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
+    <row r="148" spans="1:5">
+      <c r="A148" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+    <row r="153" spans="1:5">
+      <c r="A153" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="159" spans="1:5">
-      <c r="B159" s="7" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E160" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="B160" s="8">
-        <v>1</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="B161" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="B162" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="B163" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="B164" s="8">
+        <v>4</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" s="8">
         <v>5</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C165" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D164" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+      <c r="D165" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
+    <row r="170" spans="1:5">
+      <c r="A170" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
+    <row r="175" spans="1:5">
+      <c r="A175" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
+    <row r="180" spans="1:5">
+      <c r="A180" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
+    <row r="185" spans="1:5">
+      <c r="A185" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
+    <row r="190" spans="1:5">
+      <c r="A190" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="B195" s="7" t="s">
+      <c r="B194" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="B196" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C196" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D196" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E196" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="B196" s="8">
-        <v>1</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="B197" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="B198" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D198" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D198" s="8" t="s">
-        <v>277</v>
-      </c>
       <c r="E198" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="B199" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="B200" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="B201" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="B202" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="B203" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="B204" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="B205" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="B206" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="B207" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="B208" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="B209" s="8">
+        <v>13</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="B210" s="8">
         <v>14</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
+      <c r="C210" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B214" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="B215" s="7" t="s">
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="B216" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C216" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D215" s="7" t="s">
+      <c r="D216" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E215" s="7" t="s">
+      <c r="E216" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="B216" s="8">
-        <v>1</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="B217" s="8">
+        <v>1</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="B218" s="8">
         <v>2</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D217" s="8" t="s">
+      <c r="C218" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D218" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E217" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
+      <c r="E218" s="8" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B222" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="B223" s="7" t="s">
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="B224" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C224" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D224" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E223" s="7" t="s">
+      <c r="E224" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="B224" s="8">
-        <v>1</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="B225" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="B226" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>315</v>
+        <v>49</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="B227" s="8">
+        <v>3</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="B228" s="8">
         <v>4</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
+      <c r="C228" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="B233" s="7" t="s">
+      <c r="B232" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="B234" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C234" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D234" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E233" s="7" t="s">
+      <c r="E234" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="B234" s="8">
-        <v>1</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E234" s="8"/>
     </row>
     <row r="235" spans="1:5">
       <c r="B235" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>49</v>
@@ -4134,10 +4176,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="B236" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>49</v>
@@ -4146,10 +4188,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="B237" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>49</v>
@@ -4158,10 +4200,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="B238" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D238" s="8" t="s">
         <v>49</v>
@@ -4170,10 +4212,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="B239" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>49</v>
@@ -4182,1434 +4224,1446 @@
     </row>
     <row r="240" spans="1:5">
       <c r="B240" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E240" s="8"/>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
+    <row r="241" spans="1:5">
+      <c r="B241" s="8">
+        <v>7</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E241" s="8"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="B246" s="7" t="s">
+      <c r="B245" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="B247" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C247" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D246" s="7" t="s">
+      <c r="D247" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E246" s="7" t="s">
+      <c r="E247" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="B247" s="8">
-        <v>1</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E247" s="8" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="B248" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D248" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="B249" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="B250" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="B251" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D251" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D251" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="E251" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="B252" s="8">
+        <v>5</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="B253" s="8">
         <v>6</v>
       </c>
-      <c r="C252" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E252" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
+      <c r="C253" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="B257" s="8">
+      <c r="B257" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="B258" s="8">
         <v>0</v>
       </c>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E257" s="8"/>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E258" s="8"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B262" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="B263" s="7" t="s">
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="B264" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C264" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D263" s="7" t="s">
+      <c r="D264" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E263" s="7" t="s">
+      <c r="E264" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="B264" s="8">
-        <v>1</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E264" s="8"/>
     </row>
     <row r="265" spans="1:5">
       <c r="B265" s="8">
+        <v>1</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E265" s="8"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="B266" s="8">
         <v>2</v>
       </c>
-      <c r="C265" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E265" s="8"/>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C268" s="5"/>
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
+      <c r="C266" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E266" s="8"/>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B270" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="B271" s="7" t="s">
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="B272" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C272" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="D272" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E271" s="7" t="s">
+      <c r="E272" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="B272" s="8">
-        <v>1</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D272" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E272" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="B273" s="8">
+        <v>1</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="B274" s="8">
         <v>2</v>
       </c>
-      <c r="C273" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
+      <c r="C274" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="B279" s="8">
+      <c r="A279" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="B280" s="8">
         <v>0</v>
       </c>
-      <c r="C279" s="8"/>
-      <c r="D279" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E279" s="8"/>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C282" s="5"/>
-      <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E280" s="8"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B284" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="B285" s="7" t="s">
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="B286" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C286" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D285" s="7" t="s">
+      <c r="D286" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E285" s="7" t="s">
+      <c r="E286" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="B286" s="8">
-        <v>1</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E286" s="8"/>
     </row>
     <row r="287" spans="1:5">
       <c r="B287" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:5">
       <c r="B288" s="8">
+        <v>2</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E288" s="8"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="B289" s="8">
         <v>3</v>
       </c>
-      <c r="C288" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D288" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E288" s="8"/>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B291" s="5" t="s">
+      <c r="C289" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D289" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C291" s="5"/>
-      <c r="D291" s="5"/>
-      <c r="E291" s="5"/>
+      <c r="E289" s="8"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B293" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="B294" s="7" t="s">
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="B295" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C295" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D294" s="7" t="s">
+      <c r="D295" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E294" s="7" t="s">
+      <c r="E295" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="B295" s="8">
-        <v>1</v>
-      </c>
-      <c r="C295" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D295" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E295" s="8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="B296" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D296" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="B297" s="8">
+        <v>2</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="B298" s="8">
         <v>3</v>
       </c>
-      <c r="C297" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D297" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E297" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
+      <c r="C298" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
     </row>
-    <row r="304" spans="1:5">
-      <c r="B304" s="7" t="s">
+    <row r="303" spans="1:5">
+      <c r="A303" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C303" s="6"/>
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="B305" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C305" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D304" s="7" t="s">
+      <c r="D305" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E304" s="7" t="s">
+      <c r="E305" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
-      <c r="E307" s="5"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
-      <c r="E308" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
     </row>
-    <row r="311" spans="1:5">
-      <c r="B311" s="7" t="s">
+    <row r="310" spans="1:5">
+      <c r="A310" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C310" s="6"/>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="B312" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C312" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D311" s="7" t="s">
+      <c r="D312" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E311" s="7" t="s">
+      <c r="E312" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C314" s="5"/>
-      <c r="D314" s="5"/>
-      <c r="E314" s="5"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B316" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="B317" s="7" t="s">
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="B318" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C318" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D317" s="7" t="s">
+      <c r="D318" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E317" s="7" t="s">
+      <c r="E318" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="B318" s="8">
-        <v>1</v>
-      </c>
-      <c r="C318" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D318" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E318" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="B319" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>371</v>
+        <v>49</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="B320" s="8">
+        <v>2</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="B321" s="8">
         <v>3</v>
       </c>
-      <c r="C320" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D320" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E320" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C323" s="5"/>
-      <c r="D323" s="5"/>
-      <c r="E323" s="5"/>
+      <c r="C321" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D321" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B325" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C324" s="6"/>
-      <c r="D324" s="6"/>
-      <c r="E324" s="6"/>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="B326" s="7" t="s">
+      <c r="C325" s="6"/>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="B327" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C327" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D326" s="7" t="s">
+      <c r="D327" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E326" s="7" t="s">
+      <c r="E327" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="B327" s="8">
-        <v>1</v>
-      </c>
-      <c r="C327" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D327" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E327" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="B328" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="B329" s="8">
+        <v>2</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="B330" s="8">
         <v>3</v>
       </c>
-      <c r="C329" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D329" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E329" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C332" s="5"/>
-      <c r="D332" s="5"/>
-      <c r="E332" s="5"/>
+      <c r="C330" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B333" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C333" s="6"/>
-      <c r="D333" s="6"/>
-      <c r="E333" s="6"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="B334" s="8">
+      <c r="B334" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="B335" s="8">
         <v>0</v>
       </c>
-      <c r="C334" s="8"/>
-      <c r="D334" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E334" s="8"/>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C337" s="5"/>
-      <c r="D337" s="5"/>
-      <c r="E337" s="5"/>
+      <c r="C335" s="8"/>
+      <c r="D335" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E335" s="8"/>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B338" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-      <c r="E338" s="6"/>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="B339" s="8">
+      <c r="B339" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C339" s="6"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="B340" s="8">
         <v>0</v>
       </c>
-      <c r="C339" s="8"/>
-      <c r="D339" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E339" s="8"/>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C342" s="5"/>
-      <c r="D342" s="5"/>
-      <c r="E342" s="5"/>
+      <c r="C340" s="8"/>
+      <c r="D340" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E340" s="8"/>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B343" s="6" t="s">
+      <c r="B344" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="B345" s="7" t="s">
+      <c r="C344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="B346" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="C346" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D345" s="7" t="s">
+      <c r="D346" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E345" s="7" t="s">
+      <c r="E346" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
-      <c r="B346" s="8">
+    <row r="347" spans="1:5">
+      <c r="B347" s="8">
         <v>1</v>
       </c>
-      <c r="C346" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D346" s="8" t="s">
+      <c r="C347" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D347" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E346" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C349" s="5"/>
-      <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
+      <c r="E347" s="8" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B350" s="6" t="s">
+      <c r="B351" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
-      <c r="E350" s="6"/>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="B352" s="7" t="s">
+      <c r="C351" s="6"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="B353" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C353" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="D353" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E352" s="7" t="s">
+      <c r="E353" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
-      <c r="B353" s="8">
+    <row r="354" spans="1:5">
+      <c r="B354" s="8">
         <v>1</v>
       </c>
-      <c r="C353" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D353" s="8" t="s">
+      <c r="C354" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D354" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E353" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C356" s="5"/>
-      <c r="D356" s="5"/>
-      <c r="E356" s="5"/>
+      <c r="E354" s="8" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C357" s="6"/>
-      <c r="D357" s="6"/>
-      <c r="E357" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>384</v>
+        <v>29</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
     </row>
-    <row r="360" spans="1:5">
-      <c r="B360" s="7" t="s">
+    <row r="359" spans="1:5">
+      <c r="A359" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C359" s="6"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="B361" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="C361" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D360" s="7" t="s">
+      <c r="D361" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E360" s="7" t="s">
+      <c r="E361" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="B361" s="8">
-        <v>1</v>
-      </c>
-      <c r="C361" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D361" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E361" s="8" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="B362" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="B363" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E363" s="8" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="B364" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="B365" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E365" s="8" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="B366" s="8">
+        <v>5</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="B367" s="8">
         <v>6</v>
       </c>
-      <c r="C366" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="D366" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E366" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="A369" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B369" s="5" t="s">
+      <c r="C367" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E367" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B370" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C370" s="6"/>
-      <c r="D370" s="6"/>
-      <c r="E370" s="6"/>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="B371" s="8">
+      <c r="B371" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C371" s="6"/>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="B372" s="8">
         <v>0</v>
       </c>
-      <c r="C371" s="8"/>
-      <c r="D371" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E371" s="8"/>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B374" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C374" s="5"/>
-      <c r="D374" s="5"/>
-      <c r="E374" s="5"/>
+      <c r="C372" s="8"/>
+      <c r="D372" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E372" s="8"/>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B375" s="6" t="s">
+      <c r="B376" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C375" s="6"/>
-      <c r="D375" s="6"/>
-      <c r="E375" s="6"/>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="B377" s="7" t="s">
+      <c r="C376" s="6"/>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="B378" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C378" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D377" s="7" t="s">
+      <c r="D378" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E377" s="7" t="s">
+      <c r="E378" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="B378" s="8">
-        <v>1</v>
-      </c>
-      <c r="C378" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D378" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E378" s="8"/>
     </row>
     <row r="379" spans="1:5">
       <c r="B379" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E379" s="8"/>
     </row>
     <row r="380" spans="1:5">
       <c r="B380" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E380" s="8"/>
     </row>
     <row r="381" spans="1:5">
       <c r="B381" s="8">
+        <v>3</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E381" s="8"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="B382" s="8">
         <v>4</v>
       </c>
-      <c r="C381" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="D381" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E381" s="8"/>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C384" s="5"/>
-      <c r="D384" s="5"/>
-      <c r="E384" s="5"/>
+      <c r="C382" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E382" s="8"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C385" s="6"/>
-      <c r="D385" s="6"/>
-      <c r="E385" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="4" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>416</v>
+        <v>17</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
     </row>
-    <row r="388" spans="1:5">
-      <c r="B388" s="7" t="s">
+    <row r="387" spans="1:5">
+      <c r="A387" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C387" s="6"/>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="B389" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C389" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D388" s="7" t="s">
+      <c r="D389" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E388" s="7" t="s">
+      <c r="E389" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="B389" s="8">
-        <v>1</v>
-      </c>
-      <c r="C389" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E389" s="8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="B390" s="8">
+        <v>1</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="B391" s="8">
         <v>2</v>
       </c>
-      <c r="C390" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="E390" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="A393" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B393" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C393" s="5"/>
-      <c r="D393" s="5"/>
-      <c r="E393" s="5"/>
+      <c r="C391" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B394" s="6" t="s">
+      <c r="B395" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C394" s="6"/>
-      <c r="D394" s="6"/>
-      <c r="E394" s="6"/>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="B396" s="7" t="s">
+      <c r="C395" s="6"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="B397" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C397" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D396" s="7" t="s">
+      <c r="D397" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E396" s="7" t="s">
+      <c r="E397" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="A399" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C399" s="5"/>
-      <c r="D399" s="5"/>
-      <c r="E399" s="5"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B400" s="6" t="s">
+      <c r="B401" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C400" s="6"/>
-      <c r="D400" s="6"/>
-      <c r="E400" s="6"/>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="B402" s="7" t="s">
+      <c r="C401" s="6"/>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="B403" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C403" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D402" s="7" t="s">
+      <c r="D403" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E402" s="7" t="s">
+      <c r="E403" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="A405" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C405" s="5"/>
-      <c r="D405" s="5"/>
-      <c r="E405" s="5"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B406" s="6" t="s">
+      <c r="B407" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C406" s="6"/>
-      <c r="D406" s="6"/>
-      <c r="E406" s="6"/>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="B408" s="7" t="s">
+      <c r="C407" s="6"/>
+      <c r="D407" s="6"/>
+      <c r="E407" s="6"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="B409" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C408" s="7" t="s">
+      <c r="C409" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D408" s="7" t="s">
+      <c r="D409" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E408" s="7" t="s">
+      <c r="E409" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="A411" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B411" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B412" s="6" t="s">
+      <c r="B413" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C412" s="6"/>
-      <c r="D412" s="6"/>
-      <c r="E412" s="6"/>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="B414" s="7" t="s">
+      <c r="C413" s="6"/>
+      <c r="D413" s="6"/>
+      <c r="E413" s="6"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="B415" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C414" s="7" t="s">
+      <c r="C415" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D414" s="7" t="s">
+      <c r="D415" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E414" s="7" t="s">
+      <c r="E415" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="A417" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C417" s="5"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B418" s="6" t="s">
+      <c r="B419" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C418" s="6"/>
-      <c r="D418" s="6"/>
-      <c r="E418" s="6"/>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="B420" s="7" t="s">
+      <c r="C419" s="6"/>
+      <c r="D419" s="6"/>
+      <c r="E419" s="6"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="B421" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="7" t="s">
+      <c r="C421" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D420" s="7" t="s">
+      <c r="D421" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E420" s="7" t="s">
+      <c r="E421" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="A423" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C423" s="5"/>
-      <c r="D423" s="5"/>
-      <c r="E423" s="5"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B424" s="6" t="s">
+      <c r="B425" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C424" s="6"/>
-      <c r="D424" s="6"/>
-      <c r="E424" s="6"/>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="B426" s="7" t="s">
+      <c r="C425" s="6"/>
+      <c r="D425" s="6"/>
+      <c r="E425" s="6"/>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="B427" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C427" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D426" s="7" t="s">
+      <c r="D427" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E426" s="7" t="s">
+      <c r="E427" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5632,93 +5686,93 @@
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B145:E145"/>
     <mergeCell ref="B146:E146"/>
     <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="B148:E148"/>
     <mergeCell ref="B151:E151"/>
     <mergeCell ref="B152:E152"/>
-    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B153:E153"/>
     <mergeCell ref="B156:E156"/>
     <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B158:E158"/>
     <mergeCell ref="B168:E168"/>
     <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B170:E170"/>
     <mergeCell ref="B173:E173"/>
     <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B175:E175"/>
     <mergeCell ref="B178:E178"/>
     <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B180:E180"/>
     <mergeCell ref="B183:E183"/>
     <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="B185:E185"/>
     <mergeCell ref="B188:E188"/>
     <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B190:E190"/>
     <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B194:E194"/>
     <mergeCell ref="B213:E213"/>
-    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B214:E214"/>
     <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B222:E222"/>
     <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B232:E232"/>
     <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="B245:E245"/>
     <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B257:E257"/>
     <mergeCell ref="B261:E261"/>
-    <mergeCell ref="B268:E268"/>
+    <mergeCell ref="B262:E262"/>
     <mergeCell ref="B269:E269"/>
-    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B270:E270"/>
     <mergeCell ref="B277:E277"/>
     <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B282:E282"/>
+    <mergeCell ref="B279:E279"/>
     <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B284:E284"/>
     <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B300:E300"/>
+    <mergeCell ref="B293:E293"/>
     <mergeCell ref="B301:E301"/>
     <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B303:E303"/>
     <mergeCell ref="B308:E308"/>
     <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B314:E314"/>
+    <mergeCell ref="B310:E310"/>
     <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B323:E323"/>
+    <mergeCell ref="B316:E316"/>
     <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B332:E332"/>
+    <mergeCell ref="B325:E325"/>
     <mergeCell ref="B333:E333"/>
-    <mergeCell ref="B337:E337"/>
+    <mergeCell ref="B334:E334"/>
     <mergeCell ref="B338:E338"/>
-    <mergeCell ref="B342:E342"/>
+    <mergeCell ref="B339:E339"/>
     <mergeCell ref="B343:E343"/>
-    <mergeCell ref="B349:E349"/>
+    <mergeCell ref="B344:E344"/>
     <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B356:E356"/>
+    <mergeCell ref="B351:E351"/>
     <mergeCell ref="B357:E357"/>
     <mergeCell ref="B358:E358"/>
-    <mergeCell ref="B369:E369"/>
+    <mergeCell ref="B359:E359"/>
     <mergeCell ref="B370:E370"/>
-    <mergeCell ref="B374:E374"/>
+    <mergeCell ref="B371:E371"/>
     <mergeCell ref="B375:E375"/>
-    <mergeCell ref="B384:E384"/>
+    <mergeCell ref="B376:E376"/>
     <mergeCell ref="B385:E385"/>
     <mergeCell ref="B386:E386"/>
-    <mergeCell ref="B393:E393"/>
+    <mergeCell ref="B387:E387"/>
     <mergeCell ref="B394:E394"/>
-    <mergeCell ref="B399:E399"/>
+    <mergeCell ref="B395:E395"/>
     <mergeCell ref="B400:E400"/>
-    <mergeCell ref="B405:E405"/>
+    <mergeCell ref="B401:E401"/>
     <mergeCell ref="B406:E406"/>
-    <mergeCell ref="B411:E411"/>
+    <mergeCell ref="B407:E407"/>
     <mergeCell ref="B412:E412"/>
-    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="B413:E413"/>
     <mergeCell ref="B418:E418"/>
-    <mergeCell ref="B423:E423"/>
+    <mergeCell ref="B419:E419"/>
     <mergeCell ref="B424:E424"/>
+    <mergeCell ref="B425:E425"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6061,7 +6115,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -6082,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -6091,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -6100,7 +6154,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -6121,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -6130,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -6139,7 +6193,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -6148,7 +6202,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -6157,7 +6211,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -6166,7 +6220,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -6187,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -6196,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -6205,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -6214,7 +6268,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -6235,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -6244,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -6253,7 +6307,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -6274,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D70" s="8"/>
     </row>
@@ -6283,7 +6337,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -6304,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D75" s="8"/>
     </row>
@@ -6313,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D76" s="8"/>
     </row>
@@ -6322,7 +6376,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -6343,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D81" s="8"/>
     </row>
@@ -6352,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
     </row>
@@ -6361,7 +6415,7 @@
         <v>55</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -6382,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
     </row>
@@ -6391,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
     </row>
@@ -6400,7 +6454,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
     </row>
@@ -6409,7 +6463,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
     </row>
@@ -6418,7 +6472,7 @@
         <v>55</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -6449,10 +6503,10 @@
         <v>102</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6460,10 +6514,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6471,10 +6525,10 @@
         <v>400</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6482,10 +6536,10 @@
         <v>401</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6493,7 +6547,7 @@
         <v>403</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
     </row>
@@ -6502,10 +6556,10 @@
         <v>500</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6513,7 +6567,7 @@
         <v>501</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
     </row>
@@ -6532,7 +6586,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -6553,10 +6607,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6564,10 +6618,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6575,7 +6629,7 @@
         <v>55</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -6585,7 +6639,7 @@
         <v>92</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -6606,10 +6660,10 @@
         <v>2048</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6617,10 +6671,10 @@
         <v>2054</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6628,10 +6682,10 @@
         <v>34525</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6639,10 +6693,10 @@
         <v>34887</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6650,7 +6704,7 @@
         <v>55</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -6660,7 +6714,7 @@
         <v>92</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -6681,10 +6735,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6692,10 +6746,10 @@
         <v>6</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6703,10 +6757,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6714,7 +6768,7 @@
         <v>55</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -6724,7 +6778,7 @@
         <v>92</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -6745,10 +6799,10 @@
         <v>20</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6756,10 +6810,10 @@
         <v>21</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6767,10 +6821,10 @@
         <v>22</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6778,10 +6832,10 @@
         <v>23</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6789,10 +6843,10 @@
         <v>25</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6800,10 +6854,10 @@
         <v>80</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6811,10 +6865,10 @@
         <v>443</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/data_gen/openc2_genj.xlsx
+++ b/data_gen/openc2_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="461">
   <si>
-    <t>Generated from data\openc2.jaen, Mon Mar  6 16:24:35 2017</t>
+    <t>Generated from data\openc2.jaen, Mon Mar  6 16:44:24 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -1005,25 +1005,25 @@
     <t>results = JAEN syntax of supported commands</t>
   </si>
   <si>
-    <t>Description (optional)</t>
-  </si>
-  <si>
-    <t>Device_Type (optional)</t>
-  </si>
-  <si>
-    <t>Manufacturer (optional)</t>
-  </si>
-  <si>
-    <t>Model (optional)</t>
-  </si>
-  <si>
-    <t>Serial_Number (optional)</t>
-  </si>
-  <si>
-    <t>Firmware_Version (optional)</t>
-  </si>
-  <si>
-    <t>System_Details (optional)</t>
+    <t>description (optional)</t>
+  </si>
+  <si>
+    <t>device_type (optional)</t>
+  </si>
+  <si>
+    <t>manufacturer (optional)</t>
+  </si>
+  <si>
+    <t>model (optional)</t>
+  </si>
+  <si>
+    <t>serial_number (optional)</t>
+  </si>
+  <si>
+    <t>firmware_version (optional)</t>
+  </si>
+  <si>
+    <t>system_details (optional)</t>
   </si>
   <si>
     <t>path (required)</t>

--- a/data_gen/openc2_genj.xlsx
+++ b/data_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="461">
-  <si>
-    <t>Generated from data\openc2.jaen, Mon Mar  6 16:44:24 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="463">
+  <si>
+    <t>Generated from data\openc2.jaen, Fri Mar 10 08:22:13 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -1288,6 +1288,12 @@
   </si>
   <si>
     <t>socket-addr</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>ipv6</t>
   </si>
   <si>
     <t>mac</t>
@@ -5333,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>117</v>
@@ -5345,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="D380" s="8" t="s">
         <v>119</v>
@@ -5357,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D381" s="8" t="s">
         <v>121</v>
@@ -5369,7 +5375,7 @@
         <v>4</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D382" s="8" t="s">
         <v>109</v>
@@ -5381,7 +5387,7 @@
         <v>15</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
@@ -5403,7 +5409,7 @@
         <v>92</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -5428,13 +5434,13 @@
         <v>1</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E390" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -5442,13 +5448,13 @@
         <v>2</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E391" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -5564,7 +5570,7 @@
         <v>15</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
@@ -5600,7 +5606,7 @@
         <v>15</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
@@ -5636,7 +5642,7 @@
         <v>15</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
@@ -6704,7 +6710,7 @@
         <v>55</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -6714,7 +6720,7 @@
         <v>92</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -6735,10 +6741,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6746,10 +6752,10 @@
         <v>6</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6757,10 +6763,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6768,7 +6774,7 @@
         <v>55</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -6778,7 +6784,7 @@
         <v>92</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -6799,10 +6805,10 @@
         <v>20</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6810,10 +6816,10 @@
         <v>21</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6821,10 +6827,10 @@
         <v>22</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6832,10 +6838,10 @@
         <v>23</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6843,10 +6849,10 @@
         <v>25</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6854,10 +6860,10 @@
         <v>80</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6865,10 +6871,10 @@
         <v>443</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/data_gen/openc2_genj.xlsx
+++ b/data_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="463">
-  <si>
-    <t>Generated from data\openc2.jaen, Fri Mar 10 08:22:13 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="462">
+  <si>
+    <t>Generated from data\openc2.jaen, Fri Mar 10 13:43:58 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -1098,25 +1098,25 @@
     <t>resolves_to (optional)</t>
   </si>
   <si>
-    <t>dnvalues (Array)</t>
+    <t>ip-addrs (Array)</t>
   </si>
   <si>
     <t>List of IP addresses or domain names</t>
   </si>
   <si>
-    <t>dnvalues</t>
-  </si>
-  <si>
-    <t>dnvalue (Choice)</t>
-  </si>
-  <si>
-    <t>dnvalue</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>v6</t>
+    <t>ip-addrs</t>
+  </si>
+  <si>
+    <t>ip-addr (Choice)</t>
+  </si>
+  <si>
+    <t>ip-addr</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>ipv6</t>
   </si>
   <si>
     <t>name</t>
@@ -1146,10 +1146,19 @@
     <t>TODO: finish</t>
   </si>
   <si>
+    <t>ipv4-str</t>
+  </si>
+  <si>
+    <t>IPv4 address or range in CIDR notation</t>
+  </si>
+  <si>
     <t>ipv4-addr</t>
   </si>
   <si>
-    <t>Specifies one or more IPv4 addresses using CIDR notation</t>
+    <t>ipv4-str (String)</t>
+  </si>
+  <si>
+    <t>Specifies one or more IPv4 addresses</t>
   </si>
   <si>
     <t>resolves_to_refs (optional)</t>
@@ -1170,10 +1179,19 @@
     <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
   </si>
   <si>
+    <t>ipv6-str</t>
+  </si>
+  <si>
+    <t>IPv6 address or range</t>
+  </si>
+  <si>
     <t>ipv6-addr</t>
   </si>
   <si>
-    <t>ipv4-str</t>
+    <t>ipv6-str (String)</t>
+  </si>
+  <si>
+    <t>Specifies one or more IPv6 addresses</t>
   </si>
   <si>
     <t>mac-addrs</t>
@@ -1209,9 +1227,6 @@
     <t>src_addr (optional)</t>
   </si>
   <si>
-    <t>socket-addr (Choice)</t>
-  </si>
-  <si>
     <t>source address</t>
   </si>
   <si>
@@ -1282,24 +1297,6 @@
   </si>
   <si>
     <t>0x8847 Multi-Protocol Label Switching</t>
-  </si>
-  <si>
-    <t>socket-addrs</t>
-  </si>
-  <si>
-    <t>socket-addr</t>
-  </si>
-  <si>
-    <t>ipv4</t>
-  </si>
-  <si>
-    <t>ipv6</t>
-  </si>
-  <si>
-    <t>mac</t>
-  </si>
-  <si>
-    <t>dns</t>
   </si>
   <si>
     <t>port</t>
@@ -1888,7 +1885,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E427"/>
+  <dimension ref="A2:E422"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4831,216 +4828,218 @@
         <v>16</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
     </row>
-    <row r="318" spans="1:5">
-      <c r="B318" s="7" t="s">
+    <row r="317" spans="1:5">
+      <c r="A317" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="B323" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C323" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D318" s="7" t="s">
+      <c r="D323" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E318" s="7" t="s">
+      <c r="E323" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
-      <c r="B319" s="8">
+    <row r="324" spans="1:5">
+      <c r="B324" s="8">
         <v>1</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C324" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D319" s="8" t="s">
+      <c r="D324" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="B325" s="8">
+        <v>2</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="B326" s="8">
+        <v>3</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B330" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E319" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="B320" s="8">
-        <v>2</v>
-      </c>
-      <c r="C320" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D320" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E320" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="B321" s="8">
-        <v>3</v>
-      </c>
-      <c r="C321" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D321" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E321" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C324" s="5"/>
-      <c r="D324" s="5"/>
-      <c r="E324" s="5"/>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
-      <c r="E325" s="6"/>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="B327" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D327" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E327" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="B328" s="8">
-        <v>1</v>
-      </c>
-      <c r="C328" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E328" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="B329" s="8">
-        <v>2</v>
-      </c>
-      <c r="C329" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D329" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E329" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="B330" s="8">
-        <v>3</v>
-      </c>
-      <c r="C330" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D330" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E330" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C333" s="5"/>
-      <c r="D333" s="5"/>
-      <c r="E333" s="5"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C331" s="6"/>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B334" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="B335" s="8">
-        <v>0</v>
-      </c>
-      <c r="C335" s="8"/>
-      <c r="D335" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E335" s="8"/>
+      <c r="B335" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="B337" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E337" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C338" s="5"/>
-      <c r="D338" s="5"/>
-      <c r="E338" s="5"/>
+      <c r="B338" s="8">
+        <v>1</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
+      <c r="B339" s="8">
+        <v>2</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D339" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="340" spans="1:5">
       <c r="B340" s="8">
-        <v>0</v>
-      </c>
-      <c r="C340" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>384</v>
+      </c>
       <c r="D340" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E340" s="8"/>
+        <v>385</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
@@ -5051,630 +5050,578 @@
         <v>16</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
     </row>
-    <row r="346" spans="1:5">
-      <c r="B346" s="7" t="s">
+    <row r="345" spans="1:5">
+      <c r="B345" s="8">
+        <v>0</v>
+      </c>
+      <c r="C345" s="8"/>
+      <c r="D345" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E345" s="8"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C349" s="6"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="B350" s="8">
+        <v>0</v>
+      </c>
+      <c r="C350" s="8"/>
+      <c r="D350" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E350" s="8"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="B356" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="C356" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D346" s="7" t="s">
+      <c r="D356" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E346" s="7" t="s">
+      <c r="E356" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
-      <c r="B347" s="8">
+    <row r="357" spans="1:5">
+      <c r="B357" s="8">
         <v>1</v>
       </c>
-      <c r="C347" s="8" t="s">
+      <c r="C357" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D347" s="8" t="s">
+      <c r="D357" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E347" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="4" t="s">
+      <c r="E357" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C350" s="5"/>
-      <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="4" t="s">
+      <c r="B360" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B351" s="6" t="s">
+      <c r="B361" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
-      <c r="E351" s="6"/>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="B353" s="7" t="s">
+      <c r="C361" s="6"/>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="B363" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="C363" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="D363" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E353" s="7" t="s">
+      <c r="E363" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="B354" s="8">
-        <v>1</v>
-      </c>
-      <c r="C354" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D354" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E354" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C357" s="5"/>
-      <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C358" s="6"/>
-      <c r="D358" s="6"/>
-      <c r="E358" s="6"/>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="A359" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C359" s="6"/>
-      <c r="D359" s="6"/>
-      <c r="E359" s="6"/>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="B361" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D361" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E361" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="B362" s="8">
-        <v>1</v>
-      </c>
-      <c r="C362" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D362" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E362" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="B363" s="8">
-        <v>2</v>
-      </c>
-      <c r="C363" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D363" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E363" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="B364" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>397</v>
+        <v>49</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="B365" s="8">
-        <v>4</v>
-      </c>
-      <c r="C365" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="D365" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E365" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="B366" s="8">
-        <v>5</v>
-      </c>
-      <c r="C366" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D366" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E366" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="B367" s="8">
-        <v>6</v>
-      </c>
-      <c r="C367" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D367" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E367" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="A370" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B370" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C368" s="6"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C369" s="6"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C371" s="6"/>
-      <c r="D371" s="6"/>
-      <c r="E371" s="6"/>
+      <c r="B371" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D371" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E371" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="372" spans="1:5">
       <c r="B372" s="8">
-        <v>0</v>
-      </c>
-      <c r="C372" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="D372" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E372" s="8"/>
+        <v>363</v>
+      </c>
+      <c r="E372" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="B373" s="8">
+        <v>2</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="B374" s="8">
+        <v>3</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="4" t="s">
+      <c r="B375" s="8">
+        <v>4</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="B376" s="8">
+        <v>5</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="B377" s="8">
+        <v>6</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D377" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B375" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="4" t="s">
+      <c r="B380" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B376" s="6" t="s">
+      <c r="B381" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C376" s="6"/>
-      <c r="D376" s="6"/>
-      <c r="E376" s="6"/>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="B378" s="7" t="s">
+      <c r="C381" s="6"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="B384" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C384" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D378" s="7" t="s">
+      <c r="D384" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E378" s="7" t="s">
+      <c r="E384" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
-      <c r="B379" s="8">
+    <row r="385" spans="1:5">
+      <c r="B385" s="8">
         <v>1</v>
       </c>
-      <c r="C379" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="D379" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E379" s="8"/>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="B380" s="8">
+      <c r="C385" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="B386" s="8">
         <v>2</v>
       </c>
-      <c r="C380" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D380" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E380" s="8"/>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="B381" s="8">
-        <v>3</v>
-      </c>
-      <c r="C381" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="D381" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E381" s="8"/>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="B382" s="8">
-        <v>4</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D382" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E382" s="8"/>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="A385" s="4" t="s">
+      <c r="C386" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B385" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C385" s="5"/>
-      <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="A386" s="4" t="s">
+      <c r="B389" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B386" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C386" s="6"/>
-      <c r="D386" s="6"/>
-      <c r="E386" s="6"/>
-    </row>
-    <row r="387" spans="1:5">
-      <c r="A387" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C387" s="6"/>
-      <c r="D387" s="6"/>
-      <c r="E387" s="6"/>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="B389" s="7" t="s">
+      <c r="B390" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C390" s="6"/>
+      <c r="D390" s="6"/>
+      <c r="E390" s="6"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="B392" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="C392" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D389" s="7" t="s">
+      <c r="D392" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E389" s="7" t="s">
+      <c r="E392" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="B390" s="8">
-        <v>1</v>
-      </c>
-      <c r="C390" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E390" s="8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="B391" s="8">
-        <v>2</v>
-      </c>
-      <c r="C391" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D391" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E391" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C394" s="5"/>
-      <c r="D394" s="5"/>
-      <c r="E394" s="5"/>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C395" s="5"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B395" s="6" t="s">
+      <c r="B396" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C395" s="6"/>
-      <c r="D395" s="6"/>
-      <c r="E395" s="6"/>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="B397" s="7" t="s">
+      <c r="C396" s="6"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="B398" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C398" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D397" s="7" t="s">
+      <c r="D398" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E397" s="7" t="s">
+      <c r="E398" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="A400" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C400" s="5"/>
-      <c r="D400" s="5"/>
-      <c r="E400" s="5"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B401" s="6" t="s">
+      <c r="B402" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C401" s="6"/>
-      <c r="D401" s="6"/>
-      <c r="E401" s="6"/>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="B403" s="7" t="s">
+      <c r="C402" s="6"/>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="B404" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C404" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D403" s="7" t="s">
+      <c r="D404" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E403" s="7" t="s">
+      <c r="E404" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C406" s="5"/>
-      <c r="D406" s="5"/>
-      <c r="E406" s="5"/>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B407" s="6" t="s">
+      <c r="B408" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C407" s="6"/>
-      <c r="D407" s="6"/>
-      <c r="E407" s="6"/>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="B409" s="7" t="s">
+      <c r="C408" s="6"/>
+      <c r="D408" s="6"/>
+      <c r="E408" s="6"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="B410" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C409" s="7" t="s">
+      <c r="C410" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D409" s="7" t="s">
+      <c r="D410" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E409" s="7" t="s">
+      <c r="E410" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="A412" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B413" s="6" t="s">
+      <c r="B414" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C413" s="6"/>
-      <c r="D413" s="6"/>
-      <c r="E413" s="6"/>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="B415" s="7" t="s">
+      <c r="C414" s="6"/>
+      <c r="D414" s="6"/>
+      <c r="E414" s="6"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="B416" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C415" s="7" t="s">
+      <c r="C416" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D415" s="7" t="s">
+      <c r="D416" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E415" s="7" t="s">
+      <c r="E416" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B419" s="6" t="s">
+      <c r="B420" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C419" s="6"/>
-      <c r="D419" s="6"/>
-      <c r="E419" s="6"/>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="B421" s="7" t="s">
+      <c r="C420" s="6"/>
+      <c r="D420" s="6"/>
+      <c r="E420" s="6"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="B422" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C421" s="7" t="s">
+      <c r="C422" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D421" s="7" t="s">
+      <c r="D422" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E421" s="7" t="s">
+      <c r="E422" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
-      <c r="A424" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B424" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C424" s="5"/>
-      <c r="D424" s="5"/>
-      <c r="E424" s="5"/>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C425" s="6"/>
-      <c r="D425" s="6"/>
-      <c r="E425" s="6"/>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="B427" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D427" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E427" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="106">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -5747,38 +5694,40 @@
     <mergeCell ref="B310:E310"/>
     <mergeCell ref="B315:E315"/>
     <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B325:E325"/>
-    <mergeCell ref="B333:E333"/>
+    <mergeCell ref="B317:E317"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="B329:E329"/>
+    <mergeCell ref="B330:E330"/>
+    <mergeCell ref="B331:E331"/>
     <mergeCell ref="B334:E334"/>
-    <mergeCell ref="B338:E338"/>
-    <mergeCell ref="B339:E339"/>
+    <mergeCell ref="B335:E335"/>
     <mergeCell ref="B343:E343"/>
     <mergeCell ref="B344:E344"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B351:E351"/>
-    <mergeCell ref="B357:E357"/>
-    <mergeCell ref="B358:E358"/>
-    <mergeCell ref="B359:E359"/>
-    <mergeCell ref="B370:E370"/>
-    <mergeCell ref="B371:E371"/>
-    <mergeCell ref="B375:E375"/>
-    <mergeCell ref="B376:E376"/>
-    <mergeCell ref="B385:E385"/>
-    <mergeCell ref="B386:E386"/>
-    <mergeCell ref="B387:E387"/>
-    <mergeCell ref="B394:E394"/>
+    <mergeCell ref="B348:E348"/>
+    <mergeCell ref="B349:E349"/>
+    <mergeCell ref="B353:E353"/>
+    <mergeCell ref="B354:E354"/>
+    <mergeCell ref="B360:E360"/>
+    <mergeCell ref="B361:E361"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="B368:E368"/>
+    <mergeCell ref="B369:E369"/>
+    <mergeCell ref="B380:E380"/>
+    <mergeCell ref="B381:E381"/>
+    <mergeCell ref="B382:E382"/>
+    <mergeCell ref="B389:E389"/>
+    <mergeCell ref="B390:E390"/>
     <mergeCell ref="B395:E395"/>
-    <mergeCell ref="B400:E400"/>
+    <mergeCell ref="B396:E396"/>
     <mergeCell ref="B401:E401"/>
-    <mergeCell ref="B406:E406"/>
+    <mergeCell ref="B402:E402"/>
     <mergeCell ref="B407:E407"/>
-    <mergeCell ref="B412:E412"/>
+    <mergeCell ref="B408:E408"/>
     <mergeCell ref="B413:E413"/>
-    <mergeCell ref="B418:E418"/>
+    <mergeCell ref="B414:E414"/>
     <mergeCell ref="B419:E419"/>
-    <mergeCell ref="B424:E424"/>
-    <mergeCell ref="B425:E425"/>
+    <mergeCell ref="B420:E420"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6635,7 +6584,7 @@
         <v>55</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -6645,7 +6594,7 @@
         <v>92</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -6666,10 +6615,10 @@
         <v>2048</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6677,10 +6626,10 @@
         <v>2054</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6688,10 +6637,10 @@
         <v>34525</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6699,10 +6648,10 @@
         <v>34887</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6710,7 +6659,7 @@
         <v>55</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -6720,7 +6669,7 @@
         <v>92</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -6741,10 +6690,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6752,10 +6701,10 @@
         <v>6</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6763,10 +6712,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6774,7 +6723,7 @@
         <v>55</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -6784,7 +6733,7 @@
         <v>92</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -6805,10 +6754,10 @@
         <v>20</v>
       </c>
       <c r="C132" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6816,10 +6765,10 @@
         <v>21</v>
       </c>
       <c r="C133" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6827,10 +6776,10 @@
         <v>22</v>
       </c>
       <c r="C134" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6838,10 +6787,10 @@
         <v>23</v>
       </c>
       <c r="C135" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D135" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6849,10 +6798,10 @@
         <v>25</v>
       </c>
       <c r="C136" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6860,10 +6809,10 @@
         <v>80</v>
       </c>
       <c r="C137" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6871,10 +6820,10 @@
         <v>443</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/data_gen/openc2_genj.xlsx
+++ b/data_gen/openc2_genj.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="462">
-  <si>
-    <t>Generated from data\openc2.jaen, Fri Mar 10 13:43:58 2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="463">
+  <si>
+    <t>Generated from data\openc2.jaen, Fri Mar 10 14:52:35 2017</t>
   </si>
   <si>
     <t>module</t>
@@ -381,7 +381,7 @@
     <t>mac_addr</t>
   </si>
   <si>
-    <t>mac-addr (Record)</t>
+    <t>mac-addr (String)</t>
   </si>
   <si>
     <t>memory</t>
@@ -411,7 +411,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>url (Record)</t>
+    <t>url (String)</t>
   </si>
   <si>
     <t>user_account</t>
@@ -945,6 +945,36 @@
     <t>whirlpool cryptographic hash function as defined in ISO/IEC 10118-3:2004</t>
   </si>
   <si>
+    <t>type (required)</t>
+  </si>
+  <si>
+    <t>MUST be "artifact"</t>
+  </si>
+  <si>
+    <t>mime_type (optional)</t>
+  </si>
+  <si>
+    <t>MUST be a valid MIME type as specified in the IANA Media Types registry</t>
+  </si>
+  <si>
+    <t>* (optional)</t>
+  </si>
+  <si>
+    <t>payload (Choice)</t>
+  </si>
+  <si>
+    <t>choice of literal content or URL to obtain content</t>
+  </si>
+  <si>
+    <t>hashes (optional)</t>
+  </si>
+  <si>
+    <t>hashes-type (Map)</t>
+  </si>
+  <si>
+    <t>Specifies a dictionary of hashes for the contents of the payload</t>
+  </si>
+  <si>
     <t>payload</t>
   </si>
   <si>
@@ -960,36 +990,6 @@
     <t>MUST be a valid URL that resolves to the un-encoded content</t>
   </si>
   <si>
-    <t>type (required)</t>
-  </si>
-  <si>
-    <t>MUST be "artifact"</t>
-  </si>
-  <si>
-    <t>mime_type (optional)</t>
-  </si>
-  <si>
-    <t>MUST be a valid MIME type as specified in the IANA Media Types registry</t>
-  </si>
-  <si>
-    <t>* (optional)</t>
-  </si>
-  <si>
-    <t>payload (Choice)</t>
-  </si>
-  <si>
-    <t>choice of literal content or URL to obtain content</t>
-  </si>
-  <si>
-    <t>hashes (optional)</t>
-  </si>
-  <si>
-    <t>hashes-type (Map)</t>
-  </si>
-  <si>
-    <t>Specifies a dictionary of hashes for the contents of the payload</t>
-  </si>
-  <si>
     <t>Target used to query Actuator for its supported capabilities</t>
   </si>
   <si>
@@ -1146,21 +1146,12 @@
     <t>TODO: finish</t>
   </si>
   <si>
-    <t>ipv4-str</t>
+    <t>ipv4-addr</t>
   </si>
   <si>
     <t>IPv4 address or range in CIDR notation</t>
   </si>
   <si>
-    <t>ipv4-addr</t>
-  </si>
-  <si>
-    <t>ipv4-str (String)</t>
-  </si>
-  <si>
-    <t>Specifies one or more IPv4 addresses</t>
-  </si>
-  <si>
     <t>resolves_to_refs (optional)</t>
   </si>
   <si>
@@ -1179,220 +1170,232 @@
     <t>Specifies a reference to one or more autonomous systems (AS) that the IPv4 address belongs to.</t>
   </si>
   <si>
-    <t>ipv6-str</t>
+    <t>ipv6-addr</t>
   </si>
   <si>
     <t>IPv6 address or range</t>
   </si>
   <si>
-    <t>ipv6-addr</t>
-  </si>
-  <si>
-    <t>ipv6-str (String)</t>
-  </si>
-  <si>
-    <t>Specifies one or more IPv6 addresses</t>
-  </si>
-  <si>
     <t>mac-addrs</t>
   </si>
   <si>
+    <t>mac-addr</t>
+  </si>
+  <si>
+    <t>Colon-delimited MAC-48 address with leading zeros for each octet</t>
+  </si>
+  <si>
     <t>asystems</t>
   </si>
   <si>
     <t>autonomous-system</t>
   </si>
   <si>
-    <t>mac-addr</t>
-  </si>
-  <si>
-    <t>Specifies a single MAC address.  MUST be represented as a single colon-delimited, lowercase MAC-48 address, which MUST include leading zeros for each octet.  Example: 00:00:ab:cd:ef:01</t>
-  </si>
-  <si>
-    <t>mutex</t>
+    <t>ip-connection</t>
+  </si>
+  <si>
+    <t>5-tuple that specifies a tcp/ip connection</t>
+  </si>
+  <si>
+    <t>src_addr (optional)</t>
+  </si>
+  <si>
+    <t>source address</t>
+  </si>
+  <si>
+    <t>src_port (optional)</t>
+  </si>
+  <si>
+    <t>port (Choice)</t>
+  </si>
+  <si>
+    <t>source TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>dst_addr (optional)</t>
+  </si>
+  <si>
+    <t>destination address</t>
+  </si>
+  <si>
+    <t>dst_port (optional)</t>
+  </si>
+  <si>
+    <t>destination TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>layer3_protocol (optional)</t>
+  </si>
+  <si>
+    <t>layer3-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>IEEE 802 Ether Type</t>
+  </si>
+  <si>
+    <t>layer4_protocol (optional)</t>
+  </si>
+  <si>
+    <t>layer4-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>Protocol (IPv4) / Next Header (IPv6)</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>TCP/UDP port number or protocol</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Port number (e.g., dynamically assigned)</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>layer7-protocol (vocab)</t>
+  </si>
+  <si>
+    <t>Registered port nummber (registered with IANA)</t>
+  </si>
+  <si>
+    <t>layer3-protocol</t>
+  </si>
+  <si>
+    <t>IEEE 802 Ether Types - any IANA value, RFC 7042</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>0x0800 Internet Protocol Version 4</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>0x0806 Address Resolution Protocol</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>0x86DD Internet Protocol Version 6</t>
+  </si>
+  <si>
+    <t>MPLS</t>
+  </si>
+  <si>
+    <t>0x8847 Multi-Protocol Label Switching</t>
+  </si>
+  <si>
+    <t>layer4-protocol</t>
+  </si>
+  <si>
+    <t>protocol (IPv4) or next header (IPv6) field - any IANA value, RFC 5237</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
+    <t>Internet Control Message Protocol - RFC 792</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Transmission Control Protocol - RFC 793</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol - RFC 768</t>
+  </si>
+  <si>
+    <t>layer7-protocol</t>
+  </si>
+  <si>
+    <t>Service Name and Transport Protocol Port - any IANA value, RFC 6335</t>
+  </si>
+  <si>
+    <t>ftp-data</t>
+  </si>
+  <si>
+    <t>File Transfer Protocol (data)</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>File Transfer Protocol (control)</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>Secure Shell Protocol</t>
+  </si>
+  <si>
+    <t>telnet</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>Simple Mail Transfer Protocol</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>Hypertext Transport Protocol</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>HTTP over TLS</t>
   </si>
   <si>
     <t>name (required)</t>
   </si>
   <si>
-    <t>Specifies the name of the mutex object.</t>
-  </si>
-  <si>
-    <t>ip-connection</t>
-  </si>
-  <si>
-    <t>5-tuple that specifies a tcp/ip connection</t>
-  </si>
-  <si>
-    <t>src_addr (optional)</t>
-  </si>
-  <si>
-    <t>source address</t>
-  </si>
-  <si>
-    <t>src_port (optional)</t>
-  </si>
-  <si>
-    <t>port (Choice)</t>
-  </si>
-  <si>
-    <t>source TCP/UDP port number</t>
-  </si>
-  <si>
-    <t>dst_addr (optional)</t>
-  </si>
-  <si>
-    <t>destination address</t>
-  </si>
-  <si>
-    <t>dst_port (optional)</t>
-  </si>
-  <si>
-    <t>destination TCP/UDP port number</t>
-  </si>
-  <si>
-    <t>layer3_protocol (optional)</t>
-  </si>
-  <si>
-    <t>layer3-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>IEEE 802 Ether Type</t>
-  </si>
-  <si>
-    <t>layer4_protocol (optional)</t>
-  </si>
-  <si>
-    <t>layer4-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>Protocol (IPv4) / Next Header (IPv6)</t>
-  </si>
-  <si>
-    <t>layer3-protocol</t>
-  </si>
-  <si>
-    <t>IEEE 802 Ether Types - any IANA value, RFC 7042</t>
-  </si>
-  <si>
-    <t>IPv4</t>
-  </si>
-  <si>
-    <t>0x0800 Internet Protocol Version 4</t>
-  </si>
-  <si>
-    <t>ARP</t>
-  </si>
-  <si>
-    <t>0x0806 Address Resolution Protocol</t>
-  </si>
-  <si>
-    <t>IPv6</t>
-  </si>
-  <si>
-    <t>0x86DD Internet Protocol Version 6</t>
-  </si>
-  <si>
-    <t>MPLS</t>
-  </si>
-  <si>
-    <t>0x8847 Multi-Protocol Label Switching</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>TCP/UDP port number or protocol</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Port number (e.g., dynamically assigned)</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>layer7-protocol (vocab)</t>
-  </si>
-  <si>
-    <t>Registered port nummber (registered with IANA)</t>
-  </si>
-  <si>
-    <t>layer4-protocol</t>
-  </si>
-  <si>
-    <t>protocol (IPv4) or next header (IPv6) field - any IANA value, RFC 5237</t>
-  </si>
-  <si>
-    <t>ICMP</t>
-  </si>
-  <si>
-    <t>Internet Control Message Protocol - RFC 792</t>
-  </si>
-  <si>
-    <t>TCP</t>
-  </si>
-  <si>
-    <t>Transmission Control Protocol - RFC 793</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>User Datagram Protocol - RFC 768</t>
-  </si>
-  <si>
-    <t>layer7-protocol</t>
-  </si>
-  <si>
-    <t>Service Name and Transport Protocol Port - any IANA value, RFC 6335</t>
-  </si>
-  <si>
-    <t>ftp-data</t>
-  </si>
-  <si>
-    <t>File Transfer Protocol (data)</t>
-  </si>
-  <si>
-    <t>ftp</t>
-  </si>
-  <si>
-    <t>File Transfer Protocol (control)</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>Secure Shell Protocol</t>
-  </si>
-  <si>
-    <t>telnet</t>
-  </si>
-  <si>
-    <t>Telnet</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>Simple Mail Transfer Protocol</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>Hypertext Transport Protocol</t>
-  </si>
-  <si>
-    <t>https</t>
-  </si>
-  <si>
-    <t>HTTP over TLS</t>
+    <t>Name of the software</t>
+  </si>
+  <si>
+    <t>cpe (optional)</t>
+  </si>
+  <si>
+    <t>From Common Platform Enumeration (CPE) v2.3 dictionary</t>
+  </si>
+  <si>
+    <t>language (optional)</t>
+  </si>
+  <si>
+    <t>Language of the software from ISO 639-2</t>
+  </si>
+  <si>
+    <t>vendor (optional)</t>
+  </si>
+  <si>
+    <t>Vendor of the software</t>
+  </si>
+  <si>
+    <t>version (optional)</t>
+  </si>
+  <si>
+    <t>Version of the software</t>
   </si>
   <si>
     <t>user-account</t>
@@ -1885,7 +1888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E422"/>
+  <dimension ref="A2:E406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3978,7 +3981,7 @@
         <v>15</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -3989,7 +3992,7 @@
         <v>16</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -4014,13 +4017,13 @@
         <v>1</v>
       </c>
       <c r="C217" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E217" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4028,102 +4031,102 @@
         <v>2</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="D218" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E218" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="B219" s="8">
+        <v>3</v>
+      </c>
+      <c r="C219" s="8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="4" t="s">
+      <c r="D219" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="B220" s="8">
+        <v>4</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="4" t="s">
+      <c r="B223" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="B226" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C226" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="D226" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E224" s="7" t="s">
+      <c r="E226" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="B225" s="8">
-        <v>1</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="B226" s="8">
-        <v>2</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E226" s="8" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="B227" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="B228" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>323</v>
@@ -4828,218 +4831,217 @@
         <v>16</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B317" s="6" t="s">
+    <row r="318" spans="1:5">
+      <c r="B318" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="B319" s="8">
+        <v>1</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E319" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="4" t="s">
+      <c r="B320" s="8">
+        <v>2</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="B321" s="8">
+        <v>3</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D321" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="B324" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C325" s="6"/>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="B327" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="B328" s="8">
+        <v>1</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="B329" s="8">
+        <v>2</v>
+      </c>
+      <c r="C329" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C320" s="5"/>
-      <c r="D320" s="5"/>
-      <c r="E320" s="5"/>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
-      <c r="E321" s="6"/>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="B323" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D323" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E323" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="B324" s="8">
-        <v>1</v>
-      </c>
-      <c r="C324" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D324" s="8" t="s">
+      <c r="D329" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E324" s="8" t="s">
+      <c r="E329" s="8" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
-      <c r="B325" s="8">
-        <v>2</v>
-      </c>
-      <c r="C325" s="8" t="s">
+    <row r="330" spans="1:5">
+      <c r="B330" s="8">
+        <v>3</v>
+      </c>
+      <c r="C330" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D325" s="8" t="s">
+      <c r="D330" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E325" s="8" t="s">
+      <c r="E330" s="8" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
-      <c r="B326" s="8">
-        <v>3</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D326" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E326" s="8" t="s">
+    <row r="333" spans="1:5">
+      <c r="A333" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C329" s="5"/>
-      <c r="D329" s="5"/>
-      <c r="E329" s="5"/>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C331" s="6"/>
-      <c r="D331" s="6"/>
-      <c r="E331" s="6"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="B335" s="8">
+        <v>0</v>
+      </c>
+      <c r="C335" s="8"/>
+      <c r="D335" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E335" s="8"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B334" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C334" s="5"/>
-      <c r="D334" s="5"/>
-      <c r="E334" s="5"/>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="4" t="s">
+      <c r="B338" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B335" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="6"/>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="B337" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D337" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E337" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="B338" s="8">
-        <v>1</v>
-      </c>
-      <c r="C338" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D338" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E338" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="B339" s="8">
-        <v>2</v>
-      </c>
-      <c r="C339" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D339" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E339" s="8" t="s">
-        <v>383</v>
-      </c>
+      <c r="B339" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C339" s="6"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
     </row>
     <row r="340" spans="1:5">
-      <c r="B340" s="8">
-        <v>3</v>
-      </c>
-      <c r="C340" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D340" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E340" s="8" t="s">
-        <v>386</v>
-      </c>
+      <c r="A340" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
@@ -5062,7 +5064,7 @@
       </c>
       <c r="C345" s="8"/>
       <c r="D345" s="8" t="s">
-        <v>121</v>
+        <v>390</v>
       </c>
       <c r="E345" s="8"/>
     </row>
@@ -5071,7 +5073,7 @@
         <v>15</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
@@ -5082,546 +5084,470 @@
         <v>16</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
     </row>
     <row r="350" spans="1:5">
-      <c r="B350" s="8">
-        <v>0</v>
-      </c>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8" t="s">
+      <c r="A350" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="B352" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E352" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="B353" s="8">
+        <v>1</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E353" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E350" s="8"/>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B353" s="5" t="s">
+    </row>
+    <row r="354" spans="1:5">
+      <c r="B354" s="8">
+        <v>2</v>
+      </c>
+      <c r="C354" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C353" s="5"/>
-      <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B354" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
+      <c r="D354" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E354" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="B355" s="8">
+        <v>3</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="356" spans="1:5">
-      <c r="B356" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D356" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E356" s="7" t="s">
-        <v>21</v>
+      <c r="B356" s="8">
+        <v>4</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E356" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="B357" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>49</v>
+        <v>403</v>
       </c>
       <c r="E357" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C360" s="5"/>
-      <c r="D360" s="5"/>
-      <c r="E360" s="5"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="B358" s="8">
+        <v>6</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D358" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B361" s="6" t="s">
+      <c r="B362" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C362" s="6"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="B365" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D365" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="B366" s="8">
+        <v>1</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="B367" s="8">
+        <v>2</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B371" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
-      <c r="E361" s="6"/>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="B363" s="7" t="s">
+      <c r="C371" s="6"/>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="B373" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C363" s="7" t="s">
+      <c r="C373" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D363" s="7" t="s">
+      <c r="D373" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E363" s="7" t="s">
+      <c r="E373" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
-      <c r="B364" s="8">
+    <row r="376" spans="1:5">
+      <c r="A376" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C377" s="6"/>
+      <c r="D377" s="6"/>
+      <c r="E377" s="6"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="B379" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D379" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E379" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="B380" s="8">
         <v>1</v>
       </c>
-      <c r="C364" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="D364" s="8" t="s">
+      <c r="C380" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D380" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E364" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="A367" s="4" t="s">
+      <c r="E380" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="B381" s="8">
+        <v>2</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="B382" s="8">
+        <v>3</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="B383" s="8">
+        <v>4</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="B384" s="8">
+        <v>5</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D384" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B367" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C367" s="5"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="4" t="s">
+      <c r="B387" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B368" s="6" t="s">
+      <c r="B388" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C388" s="6"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B392" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
-      <c r="E368" s="6"/>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="A369" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
-      <c r="E369" s="6"/>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="B371" s="7" t="s">
+      <c r="C392" s="6"/>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="B394" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="7" t="s">
+      <c r="C394" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D371" s="7" t="s">
+      <c r="D394" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E371" s="7" t="s">
+      <c r="E394" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
-      <c r="B372" s="8">
-        <v>1</v>
-      </c>
-      <c r="C372" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D372" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E372" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="B373" s="8">
-        <v>2</v>
-      </c>
-      <c r="C373" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="D373" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E373" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="B374" s="8">
-        <v>3</v>
-      </c>
-      <c r="C374" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="D374" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E374" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="B375" s="8">
-        <v>4</v>
-      </c>
-      <c r="C375" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D375" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E375" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="B376" s="8">
-        <v>5</v>
-      </c>
-      <c r="C376" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="D376" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E376" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="B377" s="8">
-        <v>6</v>
-      </c>
-      <c r="C377" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="D377" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E377" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="A380" s="4" t="s">
+    <row r="397" spans="1:5">
+      <c r="A397" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B380" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
-      <c r="E380" s="5"/>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="4" t="s">
+      <c r="B397" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B381" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C381" s="6"/>
-      <c r="D381" s="6"/>
-      <c r="E381" s="6"/>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="B384" s="7" t="s">
+      <c r="B398" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C398" s="6"/>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="B400" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C400" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D384" s="7" t="s">
+      <c r="D400" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E384" s="7" t="s">
+      <c r="E400" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
-      <c r="B385" s="8">
-        <v>1</v>
-      </c>
-      <c r="C385" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E385" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="B386" s="8">
-        <v>2</v>
-      </c>
-      <c r="C386" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="D386" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E386" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="A389" s="4" t="s">
+    <row r="403" spans="1:5">
+      <c r="A403" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B389" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C389" s="5"/>
-      <c r="D389" s="5"/>
-      <c r="E389" s="5"/>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390" s="4" t="s">
+      <c r="B403" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B390" s="6" t="s">
+      <c r="B404" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C390" s="6"/>
-      <c r="D390" s="6"/>
-      <c r="E390" s="6"/>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="B392" s="7" t="s">
+      <c r="C404" s="6"/>
+      <c r="D404" s="6"/>
+      <c r="E404" s="6"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="B406" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="7" t="s">
+      <c r="C406" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D392" s="7" t="s">
+      <c r="D406" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E392" s="7" t="s">
+      <c r="E406" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
-      <c r="A395" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C395" s="5"/>
-      <c r="D395" s="5"/>
-      <c r="E395" s="5"/>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="A396" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B396" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C396" s="6"/>
-      <c r="D396" s="6"/>
-      <c r="E396" s="6"/>
-    </row>
-    <row r="398" spans="1:5">
-      <c r="B398" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D398" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E398" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C401" s="5"/>
-      <c r="D401" s="5"/>
-      <c r="E401" s="5"/>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="A402" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C402" s="6"/>
-      <c r="D402" s="6"/>
-      <c r="E402" s="6"/>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="B404" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D404" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E404" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C407" s="5"/>
-      <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B408" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C408" s="6"/>
-      <c r="D408" s="6"/>
-      <c r="E408" s="6"/>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="B410" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D410" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E410" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="A413" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C414" s="6"/>
-      <c r="D414" s="6"/>
-      <c r="E414" s="6"/>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="B416" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D416" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E416" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C420" s="6"/>
-      <c r="D420" s="6"/>
-      <c r="E420" s="6"/>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="B422" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C422" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D422" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E422" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="99">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B11:E11"/>
@@ -5667,8 +5593,8 @@
     <mergeCell ref="B194:E194"/>
     <mergeCell ref="B213:E213"/>
     <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B224:E224"/>
     <mergeCell ref="B231:E231"/>
     <mergeCell ref="B232:E232"/>
     <mergeCell ref="B244:E244"/>
@@ -5694,40 +5620,33 @@
     <mergeCell ref="B310:E310"/>
     <mergeCell ref="B315:E315"/>
     <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B317:E317"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B329:E329"/>
-    <mergeCell ref="B330:E330"/>
-    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B325:E325"/>
+    <mergeCell ref="B333:E333"/>
     <mergeCell ref="B334:E334"/>
-    <mergeCell ref="B335:E335"/>
+    <mergeCell ref="B338:E338"/>
+    <mergeCell ref="B339:E339"/>
+    <mergeCell ref="B340:E340"/>
     <mergeCell ref="B343:E343"/>
     <mergeCell ref="B344:E344"/>
     <mergeCell ref="B348:E348"/>
     <mergeCell ref="B349:E349"/>
-    <mergeCell ref="B353:E353"/>
-    <mergeCell ref="B354:E354"/>
-    <mergeCell ref="B360:E360"/>
+    <mergeCell ref="B350:E350"/>
     <mergeCell ref="B361:E361"/>
-    <mergeCell ref="B367:E367"/>
-    <mergeCell ref="B368:E368"/>
-    <mergeCell ref="B369:E369"/>
-    <mergeCell ref="B380:E380"/>
-    <mergeCell ref="B381:E381"/>
-    <mergeCell ref="B382:E382"/>
-    <mergeCell ref="B389:E389"/>
-    <mergeCell ref="B390:E390"/>
-    <mergeCell ref="B395:E395"/>
-    <mergeCell ref="B396:E396"/>
-    <mergeCell ref="B401:E401"/>
-    <mergeCell ref="B402:E402"/>
-    <mergeCell ref="B407:E407"/>
-    <mergeCell ref="B408:E408"/>
-    <mergeCell ref="B413:E413"/>
-    <mergeCell ref="B414:E414"/>
-    <mergeCell ref="B419:E419"/>
-    <mergeCell ref="B420:E420"/>
+    <mergeCell ref="B362:E362"/>
+    <mergeCell ref="B363:E363"/>
+    <mergeCell ref="B370:E370"/>
+    <mergeCell ref="B371:E371"/>
+    <mergeCell ref="B376:E376"/>
+    <mergeCell ref="B377:E377"/>
+    <mergeCell ref="B387:E387"/>
+    <mergeCell ref="B388:E388"/>
+    <mergeCell ref="B391:E391"/>
+    <mergeCell ref="B392:E392"/>
+    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="B398:E398"/>
+    <mergeCell ref="B403:E403"/>
+    <mergeCell ref="B404:E404"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6584,7 +6503,7 @@
         <v>55</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -6594,7 +6513,7 @@
         <v>92</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -6615,10 +6534,10 @@
         <v>2048</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6626,10 +6545,10 @@
         <v>2054</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6637,10 +6556,10 @@
         <v>34525</v>
       </c>
       <c r="C117" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6648,10 +6567,10 @@
         <v>34887</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6659,7 +6578,7 @@
         <v>55</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -6669,7 +6588,7 @@
         <v>92</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -6690,10 +6609,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6701,10 +6620,10 @@
         <v>6</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6712,10 +6631,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6723,7 +6642,7 @@
         <v>55</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -6733,7 +6652,7 @@
         <v>92</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -6754,10 +6673,10 @@
         <v>20</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6765,10 +6684,10 @@
         <v>21</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6776,10 +6695,10 @@
         <v>22</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6787,10 +6706,10 @@
         <v>23</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6798,10 +6717,10 @@
         <v>25</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6809,10 +6728,10 @@
         <v>80</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6820,10 +6739,10 @@
         <v>443</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
